--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhHnpgA4JW9lGqiJgE1/Nhb/bqSPg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mha5l6Bk6P8Mf6EJ05tE+RjvwFg0Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -39,16 +39,22 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>DRAFT</t>
+    <t>Création de l'onglet 001 pour la table IMP</t>
   </si>
   <si>
     <t>Version de Mainta pour laquelle le JDD de référence est validé</t>
+  </si>
+  <si>
+    <t>Création de l'onglet 001A pour la table IMPARB</t>
   </si>
   <si>
     <t>Onglet</t>
   </si>
   <si>
     <t>TABLE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
   <si>
     <t>Num écran</t>
@@ -66,6 +72,9 @@
     <t>Libellé des champs (colonnes)</t>
   </si>
   <si>
+    <t>PK en rouge</t>
+  </si>
+  <si>
     <t>La rubrique n'est pas présente dans l'IHM</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
     <t>Code long</t>
   </si>
   <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
     <t>VOIR MOE: ST_CODIMP = ST_CODLONG ? Qui est saisi ? qui est calculé ?</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
   </si>
   <si>
     <t>Désignation</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
   </si>
   <si>
     <t>VOIR MOE: ST_NOM = ST_DES ? Qui est saisi ? qui est calculé ?</t>
@@ -114,6 +129,9 @@
     <t>Utilisateur</t>
   </si>
   <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
     <t>Calculé</t>
   </si>
   <si>
@@ -126,16 +144,25 @@
     <t>Inactif</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>ID_NUMIMP</t>
   </si>
   <si>
     <t>Identifiant technique imputation</t>
   </si>
   <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <t>ST_CODPERSIMP</t>
   </si>
   <si>
     <t>Code imputation personnalisé</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
   </si>
   <si>
     <t>001A</t>
@@ -204,6 +231,9 @@
     <t>Trace date création</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>DT_TRAUPD</t>
   </si>
   <si>
@@ -232,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -251,8 +281,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -276,6 +315,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -293,17 +338,13 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -387,12 +428,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -413,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -426,14 +478,23 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -442,88 +503,109 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf quotePrefix="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -755,7 +837,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="3" max="3" width="46.0"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="26" width="10.63"/>
@@ -785,19 +867,25 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2">
+        <v>44886.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
@@ -1901,396 +1989,473 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="24.38"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col customWidth="1" min="3" max="4" width="24.38"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="7">
         <v>1012.0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31">
+        <v>1382.0</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="D18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19" t="s">
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B23" s="32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="C23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="E23" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="D24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="E24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1382.0</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="24" t="s">
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="D25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="F25" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>25</v>
+      <c r="E26" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>25</v>
+      <c r="A27" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1"/>
@@ -3195,5048 +3360,5048 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="A1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>37</v>
+      <c r="D1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="A4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="E8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="A14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="A22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="E29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="A30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="A31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="A32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="A34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="A35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="A36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="A37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="A38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="A39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="A40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="A41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="A42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="A43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="A44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="G44" s="42"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="G45" s="33"/>
+      <c r="A45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="A46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="G47" s="33"/>
+      <c r="A47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="A48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="G49" s="33"/>
+      <c r="A49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="G50" s="33"/>
+      <c r="A50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="G51" s="33"/>
+      <c r="A51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="G52" s="33"/>
+      <c r="A52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="G53" s="33"/>
+      <c r="A53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="G54" s="33"/>
+      <c r="A54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="E55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="A55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="A56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="G57" s="33"/>
+      <c r="A57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="G57" s="42"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="G58" s="33"/>
+      <c r="A58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="G58" s="42"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="A59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="G59" s="42"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="E60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="A60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="G60" s="42"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="A61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="G61" s="42"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="E62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="A62" s="41"/>
+      <c r="E62" s="42"/>
+      <c r="G62" s="42"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="E63" s="33"/>
-      <c r="G63" s="33"/>
+      <c r="A63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="G63" s="42"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="32"/>
-      <c r="E64" s="33"/>
-      <c r="G64" s="33"/>
+      <c r="A64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="G64" s="42"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="E65" s="33"/>
-      <c r="G65" s="33"/>
+      <c r="A65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="G65" s="42"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="32"/>
-      <c r="E66" s="33"/>
-      <c r="G66" s="33"/>
+      <c r="A66" s="41"/>
+      <c r="E66" s="42"/>
+      <c r="G66" s="42"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="32"/>
-      <c r="E67" s="33"/>
-      <c r="G67" s="33"/>
+      <c r="A67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="G67" s="42"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="32"/>
-      <c r="E68" s="33"/>
-      <c r="G68" s="33"/>
+      <c r="A68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="G68" s="42"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="32"/>
-      <c r="E69" s="33"/>
-      <c r="G69" s="33"/>
+      <c r="A69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="G69" s="42"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="E70" s="33"/>
-      <c r="G70" s="33"/>
+      <c r="A70" s="41"/>
+      <c r="E70" s="42"/>
+      <c r="G70" s="42"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="32"/>
-      <c r="E71" s="33"/>
-      <c r="G71" s="33"/>
+      <c r="A71" s="41"/>
+      <c r="E71" s="42"/>
+      <c r="G71" s="42"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="32"/>
-      <c r="E72" s="33"/>
-      <c r="G72" s="33"/>
+      <c r="A72" s="41"/>
+      <c r="E72" s="42"/>
+      <c r="G72" s="42"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="32"/>
-      <c r="E73" s="33"/>
-      <c r="G73" s="33"/>
+      <c r="A73" s="41"/>
+      <c r="E73" s="42"/>
+      <c r="G73" s="42"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="32"/>
-      <c r="E74" s="33"/>
-      <c r="G74" s="33"/>
+      <c r="A74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="G74" s="42"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="32"/>
-      <c r="E75" s="33"/>
-      <c r="G75" s="33"/>
+      <c r="A75" s="41"/>
+      <c r="E75" s="42"/>
+      <c r="G75" s="42"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="32"/>
-      <c r="E76" s="33"/>
-      <c r="G76" s="33"/>
+      <c r="A76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="G76" s="42"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="32"/>
-      <c r="E77" s="33"/>
-      <c r="G77" s="33"/>
+      <c r="A77" s="41"/>
+      <c r="E77" s="42"/>
+      <c r="G77" s="42"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="32"/>
-      <c r="E78" s="33"/>
-      <c r="G78" s="33"/>
+      <c r="A78" s="41"/>
+      <c r="E78" s="42"/>
+      <c r="G78" s="42"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="32"/>
-      <c r="E79" s="33"/>
-      <c r="G79" s="33"/>
+      <c r="A79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="G79" s="42"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="32"/>
-      <c r="E80" s="33"/>
-      <c r="G80" s="33"/>
+      <c r="A80" s="41"/>
+      <c r="E80" s="42"/>
+      <c r="G80" s="42"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="32"/>
-      <c r="E81" s="33"/>
-      <c r="G81" s="33"/>
+      <c r="A81" s="41"/>
+      <c r="E81" s="42"/>
+      <c r="G81" s="42"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="32"/>
-      <c r="E82" s="33"/>
-      <c r="G82" s="33"/>
+      <c r="A82" s="41"/>
+      <c r="E82" s="42"/>
+      <c r="G82" s="42"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="32"/>
-      <c r="E83" s="33"/>
-      <c r="G83" s="33"/>
+      <c r="A83" s="41"/>
+      <c r="E83" s="42"/>
+      <c r="G83" s="42"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="32"/>
-      <c r="E84" s="33"/>
-      <c r="G84" s="33"/>
+      <c r="A84" s="41"/>
+      <c r="E84" s="42"/>
+      <c r="G84" s="42"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="32"/>
-      <c r="E85" s="33"/>
-      <c r="G85" s="33"/>
+      <c r="A85" s="41"/>
+      <c r="E85" s="42"/>
+      <c r="G85" s="42"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="32"/>
-      <c r="E86" s="33"/>
-      <c r="G86" s="33"/>
+      <c r="A86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="G86" s="42"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="32"/>
-      <c r="E87" s="33"/>
-      <c r="G87" s="33"/>
+      <c r="A87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="G87" s="42"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="32"/>
-      <c r="E88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="A88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="G88" s="42"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="32"/>
-      <c r="E89" s="33"/>
-      <c r="G89" s="33"/>
+      <c r="A89" s="41"/>
+      <c r="E89" s="42"/>
+      <c r="G89" s="42"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="32"/>
-      <c r="E90" s="33"/>
-      <c r="G90" s="33"/>
+      <c r="A90" s="41"/>
+      <c r="E90" s="42"/>
+      <c r="G90" s="42"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="32"/>
-      <c r="E91" s="33"/>
-      <c r="G91" s="33"/>
+      <c r="A91" s="41"/>
+      <c r="E91" s="42"/>
+      <c r="G91" s="42"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="32"/>
-      <c r="E92" s="33"/>
-      <c r="G92" s="33"/>
+      <c r="A92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="G92" s="42"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="32"/>
-      <c r="E93" s="33"/>
-      <c r="G93" s="33"/>
+      <c r="A93" s="41"/>
+      <c r="E93" s="42"/>
+      <c r="G93" s="42"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="32"/>
-      <c r="E94" s="33"/>
-      <c r="G94" s="33"/>
+      <c r="A94" s="41"/>
+      <c r="E94" s="42"/>
+      <c r="G94" s="42"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="32"/>
-      <c r="E95" s="33"/>
-      <c r="G95" s="33"/>
+      <c r="A95" s="41"/>
+      <c r="E95" s="42"/>
+      <c r="G95" s="42"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="32"/>
-      <c r="E96" s="33"/>
-      <c r="G96" s="33"/>
+      <c r="A96" s="41"/>
+      <c r="E96" s="42"/>
+      <c r="G96" s="42"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="32"/>
-      <c r="E97" s="33"/>
-      <c r="G97" s="33"/>
+      <c r="A97" s="41"/>
+      <c r="E97" s="42"/>
+      <c r="G97" s="42"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="32"/>
-      <c r="E98" s="33"/>
-      <c r="G98" s="33"/>
+      <c r="A98" s="41"/>
+      <c r="E98" s="42"/>
+      <c r="G98" s="42"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="32"/>
-      <c r="E99" s="33"/>
-      <c r="G99" s="33"/>
+      <c r="A99" s="41"/>
+      <c r="E99" s="42"/>
+      <c r="G99" s="42"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="32"/>
-      <c r="E100" s="33"/>
-      <c r="G100" s="33"/>
+      <c r="A100" s="41"/>
+      <c r="E100" s="42"/>
+      <c r="G100" s="42"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="32"/>
-      <c r="E101" s="33"/>
-      <c r="G101" s="33"/>
+      <c r="A101" s="41"/>
+      <c r="E101" s="42"/>
+      <c r="G101" s="42"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="32"/>
-      <c r="E102" s="33"/>
-      <c r="G102" s="33"/>
+      <c r="A102" s="41"/>
+      <c r="E102" s="42"/>
+      <c r="G102" s="42"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="32"/>
-      <c r="E103" s="33"/>
-      <c r="G103" s="33"/>
+      <c r="A103" s="41"/>
+      <c r="E103" s="42"/>
+      <c r="G103" s="42"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="32"/>
-      <c r="E104" s="33"/>
-      <c r="G104" s="33"/>
+      <c r="A104" s="41"/>
+      <c r="E104" s="42"/>
+      <c r="G104" s="42"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="32"/>
-      <c r="E105" s="33"/>
-      <c r="G105" s="33"/>
+      <c r="A105" s="41"/>
+      <c r="E105" s="42"/>
+      <c r="G105" s="42"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="32"/>
-      <c r="E106" s="33"/>
-      <c r="G106" s="33"/>
+      <c r="A106" s="41"/>
+      <c r="E106" s="42"/>
+      <c r="G106" s="42"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="32"/>
-      <c r="E107" s="33"/>
-      <c r="G107" s="33"/>
+      <c r="A107" s="41"/>
+      <c r="E107" s="42"/>
+      <c r="G107" s="42"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="32"/>
-      <c r="E108" s="33"/>
-      <c r="G108" s="33"/>
+      <c r="A108" s="41"/>
+      <c r="E108" s="42"/>
+      <c r="G108" s="42"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="32"/>
-      <c r="E109" s="33"/>
-      <c r="G109" s="33"/>
+      <c r="A109" s="41"/>
+      <c r="E109" s="42"/>
+      <c r="G109" s="42"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="32"/>
-      <c r="E110" s="33"/>
-      <c r="G110" s="33"/>
+      <c r="A110" s="41"/>
+      <c r="E110" s="42"/>
+      <c r="G110" s="42"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="32"/>
-      <c r="E111" s="33"/>
-      <c r="G111" s="33"/>
+      <c r="A111" s="41"/>
+      <c r="E111" s="42"/>
+      <c r="G111" s="42"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="32"/>
-      <c r="E112" s="33"/>
-      <c r="G112" s="33"/>
+      <c r="A112" s="41"/>
+      <c r="E112" s="42"/>
+      <c r="G112" s="42"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="32"/>
-      <c r="E113" s="33"/>
-      <c r="G113" s="33"/>
+      <c r="A113" s="41"/>
+      <c r="E113" s="42"/>
+      <c r="G113" s="42"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="32"/>
-      <c r="E114" s="33"/>
-      <c r="G114" s="33"/>
+      <c r="A114" s="41"/>
+      <c r="E114" s="42"/>
+      <c r="G114" s="42"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="32"/>
-      <c r="E115" s="33"/>
-      <c r="G115" s="33"/>
+      <c r="A115" s="41"/>
+      <c r="E115" s="42"/>
+      <c r="G115" s="42"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="32"/>
-      <c r="E116" s="33"/>
-      <c r="G116" s="33"/>
+      <c r="A116" s="41"/>
+      <c r="E116" s="42"/>
+      <c r="G116" s="42"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="32"/>
-      <c r="E117" s="33"/>
-      <c r="G117" s="33"/>
+      <c r="A117" s="41"/>
+      <c r="E117" s="42"/>
+      <c r="G117" s="42"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="32"/>
-      <c r="E118" s="33"/>
-      <c r="G118" s="33"/>
+      <c r="A118" s="41"/>
+      <c r="E118" s="42"/>
+      <c r="G118" s="42"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="32"/>
-      <c r="E119" s="33"/>
-      <c r="G119" s="33"/>
+      <c r="A119" s="41"/>
+      <c r="E119" s="42"/>
+      <c r="G119" s="42"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="32"/>
-      <c r="E120" s="33"/>
-      <c r="G120" s="33"/>
+      <c r="A120" s="41"/>
+      <c r="E120" s="42"/>
+      <c r="G120" s="42"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="32"/>
-      <c r="E121" s="33"/>
-      <c r="G121" s="33"/>
+      <c r="A121" s="41"/>
+      <c r="E121" s="42"/>
+      <c r="G121" s="42"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="32"/>
-      <c r="E122" s="33"/>
-      <c r="G122" s="33"/>
+      <c r="A122" s="41"/>
+      <c r="E122" s="42"/>
+      <c r="G122" s="42"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="32"/>
-      <c r="E123" s="33"/>
-      <c r="G123" s="33"/>
+      <c r="A123" s="41"/>
+      <c r="E123" s="42"/>
+      <c r="G123" s="42"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="32"/>
-      <c r="E124" s="33"/>
-      <c r="G124" s="33"/>
+      <c r="A124" s="41"/>
+      <c r="E124" s="42"/>
+      <c r="G124" s="42"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="32"/>
-      <c r="E125" s="33"/>
-      <c r="G125" s="33"/>
+      <c r="A125" s="41"/>
+      <c r="E125" s="42"/>
+      <c r="G125" s="42"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="32"/>
-      <c r="E126" s="33"/>
-      <c r="G126" s="33"/>
+      <c r="A126" s="41"/>
+      <c r="E126" s="42"/>
+      <c r="G126" s="42"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="32"/>
-      <c r="E127" s="33"/>
-      <c r="G127" s="33"/>
+      <c r="A127" s="41"/>
+      <c r="E127" s="42"/>
+      <c r="G127" s="42"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="32"/>
-      <c r="E128" s="33"/>
-      <c r="G128" s="33"/>
+      <c r="A128" s="41"/>
+      <c r="E128" s="42"/>
+      <c r="G128" s="42"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="32"/>
-      <c r="E129" s="33"/>
-      <c r="G129" s="33"/>
+      <c r="A129" s="41"/>
+      <c r="E129" s="42"/>
+      <c r="G129" s="42"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="32"/>
-      <c r="E130" s="33"/>
-      <c r="G130" s="33"/>
+      <c r="A130" s="41"/>
+      <c r="E130" s="42"/>
+      <c r="G130" s="42"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="32"/>
-      <c r="E131" s="33"/>
-      <c r="G131" s="33"/>
+      <c r="A131" s="41"/>
+      <c r="E131" s="42"/>
+      <c r="G131" s="42"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="32"/>
-      <c r="E132" s="33"/>
-      <c r="G132" s="33"/>
+      <c r="A132" s="41"/>
+      <c r="E132" s="42"/>
+      <c r="G132" s="42"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="32"/>
-      <c r="E133" s="33"/>
-      <c r="G133" s="33"/>
+      <c r="A133" s="41"/>
+      <c r="E133" s="42"/>
+      <c r="G133" s="42"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="32"/>
-      <c r="E134" s="33"/>
-      <c r="G134" s="33"/>
+      <c r="A134" s="41"/>
+      <c r="E134" s="42"/>
+      <c r="G134" s="42"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="32"/>
-      <c r="E135" s="33"/>
-      <c r="G135" s="33"/>
+      <c r="A135" s="41"/>
+      <c r="E135" s="42"/>
+      <c r="G135" s="42"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="32"/>
-      <c r="E136" s="33"/>
-      <c r="G136" s="33"/>
+      <c r="A136" s="41"/>
+      <c r="E136" s="42"/>
+      <c r="G136" s="42"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="32"/>
-      <c r="E137" s="33"/>
-      <c r="G137" s="33"/>
+      <c r="A137" s="41"/>
+      <c r="E137" s="42"/>
+      <c r="G137" s="42"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="32"/>
-      <c r="E138" s="33"/>
-      <c r="G138" s="33"/>
+      <c r="A138" s="41"/>
+      <c r="E138" s="42"/>
+      <c r="G138" s="42"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="32"/>
-      <c r="E139" s="33"/>
-      <c r="G139" s="33"/>
+      <c r="A139" s="41"/>
+      <c r="E139" s="42"/>
+      <c r="G139" s="42"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="32"/>
-      <c r="E140" s="33"/>
-      <c r="G140" s="33"/>
+      <c r="A140" s="41"/>
+      <c r="E140" s="42"/>
+      <c r="G140" s="42"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="32"/>
-      <c r="E141" s="33"/>
-      <c r="G141" s="33"/>
+      <c r="A141" s="41"/>
+      <c r="E141" s="42"/>
+      <c r="G141" s="42"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="32"/>
-      <c r="E142" s="33"/>
-      <c r="G142" s="33"/>
+      <c r="A142" s="41"/>
+      <c r="E142" s="42"/>
+      <c r="G142" s="42"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="32"/>
-      <c r="E143" s="33"/>
-      <c r="G143" s="33"/>
+      <c r="A143" s="41"/>
+      <c r="E143" s="42"/>
+      <c r="G143" s="42"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="32"/>
-      <c r="E144" s="33"/>
-      <c r="G144" s="33"/>
+      <c r="A144" s="41"/>
+      <c r="E144" s="42"/>
+      <c r="G144" s="42"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="32"/>
-      <c r="E145" s="33"/>
-      <c r="G145" s="33"/>
+      <c r="A145" s="41"/>
+      <c r="E145" s="42"/>
+      <c r="G145" s="42"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="32"/>
-      <c r="E146" s="33"/>
-      <c r="G146" s="33"/>
+      <c r="A146" s="41"/>
+      <c r="E146" s="42"/>
+      <c r="G146" s="42"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="32"/>
-      <c r="E147" s="33"/>
-      <c r="G147" s="33"/>
+      <c r="A147" s="41"/>
+      <c r="E147" s="42"/>
+      <c r="G147" s="42"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="32"/>
-      <c r="E148" s="33"/>
-      <c r="G148" s="33"/>
+      <c r="A148" s="41"/>
+      <c r="E148" s="42"/>
+      <c r="G148" s="42"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="32"/>
-      <c r="E149" s="33"/>
-      <c r="G149" s="33"/>
+      <c r="A149" s="41"/>
+      <c r="E149" s="42"/>
+      <c r="G149" s="42"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="32"/>
-      <c r="E150" s="33"/>
-      <c r="G150" s="33"/>
+      <c r="A150" s="41"/>
+      <c r="E150" s="42"/>
+      <c r="G150" s="42"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="32"/>
-      <c r="E151" s="33"/>
-      <c r="G151" s="33"/>
+      <c r="A151" s="41"/>
+      <c r="E151" s="42"/>
+      <c r="G151" s="42"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="32"/>
-      <c r="E152" s="33"/>
-      <c r="G152" s="33"/>
+      <c r="A152" s="41"/>
+      <c r="E152" s="42"/>
+      <c r="G152" s="42"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="32"/>
-      <c r="E153" s="33"/>
-      <c r="G153" s="33"/>
+      <c r="A153" s="41"/>
+      <c r="E153" s="42"/>
+      <c r="G153" s="42"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="32"/>
-      <c r="E154" s="33"/>
-      <c r="G154" s="33"/>
+      <c r="A154" s="41"/>
+      <c r="E154" s="42"/>
+      <c r="G154" s="42"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="32"/>
-      <c r="E155" s="33"/>
-      <c r="G155" s="33"/>
+      <c r="A155" s="41"/>
+      <c r="E155" s="42"/>
+      <c r="G155" s="42"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="32"/>
-      <c r="E156" s="33"/>
-      <c r="G156" s="33"/>
+      <c r="A156" s="41"/>
+      <c r="E156" s="42"/>
+      <c r="G156" s="42"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="32"/>
-      <c r="E157" s="33"/>
-      <c r="G157" s="33"/>
+      <c r="A157" s="41"/>
+      <c r="E157" s="42"/>
+      <c r="G157" s="42"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="32"/>
-      <c r="E158" s="33"/>
-      <c r="G158" s="33"/>
+      <c r="A158" s="41"/>
+      <c r="E158" s="42"/>
+      <c r="G158" s="42"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="32"/>
-      <c r="E159" s="33"/>
-      <c r="G159" s="33"/>
+      <c r="A159" s="41"/>
+      <c r="E159" s="42"/>
+      <c r="G159" s="42"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="32"/>
-      <c r="E160" s="33"/>
-      <c r="G160" s="33"/>
+      <c r="A160" s="41"/>
+      <c r="E160" s="42"/>
+      <c r="G160" s="42"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="32"/>
-      <c r="E161" s="33"/>
-      <c r="G161" s="33"/>
+      <c r="A161" s="41"/>
+      <c r="E161" s="42"/>
+      <c r="G161" s="42"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="32"/>
-      <c r="E162" s="33"/>
-      <c r="G162" s="33"/>
+      <c r="A162" s="41"/>
+      <c r="E162" s="42"/>
+      <c r="G162" s="42"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="32"/>
-      <c r="E163" s="33"/>
-      <c r="G163" s="33"/>
+      <c r="A163" s="41"/>
+      <c r="E163" s="42"/>
+      <c r="G163" s="42"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="32"/>
-      <c r="E164" s="33"/>
-      <c r="G164" s="33"/>
+      <c r="A164" s="41"/>
+      <c r="E164" s="42"/>
+      <c r="G164" s="42"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="32"/>
-      <c r="E165" s="33"/>
-      <c r="G165" s="33"/>
+      <c r="A165" s="41"/>
+      <c r="E165" s="42"/>
+      <c r="G165" s="42"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="32"/>
-      <c r="E166" s="33"/>
-      <c r="G166" s="33"/>
+      <c r="A166" s="41"/>
+      <c r="E166" s="42"/>
+      <c r="G166" s="42"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="32"/>
-      <c r="E167" s="33"/>
-      <c r="G167" s="33"/>
+      <c r="A167" s="41"/>
+      <c r="E167" s="42"/>
+      <c r="G167" s="42"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="32"/>
-      <c r="E168" s="33"/>
-      <c r="G168" s="33"/>
+      <c r="A168" s="41"/>
+      <c r="E168" s="42"/>
+      <c r="G168" s="42"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="32"/>
-      <c r="E169" s="33"/>
-      <c r="G169" s="33"/>
+      <c r="A169" s="41"/>
+      <c r="E169" s="42"/>
+      <c r="G169" s="42"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="32"/>
-      <c r="E170" s="33"/>
-      <c r="G170" s="33"/>
+      <c r="A170" s="41"/>
+      <c r="E170" s="42"/>
+      <c r="G170" s="42"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="32"/>
-      <c r="E171" s="33"/>
-      <c r="G171" s="33"/>
+      <c r="A171" s="41"/>
+      <c r="E171" s="42"/>
+      <c r="G171" s="42"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="32"/>
-      <c r="E172" s="33"/>
-      <c r="G172" s="33"/>
+      <c r="A172" s="41"/>
+      <c r="E172" s="42"/>
+      <c r="G172" s="42"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="32"/>
-      <c r="E173" s="33"/>
-      <c r="G173" s="33"/>
+      <c r="A173" s="41"/>
+      <c r="E173" s="42"/>
+      <c r="G173" s="42"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="32"/>
-      <c r="E174" s="33"/>
-      <c r="G174" s="33"/>
+      <c r="A174" s="41"/>
+      <c r="E174" s="42"/>
+      <c r="G174" s="42"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="32"/>
-      <c r="E175" s="33"/>
-      <c r="G175" s="33"/>
+      <c r="A175" s="41"/>
+      <c r="E175" s="42"/>
+      <c r="G175" s="42"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="32"/>
-      <c r="E176" s="33"/>
-      <c r="G176" s="33"/>
+      <c r="A176" s="41"/>
+      <c r="E176" s="42"/>
+      <c r="G176" s="42"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="32"/>
-      <c r="E177" s="33"/>
-      <c r="G177" s="33"/>
+      <c r="A177" s="41"/>
+      <c r="E177" s="42"/>
+      <c r="G177" s="42"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="32"/>
-      <c r="E178" s="33"/>
-      <c r="G178" s="33"/>
+      <c r="A178" s="41"/>
+      <c r="E178" s="42"/>
+      <c r="G178" s="42"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="32"/>
-      <c r="E179" s="33"/>
-      <c r="G179" s="33"/>
+      <c r="A179" s="41"/>
+      <c r="E179" s="42"/>
+      <c r="G179" s="42"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="32"/>
-      <c r="E180" s="33"/>
-      <c r="G180" s="33"/>
+      <c r="A180" s="41"/>
+      <c r="E180" s="42"/>
+      <c r="G180" s="42"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="32"/>
-      <c r="E181" s="33"/>
-      <c r="G181" s="33"/>
+      <c r="A181" s="41"/>
+      <c r="E181" s="42"/>
+      <c r="G181" s="42"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="32"/>
-      <c r="E182" s="33"/>
-      <c r="G182" s="33"/>
+      <c r="A182" s="41"/>
+      <c r="E182" s="42"/>
+      <c r="G182" s="42"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="32"/>
-      <c r="E183" s="33"/>
-      <c r="G183" s="33"/>
+      <c r="A183" s="41"/>
+      <c r="E183" s="42"/>
+      <c r="G183" s="42"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="32"/>
-      <c r="E184" s="33"/>
-      <c r="G184" s="33"/>
+      <c r="A184" s="41"/>
+      <c r="E184" s="42"/>
+      <c r="G184" s="42"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="32"/>
-      <c r="E185" s="33"/>
-      <c r="G185" s="33"/>
+      <c r="A185" s="41"/>
+      <c r="E185" s="42"/>
+      <c r="G185" s="42"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="32"/>
-      <c r="E186" s="33"/>
-      <c r="G186" s="33"/>
+      <c r="A186" s="41"/>
+      <c r="E186" s="42"/>
+      <c r="G186" s="42"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="32"/>
-      <c r="E187" s="33"/>
-      <c r="G187" s="33"/>
+      <c r="A187" s="41"/>
+      <c r="E187" s="42"/>
+      <c r="G187" s="42"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="32"/>
-      <c r="E188" s="33"/>
-      <c r="G188" s="33"/>
+      <c r="A188" s="41"/>
+      <c r="E188" s="42"/>
+      <c r="G188" s="42"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="32"/>
-      <c r="E189" s="33"/>
-      <c r="G189" s="33"/>
+      <c r="A189" s="41"/>
+      <c r="E189" s="42"/>
+      <c r="G189" s="42"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="32"/>
-      <c r="E190" s="33"/>
-      <c r="G190" s="33"/>
+      <c r="A190" s="41"/>
+      <c r="E190" s="42"/>
+      <c r="G190" s="42"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="32"/>
-      <c r="E191" s="33"/>
-      <c r="G191" s="33"/>
+      <c r="A191" s="41"/>
+      <c r="E191" s="42"/>
+      <c r="G191" s="42"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="32"/>
-      <c r="E192" s="33"/>
-      <c r="G192" s="33"/>
+      <c r="A192" s="41"/>
+      <c r="E192" s="42"/>
+      <c r="G192" s="42"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="32"/>
-      <c r="E193" s="33"/>
-      <c r="G193" s="33"/>
+      <c r="A193" s="41"/>
+      <c r="E193" s="42"/>
+      <c r="G193" s="42"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="32"/>
-      <c r="E194" s="33"/>
-      <c r="G194" s="33"/>
+      <c r="A194" s="41"/>
+      <c r="E194" s="42"/>
+      <c r="G194" s="42"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="32"/>
-      <c r="E195" s="33"/>
-      <c r="G195" s="33"/>
+      <c r="A195" s="41"/>
+      <c r="E195" s="42"/>
+      <c r="G195" s="42"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="32"/>
-      <c r="E196" s="33"/>
-      <c r="G196" s="33"/>
+      <c r="A196" s="41"/>
+      <c r="E196" s="42"/>
+      <c r="G196" s="42"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="32"/>
-      <c r="E197" s="33"/>
-      <c r="G197" s="33"/>
+      <c r="A197" s="41"/>
+      <c r="E197" s="42"/>
+      <c r="G197" s="42"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="32"/>
-      <c r="E198" s="33"/>
-      <c r="G198" s="33"/>
+      <c r="A198" s="41"/>
+      <c r="E198" s="42"/>
+      <c r="G198" s="42"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="32"/>
-      <c r="E199" s="33"/>
-      <c r="G199" s="33"/>
+      <c r="A199" s="41"/>
+      <c r="E199" s="42"/>
+      <c r="G199" s="42"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="32"/>
-      <c r="E200" s="33"/>
-      <c r="G200" s="33"/>
+      <c r="A200" s="41"/>
+      <c r="E200" s="42"/>
+      <c r="G200" s="42"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="32"/>
-      <c r="E201" s="33"/>
-      <c r="G201" s="33"/>
+      <c r="A201" s="41"/>
+      <c r="E201" s="42"/>
+      <c r="G201" s="42"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="32"/>
-      <c r="E202" s="33"/>
-      <c r="G202" s="33"/>
+      <c r="A202" s="41"/>
+      <c r="E202" s="42"/>
+      <c r="G202" s="42"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="32"/>
-      <c r="E203" s="33"/>
-      <c r="G203" s="33"/>
+      <c r="A203" s="41"/>
+      <c r="E203" s="42"/>
+      <c r="G203" s="42"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="32"/>
-      <c r="E204" s="33"/>
-      <c r="G204" s="33"/>
+      <c r="A204" s="41"/>
+      <c r="E204" s="42"/>
+      <c r="G204" s="42"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="32"/>
-      <c r="E205" s="33"/>
-      <c r="G205" s="33"/>
+      <c r="A205" s="41"/>
+      <c r="E205" s="42"/>
+      <c r="G205" s="42"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="32"/>
-      <c r="E206" s="33"/>
-      <c r="G206" s="33"/>
+      <c r="A206" s="41"/>
+      <c r="E206" s="42"/>
+      <c r="G206" s="42"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="32"/>
-      <c r="E207" s="33"/>
-      <c r="G207" s="33"/>
+      <c r="A207" s="41"/>
+      <c r="E207" s="42"/>
+      <c r="G207" s="42"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="32"/>
-      <c r="E208" s="33"/>
-      <c r="G208" s="33"/>
+      <c r="A208" s="41"/>
+      <c r="E208" s="42"/>
+      <c r="G208" s="42"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="32"/>
-      <c r="E209" s="33"/>
-      <c r="G209" s="33"/>
+      <c r="A209" s="41"/>
+      <c r="E209" s="42"/>
+      <c r="G209" s="42"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="32"/>
-      <c r="E210" s="33"/>
-      <c r="G210" s="33"/>
+      <c r="A210" s="41"/>
+      <c r="E210" s="42"/>
+      <c r="G210" s="42"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="32"/>
-      <c r="E211" s="33"/>
-      <c r="G211" s="33"/>
+      <c r="A211" s="41"/>
+      <c r="E211" s="42"/>
+      <c r="G211" s="42"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="32"/>
-      <c r="E212" s="33"/>
-      <c r="G212" s="33"/>
+      <c r="A212" s="41"/>
+      <c r="E212" s="42"/>
+      <c r="G212" s="42"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="32"/>
-      <c r="E213" s="33"/>
-      <c r="G213" s="33"/>
+      <c r="A213" s="41"/>
+      <c r="E213" s="42"/>
+      <c r="G213" s="42"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="32"/>
-      <c r="E214" s="33"/>
-      <c r="G214" s="33"/>
+      <c r="A214" s="41"/>
+      <c r="E214" s="42"/>
+      <c r="G214" s="42"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="32"/>
-      <c r="E215" s="33"/>
-      <c r="G215" s="33"/>
+      <c r="A215" s="41"/>
+      <c r="E215" s="42"/>
+      <c r="G215" s="42"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="32"/>
-      <c r="E216" s="33"/>
-      <c r="G216" s="33"/>
+      <c r="A216" s="41"/>
+      <c r="E216" s="42"/>
+      <c r="G216" s="42"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="32"/>
-      <c r="E217" s="33"/>
-      <c r="G217" s="33"/>
+      <c r="A217" s="41"/>
+      <c r="E217" s="42"/>
+      <c r="G217" s="42"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="32"/>
-      <c r="E218" s="33"/>
-      <c r="G218" s="33"/>
+      <c r="A218" s="41"/>
+      <c r="E218" s="42"/>
+      <c r="G218" s="42"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="32"/>
-      <c r="E219" s="33"/>
-      <c r="G219" s="33"/>
+      <c r="A219" s="41"/>
+      <c r="E219" s="42"/>
+      <c r="G219" s="42"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="32"/>
-      <c r="E220" s="33"/>
-      <c r="G220" s="33"/>
+      <c r="A220" s="41"/>
+      <c r="E220" s="42"/>
+      <c r="G220" s="42"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="32"/>
-      <c r="E221" s="33"/>
-      <c r="G221" s="33"/>
+      <c r="A221" s="41"/>
+      <c r="E221" s="42"/>
+      <c r="G221" s="42"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="32"/>
-      <c r="E222" s="33"/>
-      <c r="G222" s="33"/>
+      <c r="A222" s="41"/>
+      <c r="E222" s="42"/>
+      <c r="G222" s="42"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="32"/>
-      <c r="E223" s="33"/>
-      <c r="G223" s="33"/>
+      <c r="A223" s="41"/>
+      <c r="E223" s="42"/>
+      <c r="G223" s="42"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="32"/>
-      <c r="E224" s="33"/>
-      <c r="G224" s="33"/>
+      <c r="A224" s="41"/>
+      <c r="E224" s="42"/>
+      <c r="G224" s="42"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="32"/>
-      <c r="E225" s="33"/>
-      <c r="G225" s="33"/>
+      <c r="A225" s="41"/>
+      <c r="E225" s="42"/>
+      <c r="G225" s="42"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="32"/>
-      <c r="E226" s="33"/>
-      <c r="G226" s="33"/>
+      <c r="A226" s="41"/>
+      <c r="E226" s="42"/>
+      <c r="G226" s="42"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="32"/>
-      <c r="E227" s="33"/>
-      <c r="G227" s="33"/>
+      <c r="A227" s="41"/>
+      <c r="E227" s="42"/>
+      <c r="G227" s="42"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="32"/>
-      <c r="E228" s="33"/>
-      <c r="G228" s="33"/>
+      <c r="A228" s="41"/>
+      <c r="E228" s="42"/>
+      <c r="G228" s="42"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="32"/>
-      <c r="E229" s="33"/>
-      <c r="G229" s="33"/>
+      <c r="A229" s="41"/>
+      <c r="E229" s="42"/>
+      <c r="G229" s="42"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="32"/>
-      <c r="E230" s="33"/>
-      <c r="G230" s="33"/>
+      <c r="A230" s="41"/>
+      <c r="E230" s="42"/>
+      <c r="G230" s="42"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="32"/>
-      <c r="E231" s="33"/>
-      <c r="G231" s="33"/>
+      <c r="A231" s="41"/>
+      <c r="E231" s="42"/>
+      <c r="G231" s="42"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="32"/>
-      <c r="E232" s="33"/>
-      <c r="G232" s="33"/>
+      <c r="A232" s="41"/>
+      <c r="E232" s="42"/>
+      <c r="G232" s="42"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="32"/>
-      <c r="E233" s="33"/>
-      <c r="G233" s="33"/>
+      <c r="A233" s="41"/>
+      <c r="E233" s="42"/>
+      <c r="G233" s="42"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="32"/>
-      <c r="E234" s="33"/>
-      <c r="G234" s="33"/>
+      <c r="A234" s="41"/>
+      <c r="E234" s="42"/>
+      <c r="G234" s="42"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="32"/>
-      <c r="E235" s="33"/>
-      <c r="G235" s="33"/>
+      <c r="A235" s="41"/>
+      <c r="E235" s="42"/>
+      <c r="G235" s="42"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="32"/>
-      <c r="E236" s="33"/>
-      <c r="G236" s="33"/>
+      <c r="A236" s="41"/>
+      <c r="E236" s="42"/>
+      <c r="G236" s="42"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="32"/>
-      <c r="E237" s="33"/>
-      <c r="G237" s="33"/>
+      <c r="A237" s="41"/>
+      <c r="E237" s="42"/>
+      <c r="G237" s="42"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="32"/>
-      <c r="E238" s="33"/>
-      <c r="G238" s="33"/>
+      <c r="A238" s="41"/>
+      <c r="E238" s="42"/>
+      <c r="G238" s="42"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="32"/>
-      <c r="E239" s="33"/>
-      <c r="G239" s="33"/>
+      <c r="A239" s="41"/>
+      <c r="E239" s="42"/>
+      <c r="G239" s="42"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="32"/>
-      <c r="E240" s="33"/>
-      <c r="G240" s="33"/>
+      <c r="A240" s="41"/>
+      <c r="E240" s="42"/>
+      <c r="G240" s="42"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="32"/>
-      <c r="E241" s="33"/>
-      <c r="G241" s="33"/>
+      <c r="A241" s="41"/>
+      <c r="E241" s="42"/>
+      <c r="G241" s="42"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="32"/>
-      <c r="E242" s="33"/>
-      <c r="G242" s="33"/>
+      <c r="A242" s="41"/>
+      <c r="E242" s="42"/>
+      <c r="G242" s="42"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="32"/>
-      <c r="E243" s="33"/>
-      <c r="G243" s="33"/>
+      <c r="A243" s="41"/>
+      <c r="E243" s="42"/>
+      <c r="G243" s="42"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="32"/>
-      <c r="E244" s="33"/>
-      <c r="G244" s="33"/>
+      <c r="A244" s="41"/>
+      <c r="E244" s="42"/>
+      <c r="G244" s="42"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="32"/>
-      <c r="E245" s="33"/>
-      <c r="G245" s="33"/>
+      <c r="A245" s="41"/>
+      <c r="E245" s="42"/>
+      <c r="G245" s="42"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="32"/>
-      <c r="E246" s="33"/>
-      <c r="G246" s="33"/>
+      <c r="A246" s="41"/>
+      <c r="E246" s="42"/>
+      <c r="G246" s="42"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="32"/>
-      <c r="E247" s="33"/>
-      <c r="G247" s="33"/>
+      <c r="A247" s="41"/>
+      <c r="E247" s="42"/>
+      <c r="G247" s="42"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="32"/>
-      <c r="E248" s="33"/>
-      <c r="G248" s="33"/>
+      <c r="A248" s="41"/>
+      <c r="E248" s="42"/>
+      <c r="G248" s="42"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="32"/>
-      <c r="E249" s="33"/>
-      <c r="G249" s="33"/>
+      <c r="A249" s="41"/>
+      <c r="E249" s="42"/>
+      <c r="G249" s="42"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="32"/>
-      <c r="E250" s="33"/>
-      <c r="G250" s="33"/>
+      <c r="A250" s="41"/>
+      <c r="E250" s="42"/>
+      <c r="G250" s="42"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="32"/>
-      <c r="E251" s="33"/>
-      <c r="G251" s="33"/>
+      <c r="A251" s="41"/>
+      <c r="E251" s="42"/>
+      <c r="G251" s="42"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="32"/>
-      <c r="E252" s="33"/>
-      <c r="G252" s="33"/>
+      <c r="A252" s="41"/>
+      <c r="E252" s="42"/>
+      <c r="G252" s="42"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="32"/>
-      <c r="E253" s="33"/>
-      <c r="G253" s="33"/>
+      <c r="A253" s="41"/>
+      <c r="E253" s="42"/>
+      <c r="G253" s="42"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="32"/>
-      <c r="E254" s="33"/>
-      <c r="G254" s="33"/>
+      <c r="A254" s="41"/>
+      <c r="E254" s="42"/>
+      <c r="G254" s="42"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="32"/>
-      <c r="E255" s="33"/>
-      <c r="G255" s="33"/>
+      <c r="A255" s="41"/>
+      <c r="E255" s="42"/>
+      <c r="G255" s="42"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="32"/>
-      <c r="E256" s="33"/>
-      <c r="G256" s="33"/>
+      <c r="A256" s="41"/>
+      <c r="E256" s="42"/>
+      <c r="G256" s="42"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="32"/>
-      <c r="E257" s="33"/>
-      <c r="G257" s="33"/>
+      <c r="A257" s="41"/>
+      <c r="E257" s="42"/>
+      <c r="G257" s="42"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="32"/>
-      <c r="E258" s="33"/>
-      <c r="G258" s="33"/>
+      <c r="A258" s="41"/>
+      <c r="E258" s="42"/>
+      <c r="G258" s="42"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="32"/>
-      <c r="E259" s="33"/>
-      <c r="G259" s="33"/>
+      <c r="A259" s="41"/>
+      <c r="E259" s="42"/>
+      <c r="G259" s="42"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="32"/>
-      <c r="E260" s="33"/>
-      <c r="G260" s="33"/>
+      <c r="A260" s="41"/>
+      <c r="E260" s="42"/>
+      <c r="G260" s="42"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="32"/>
-      <c r="E261" s="33"/>
-      <c r="G261" s="33"/>
+      <c r="A261" s="41"/>
+      <c r="E261" s="42"/>
+      <c r="G261" s="42"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="32"/>
-      <c r="E262" s="33"/>
-      <c r="G262" s="33"/>
+      <c r="A262" s="41"/>
+      <c r="E262" s="42"/>
+      <c r="G262" s="42"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="32"/>
-      <c r="E263" s="33"/>
-      <c r="G263" s="33"/>
+      <c r="A263" s="41"/>
+      <c r="E263" s="42"/>
+      <c r="G263" s="42"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="32"/>
-      <c r="E264" s="33"/>
-      <c r="G264" s="33"/>
+      <c r="A264" s="41"/>
+      <c r="E264" s="42"/>
+      <c r="G264" s="42"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="32"/>
-      <c r="E265" s="33"/>
-      <c r="G265" s="33"/>
+      <c r="A265" s="41"/>
+      <c r="E265" s="42"/>
+      <c r="G265" s="42"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="32"/>
-      <c r="E266" s="33"/>
-      <c r="G266" s="33"/>
+      <c r="A266" s="41"/>
+      <c r="E266" s="42"/>
+      <c r="G266" s="42"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="32"/>
-      <c r="E267" s="33"/>
-      <c r="G267" s="33"/>
+      <c r="A267" s="41"/>
+      <c r="E267" s="42"/>
+      <c r="G267" s="42"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="32"/>
-      <c r="E268" s="33"/>
-      <c r="G268" s="33"/>
+      <c r="A268" s="41"/>
+      <c r="E268" s="42"/>
+      <c r="G268" s="42"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="32"/>
-      <c r="E269" s="33"/>
-      <c r="G269" s="33"/>
+      <c r="A269" s="41"/>
+      <c r="E269" s="42"/>
+      <c r="G269" s="42"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="32"/>
-      <c r="E270" s="33"/>
-      <c r="G270" s="33"/>
+      <c r="A270" s="41"/>
+      <c r="E270" s="42"/>
+      <c r="G270" s="42"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="32"/>
-      <c r="E271" s="33"/>
-      <c r="G271" s="33"/>
+      <c r="A271" s="41"/>
+      <c r="E271" s="42"/>
+      <c r="G271" s="42"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="32"/>
-      <c r="E272" s="33"/>
-      <c r="G272" s="33"/>
+      <c r="A272" s="41"/>
+      <c r="E272" s="42"/>
+      <c r="G272" s="42"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="32"/>
-      <c r="E273" s="33"/>
-      <c r="G273" s="33"/>
+      <c r="A273" s="41"/>
+      <c r="E273" s="42"/>
+      <c r="G273" s="42"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="32"/>
-      <c r="E274" s="33"/>
-      <c r="G274" s="33"/>
+      <c r="A274" s="41"/>
+      <c r="E274" s="42"/>
+      <c r="G274" s="42"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="32"/>
-      <c r="E275" s="33"/>
-      <c r="G275" s="33"/>
+      <c r="A275" s="41"/>
+      <c r="E275" s="42"/>
+      <c r="G275" s="42"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="32"/>
-      <c r="E276" s="33"/>
-      <c r="G276" s="33"/>
+      <c r="A276" s="41"/>
+      <c r="E276" s="42"/>
+      <c r="G276" s="42"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="32"/>
-      <c r="E277" s="33"/>
-      <c r="G277" s="33"/>
+      <c r="A277" s="41"/>
+      <c r="E277" s="42"/>
+      <c r="G277" s="42"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="32"/>
-      <c r="E278" s="33"/>
-      <c r="G278" s="33"/>
+      <c r="A278" s="41"/>
+      <c r="E278" s="42"/>
+      <c r="G278" s="42"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="32"/>
-      <c r="E279" s="33"/>
-      <c r="G279" s="33"/>
+      <c r="A279" s="41"/>
+      <c r="E279" s="42"/>
+      <c r="G279" s="42"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="32"/>
-      <c r="E280" s="33"/>
-      <c r="G280" s="33"/>
+      <c r="A280" s="41"/>
+      <c r="E280" s="42"/>
+      <c r="G280" s="42"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="32"/>
-      <c r="E281" s="33"/>
-      <c r="G281" s="33"/>
+      <c r="A281" s="41"/>
+      <c r="E281" s="42"/>
+      <c r="G281" s="42"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="32"/>
-      <c r="E282" s="33"/>
-      <c r="G282" s="33"/>
+      <c r="A282" s="41"/>
+      <c r="E282" s="42"/>
+      <c r="G282" s="42"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="32"/>
-      <c r="E283" s="33"/>
-      <c r="G283" s="33"/>
+      <c r="A283" s="41"/>
+      <c r="E283" s="42"/>
+      <c r="G283" s="42"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="32"/>
-      <c r="E284" s="33"/>
-      <c r="G284" s="33"/>
+      <c r="A284" s="41"/>
+      <c r="E284" s="42"/>
+      <c r="G284" s="42"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="32"/>
-      <c r="E285" s="33"/>
-      <c r="G285" s="33"/>
+      <c r="A285" s="41"/>
+      <c r="E285" s="42"/>
+      <c r="G285" s="42"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="32"/>
-      <c r="E286" s="33"/>
-      <c r="G286" s="33"/>
+      <c r="A286" s="41"/>
+      <c r="E286" s="42"/>
+      <c r="G286" s="42"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="32"/>
-      <c r="E287" s="33"/>
-      <c r="G287" s="33"/>
+      <c r="A287" s="41"/>
+      <c r="E287" s="42"/>
+      <c r="G287" s="42"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="32"/>
-      <c r="E288" s="33"/>
-      <c r="G288" s="33"/>
+      <c r="A288" s="41"/>
+      <c r="E288" s="42"/>
+      <c r="G288" s="42"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="32"/>
-      <c r="E289" s="33"/>
-      <c r="G289" s="33"/>
+      <c r="A289" s="41"/>
+      <c r="E289" s="42"/>
+      <c r="G289" s="42"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="32"/>
-      <c r="E290" s="33"/>
-      <c r="G290" s="33"/>
+      <c r="A290" s="41"/>
+      <c r="E290" s="42"/>
+      <c r="G290" s="42"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="32"/>
-      <c r="E291" s="33"/>
-      <c r="G291" s="33"/>
+      <c r="A291" s="41"/>
+      <c r="E291" s="42"/>
+      <c r="G291" s="42"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="32"/>
-      <c r="E292" s="33"/>
-      <c r="G292" s="33"/>
+      <c r="A292" s="41"/>
+      <c r="E292" s="42"/>
+      <c r="G292" s="42"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="32"/>
-      <c r="E293" s="33"/>
-      <c r="G293" s="33"/>
+      <c r="A293" s="41"/>
+      <c r="E293" s="42"/>
+      <c r="G293" s="42"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="32"/>
-      <c r="E294" s="33"/>
-      <c r="G294" s="33"/>
+      <c r="A294" s="41"/>
+      <c r="E294" s="42"/>
+      <c r="G294" s="42"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="32"/>
-      <c r="E295" s="33"/>
-      <c r="G295" s="33"/>
+      <c r="A295" s="41"/>
+      <c r="E295" s="42"/>
+      <c r="G295" s="42"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="32"/>
-      <c r="E296" s="33"/>
-      <c r="G296" s="33"/>
+      <c r="A296" s="41"/>
+      <c r="E296" s="42"/>
+      <c r="G296" s="42"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="32"/>
-      <c r="E297" s="33"/>
-      <c r="G297" s="33"/>
+      <c r="A297" s="41"/>
+      <c r="E297" s="42"/>
+      <c r="G297" s="42"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="32"/>
-      <c r="E298" s="33"/>
-      <c r="G298" s="33"/>
+      <c r="A298" s="41"/>
+      <c r="E298" s="42"/>
+      <c r="G298" s="42"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="32"/>
-      <c r="E299" s="33"/>
-      <c r="G299" s="33"/>
+      <c r="A299" s="41"/>
+      <c r="E299" s="42"/>
+      <c r="G299" s="42"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="32"/>
-      <c r="E300" s="33"/>
-      <c r="G300" s="33"/>
+      <c r="A300" s="41"/>
+      <c r="E300" s="42"/>
+      <c r="G300" s="42"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="32"/>
-      <c r="E301" s="33"/>
-      <c r="G301" s="33"/>
+      <c r="A301" s="41"/>
+      <c r="E301" s="42"/>
+      <c r="G301" s="42"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="32"/>
-      <c r="E302" s="33"/>
-      <c r="G302" s="33"/>
+      <c r="A302" s="41"/>
+      <c r="E302" s="42"/>
+      <c r="G302" s="42"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="32"/>
-      <c r="E303" s="33"/>
-      <c r="G303" s="33"/>
+      <c r="A303" s="41"/>
+      <c r="E303" s="42"/>
+      <c r="G303" s="42"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="32"/>
-      <c r="E304" s="33"/>
-      <c r="G304" s="33"/>
+      <c r="A304" s="41"/>
+      <c r="E304" s="42"/>
+      <c r="G304" s="42"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="32"/>
-      <c r="E305" s="33"/>
-      <c r="G305" s="33"/>
+      <c r="A305" s="41"/>
+      <c r="E305" s="42"/>
+      <c r="G305" s="42"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="32"/>
-      <c r="E306" s="33"/>
-      <c r="G306" s="33"/>
+      <c r="A306" s="41"/>
+      <c r="E306" s="42"/>
+      <c r="G306" s="42"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="32"/>
-      <c r="E307" s="33"/>
-      <c r="G307" s="33"/>
+      <c r="A307" s="41"/>
+      <c r="E307" s="42"/>
+      <c r="G307" s="42"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="32"/>
-      <c r="E308" s="33"/>
-      <c r="G308" s="33"/>
+      <c r="A308" s="41"/>
+      <c r="E308" s="42"/>
+      <c r="G308" s="42"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="32"/>
-      <c r="E309" s="33"/>
-      <c r="G309" s="33"/>
+      <c r="A309" s="41"/>
+      <c r="E309" s="42"/>
+      <c r="G309" s="42"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="32"/>
-      <c r="E310" s="33"/>
-      <c r="G310" s="33"/>
+      <c r="A310" s="41"/>
+      <c r="E310" s="42"/>
+      <c r="G310" s="42"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="32"/>
-      <c r="E311" s="33"/>
-      <c r="G311" s="33"/>
+      <c r="A311" s="41"/>
+      <c r="E311" s="42"/>
+      <c r="G311" s="42"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="32"/>
-      <c r="E312" s="33"/>
-      <c r="G312" s="33"/>
+      <c r="A312" s="41"/>
+      <c r="E312" s="42"/>
+      <c r="G312" s="42"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="32"/>
-      <c r="E313" s="33"/>
-      <c r="G313" s="33"/>
+      <c r="A313" s="41"/>
+      <c r="E313" s="42"/>
+      <c r="G313" s="42"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="32"/>
-      <c r="E314" s="33"/>
-      <c r="G314" s="33"/>
+      <c r="A314" s="41"/>
+      <c r="E314" s="42"/>
+      <c r="G314" s="42"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="32"/>
-      <c r="E315" s="33"/>
-      <c r="G315" s="33"/>
+      <c r="A315" s="41"/>
+      <c r="E315" s="42"/>
+      <c r="G315" s="42"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="32"/>
-      <c r="E316" s="33"/>
-      <c r="G316" s="33"/>
+      <c r="A316" s="41"/>
+      <c r="E316" s="42"/>
+      <c r="G316" s="42"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="32"/>
-      <c r="E317" s="33"/>
-      <c r="G317" s="33"/>
+      <c r="A317" s="41"/>
+      <c r="E317" s="42"/>
+      <c r="G317" s="42"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="32"/>
-      <c r="E318" s="33"/>
-      <c r="G318" s="33"/>
+      <c r="A318" s="41"/>
+      <c r="E318" s="42"/>
+      <c r="G318" s="42"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="32"/>
-      <c r="E319" s="33"/>
-      <c r="G319" s="33"/>
+      <c r="A319" s="41"/>
+      <c r="E319" s="42"/>
+      <c r="G319" s="42"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="32"/>
-      <c r="E320" s="33"/>
-      <c r="G320" s="33"/>
+      <c r="A320" s="41"/>
+      <c r="E320" s="42"/>
+      <c r="G320" s="42"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="32"/>
-      <c r="E321" s="33"/>
-      <c r="G321" s="33"/>
+      <c r="A321" s="41"/>
+      <c r="E321" s="42"/>
+      <c r="G321" s="42"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="32"/>
-      <c r="E322" s="33"/>
-      <c r="G322" s="33"/>
+      <c r="A322" s="41"/>
+      <c r="E322" s="42"/>
+      <c r="G322" s="42"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="32"/>
-      <c r="E323" s="33"/>
-      <c r="G323" s="33"/>
+      <c r="A323" s="41"/>
+      <c r="E323" s="42"/>
+      <c r="G323" s="42"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="32"/>
-      <c r="E324" s="33"/>
-      <c r="G324" s="33"/>
+      <c r="A324" s="41"/>
+      <c r="E324" s="42"/>
+      <c r="G324" s="42"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="32"/>
-      <c r="E325" s="33"/>
-      <c r="G325" s="33"/>
+      <c r="A325" s="41"/>
+      <c r="E325" s="42"/>
+      <c r="G325" s="42"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="32"/>
-      <c r="E326" s="33"/>
-      <c r="G326" s="33"/>
+      <c r="A326" s="41"/>
+      <c r="E326" s="42"/>
+      <c r="G326" s="42"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="32"/>
-      <c r="E327" s="33"/>
-      <c r="G327" s="33"/>
+      <c r="A327" s="41"/>
+      <c r="E327" s="42"/>
+      <c r="G327" s="42"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="32"/>
-      <c r="E328" s="33"/>
-      <c r="G328" s="33"/>
+      <c r="A328" s="41"/>
+      <c r="E328" s="42"/>
+      <c r="G328" s="42"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="32"/>
-      <c r="E329" s="33"/>
-      <c r="G329" s="33"/>
+      <c r="A329" s="41"/>
+      <c r="E329" s="42"/>
+      <c r="G329" s="42"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="32"/>
-      <c r="E330" s="33"/>
-      <c r="G330" s="33"/>
+      <c r="A330" s="41"/>
+      <c r="E330" s="42"/>
+      <c r="G330" s="42"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="32"/>
-      <c r="E331" s="33"/>
-      <c r="G331" s="33"/>
+      <c r="A331" s="41"/>
+      <c r="E331" s="42"/>
+      <c r="G331" s="42"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="32"/>
-      <c r="E332" s="33"/>
-      <c r="G332" s="33"/>
+      <c r="A332" s="41"/>
+      <c r="E332" s="42"/>
+      <c r="G332" s="42"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="32"/>
-      <c r="E333" s="33"/>
-      <c r="G333" s="33"/>
+      <c r="A333" s="41"/>
+      <c r="E333" s="42"/>
+      <c r="G333" s="42"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="32"/>
-      <c r="E334" s="33"/>
-      <c r="G334" s="33"/>
+      <c r="A334" s="41"/>
+      <c r="E334" s="42"/>
+      <c r="G334" s="42"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="32"/>
-      <c r="E335" s="33"/>
-      <c r="G335" s="33"/>
+      <c r="A335" s="41"/>
+      <c r="E335" s="42"/>
+      <c r="G335" s="42"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="32"/>
-      <c r="E336" s="33"/>
-      <c r="G336" s="33"/>
+      <c r="A336" s="41"/>
+      <c r="E336" s="42"/>
+      <c r="G336" s="42"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="32"/>
-      <c r="E337" s="33"/>
-      <c r="G337" s="33"/>
+      <c r="A337" s="41"/>
+      <c r="E337" s="42"/>
+      <c r="G337" s="42"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="32"/>
-      <c r="E338" s="33"/>
-      <c r="G338" s="33"/>
+      <c r="A338" s="41"/>
+      <c r="E338" s="42"/>
+      <c r="G338" s="42"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="32"/>
-      <c r="E339" s="33"/>
-      <c r="G339" s="33"/>
+      <c r="A339" s="41"/>
+      <c r="E339" s="42"/>
+      <c r="G339" s="42"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="32"/>
-      <c r="E340" s="33"/>
-      <c r="G340" s="33"/>
+      <c r="A340" s="41"/>
+      <c r="E340" s="42"/>
+      <c r="G340" s="42"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="32"/>
-      <c r="E341" s="33"/>
-      <c r="G341" s="33"/>
+      <c r="A341" s="41"/>
+      <c r="E341" s="42"/>
+      <c r="G341" s="42"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="32"/>
-      <c r="E342" s="33"/>
-      <c r="G342" s="33"/>
+      <c r="A342" s="41"/>
+      <c r="E342" s="42"/>
+      <c r="G342" s="42"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="32"/>
-      <c r="E343" s="33"/>
-      <c r="G343" s="33"/>
+      <c r="A343" s="41"/>
+      <c r="E343" s="42"/>
+      <c r="G343" s="42"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="32"/>
-      <c r="E344" s="33"/>
-      <c r="G344" s="33"/>
+      <c r="A344" s="41"/>
+      <c r="E344" s="42"/>
+      <c r="G344" s="42"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="32"/>
-      <c r="E345" s="33"/>
-      <c r="G345" s="33"/>
+      <c r="A345" s="41"/>
+      <c r="E345" s="42"/>
+      <c r="G345" s="42"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="32"/>
-      <c r="E346" s="33"/>
-      <c r="G346" s="33"/>
+      <c r="A346" s="41"/>
+      <c r="E346" s="42"/>
+      <c r="G346" s="42"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="32"/>
-      <c r="E347" s="33"/>
-      <c r="G347" s="33"/>
+      <c r="A347" s="41"/>
+      <c r="E347" s="42"/>
+      <c r="G347" s="42"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="32"/>
-      <c r="E348" s="33"/>
-      <c r="G348" s="33"/>
+      <c r="A348" s="41"/>
+      <c r="E348" s="42"/>
+      <c r="G348" s="42"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="32"/>
-      <c r="E349" s="33"/>
-      <c r="G349" s="33"/>
+      <c r="A349" s="41"/>
+      <c r="E349" s="42"/>
+      <c r="G349" s="42"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="32"/>
-      <c r="E350" s="33"/>
-      <c r="G350" s="33"/>
+      <c r="A350" s="41"/>
+      <c r="E350" s="42"/>
+      <c r="G350" s="42"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="32"/>
-      <c r="E351" s="33"/>
-      <c r="G351" s="33"/>
+      <c r="A351" s="41"/>
+      <c r="E351" s="42"/>
+      <c r="G351" s="42"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="32"/>
-      <c r="E352" s="33"/>
-      <c r="G352" s="33"/>
+      <c r="A352" s="41"/>
+      <c r="E352" s="42"/>
+      <c r="G352" s="42"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="32"/>
-      <c r="E353" s="33"/>
-      <c r="G353" s="33"/>
+      <c r="A353" s="41"/>
+      <c r="E353" s="42"/>
+      <c r="G353" s="42"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="32"/>
-      <c r="E354" s="33"/>
-      <c r="G354" s="33"/>
+      <c r="A354" s="41"/>
+      <c r="E354" s="42"/>
+      <c r="G354" s="42"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="32"/>
-      <c r="E355" s="33"/>
-      <c r="G355" s="33"/>
+      <c r="A355" s="41"/>
+      <c r="E355" s="42"/>
+      <c r="G355" s="42"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="32"/>
-      <c r="E356" s="33"/>
-      <c r="G356" s="33"/>
+      <c r="A356" s="41"/>
+      <c r="E356" s="42"/>
+      <c r="G356" s="42"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="32"/>
-      <c r="E357" s="33"/>
-      <c r="G357" s="33"/>
+      <c r="A357" s="41"/>
+      <c r="E357" s="42"/>
+      <c r="G357" s="42"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="32"/>
-      <c r="E358" s="33"/>
-      <c r="G358" s="33"/>
+      <c r="A358" s="41"/>
+      <c r="E358" s="42"/>
+      <c r="G358" s="42"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="32"/>
-      <c r="E359" s="33"/>
-      <c r="G359" s="33"/>
+      <c r="A359" s="41"/>
+      <c r="E359" s="42"/>
+      <c r="G359" s="42"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="32"/>
-      <c r="E360" s="33"/>
-      <c r="G360" s="33"/>
+      <c r="A360" s="41"/>
+      <c r="E360" s="42"/>
+      <c r="G360" s="42"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="32"/>
-      <c r="E361" s="33"/>
-      <c r="G361" s="33"/>
+      <c r="A361" s="41"/>
+      <c r="E361" s="42"/>
+      <c r="G361" s="42"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="32"/>
-      <c r="E362" s="33"/>
-      <c r="G362" s="33"/>
+      <c r="A362" s="41"/>
+      <c r="E362" s="42"/>
+      <c r="G362" s="42"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="32"/>
-      <c r="E363" s="33"/>
-      <c r="G363" s="33"/>
+      <c r="A363" s="41"/>
+      <c r="E363" s="42"/>
+      <c r="G363" s="42"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="32"/>
-      <c r="E364" s="33"/>
-      <c r="G364" s="33"/>
+      <c r="A364" s="41"/>
+      <c r="E364" s="42"/>
+      <c r="G364" s="42"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="32"/>
-      <c r="E365" s="33"/>
-      <c r="G365" s="33"/>
+      <c r="A365" s="41"/>
+      <c r="E365" s="42"/>
+      <c r="G365" s="42"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="32"/>
-      <c r="E366" s="33"/>
-      <c r="G366" s="33"/>
+      <c r="A366" s="41"/>
+      <c r="E366" s="42"/>
+      <c r="G366" s="42"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="32"/>
-      <c r="E367" s="33"/>
-      <c r="G367" s="33"/>
+      <c r="A367" s="41"/>
+      <c r="E367" s="42"/>
+      <c r="G367" s="42"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="32"/>
-      <c r="E368" s="33"/>
-      <c r="G368" s="33"/>
+      <c r="A368" s="41"/>
+      <c r="E368" s="42"/>
+      <c r="G368" s="42"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="32"/>
-      <c r="E369" s="33"/>
-      <c r="G369" s="33"/>
+      <c r="A369" s="41"/>
+      <c r="E369" s="42"/>
+      <c r="G369" s="42"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="32"/>
-      <c r="E370" s="33"/>
-      <c r="G370" s="33"/>
+      <c r="A370" s="41"/>
+      <c r="E370" s="42"/>
+      <c r="G370" s="42"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="32"/>
-      <c r="E371" s="33"/>
-      <c r="G371" s="33"/>
+      <c r="A371" s="41"/>
+      <c r="E371" s="42"/>
+      <c r="G371" s="42"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="32"/>
-      <c r="E372" s="33"/>
-      <c r="G372" s="33"/>
+      <c r="A372" s="41"/>
+      <c r="E372" s="42"/>
+      <c r="G372" s="42"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="32"/>
-      <c r="E373" s="33"/>
-      <c r="G373" s="33"/>
+      <c r="A373" s="41"/>
+      <c r="E373" s="42"/>
+      <c r="G373" s="42"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="32"/>
-      <c r="E374" s="33"/>
-      <c r="G374" s="33"/>
+      <c r="A374" s="41"/>
+      <c r="E374" s="42"/>
+      <c r="G374" s="42"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="32"/>
-      <c r="E375" s="33"/>
-      <c r="G375" s="33"/>
+      <c r="A375" s="41"/>
+      <c r="E375" s="42"/>
+      <c r="G375" s="42"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="32"/>
-      <c r="E376" s="33"/>
-      <c r="G376" s="33"/>
+      <c r="A376" s="41"/>
+      <c r="E376" s="42"/>
+      <c r="G376" s="42"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="32"/>
-      <c r="E377" s="33"/>
-      <c r="G377" s="33"/>
+      <c r="A377" s="41"/>
+      <c r="E377" s="42"/>
+      <c r="G377" s="42"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="32"/>
-      <c r="E378" s="33"/>
-      <c r="G378" s="33"/>
+      <c r="A378" s="41"/>
+      <c r="E378" s="42"/>
+      <c r="G378" s="42"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="32"/>
-      <c r="E379" s="33"/>
-      <c r="G379" s="33"/>
+      <c r="A379" s="41"/>
+      <c r="E379" s="42"/>
+      <c r="G379" s="42"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="32"/>
-      <c r="E380" s="33"/>
-      <c r="G380" s="33"/>
+      <c r="A380" s="41"/>
+      <c r="E380" s="42"/>
+      <c r="G380" s="42"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="32"/>
-      <c r="E381" s="33"/>
-      <c r="G381" s="33"/>
+      <c r="A381" s="41"/>
+      <c r="E381" s="42"/>
+      <c r="G381" s="42"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="32"/>
-      <c r="E382" s="33"/>
-      <c r="G382" s="33"/>
+      <c r="A382" s="41"/>
+      <c r="E382" s="42"/>
+      <c r="G382" s="42"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="32"/>
-      <c r="E383" s="33"/>
-      <c r="G383" s="33"/>
+      <c r="A383" s="41"/>
+      <c r="E383" s="42"/>
+      <c r="G383" s="42"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="32"/>
-      <c r="E384" s="33"/>
-      <c r="G384" s="33"/>
+      <c r="A384" s="41"/>
+      <c r="E384" s="42"/>
+      <c r="G384" s="42"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="32"/>
-      <c r="E385" s="33"/>
-      <c r="G385" s="33"/>
+      <c r="A385" s="41"/>
+      <c r="E385" s="42"/>
+      <c r="G385" s="42"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="32"/>
-      <c r="E386" s="33"/>
-      <c r="G386" s="33"/>
+      <c r="A386" s="41"/>
+      <c r="E386" s="42"/>
+      <c r="G386" s="42"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="32"/>
-      <c r="E387" s="33"/>
-      <c r="G387" s="33"/>
+      <c r="A387" s="41"/>
+      <c r="E387" s="42"/>
+      <c r="G387" s="42"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="32"/>
-      <c r="E388" s="33"/>
-      <c r="G388" s="33"/>
+      <c r="A388" s="41"/>
+      <c r="E388" s="42"/>
+      <c r="G388" s="42"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="32"/>
-      <c r="E389" s="33"/>
-      <c r="G389" s="33"/>
+      <c r="A389" s="41"/>
+      <c r="E389" s="42"/>
+      <c r="G389" s="42"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="32"/>
-      <c r="E390" s="33"/>
-      <c r="G390" s="33"/>
+      <c r="A390" s="41"/>
+      <c r="E390" s="42"/>
+      <c r="G390" s="42"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="32"/>
-      <c r="E391" s="33"/>
-      <c r="G391" s="33"/>
+      <c r="A391" s="41"/>
+      <c r="E391" s="42"/>
+      <c r="G391" s="42"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="32"/>
-      <c r="E392" s="33"/>
-      <c r="G392" s="33"/>
+      <c r="A392" s="41"/>
+      <c r="E392" s="42"/>
+      <c r="G392" s="42"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="32"/>
-      <c r="E393" s="33"/>
-      <c r="G393" s="33"/>
+      <c r="A393" s="41"/>
+      <c r="E393" s="42"/>
+      <c r="G393" s="42"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="32"/>
-      <c r="E394" s="33"/>
-      <c r="G394" s="33"/>
+      <c r="A394" s="41"/>
+      <c r="E394" s="42"/>
+      <c r="G394" s="42"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="32"/>
-      <c r="E395" s="33"/>
-      <c r="G395" s="33"/>
+      <c r="A395" s="41"/>
+      <c r="E395" s="42"/>
+      <c r="G395" s="42"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="32"/>
-      <c r="E396" s="33"/>
-      <c r="G396" s="33"/>
+      <c r="A396" s="41"/>
+      <c r="E396" s="42"/>
+      <c r="G396" s="42"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="32"/>
-      <c r="E397" s="33"/>
-      <c r="G397" s="33"/>
+      <c r="A397" s="41"/>
+      <c r="E397" s="42"/>
+      <c r="G397" s="42"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="32"/>
-      <c r="E398" s="33"/>
-      <c r="G398" s="33"/>
+      <c r="A398" s="41"/>
+      <c r="E398" s="42"/>
+      <c r="G398" s="42"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="32"/>
-      <c r="E399" s="33"/>
-      <c r="G399" s="33"/>
+      <c r="A399" s="41"/>
+      <c r="E399" s="42"/>
+      <c r="G399" s="42"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="32"/>
-      <c r="E400" s="33"/>
-      <c r="G400" s="33"/>
+      <c r="A400" s="41"/>
+      <c r="E400" s="42"/>
+      <c r="G400" s="42"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="32"/>
-      <c r="E401" s="33"/>
-      <c r="G401" s="33"/>
+      <c r="A401" s="41"/>
+      <c r="E401" s="42"/>
+      <c r="G401" s="42"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="32"/>
-      <c r="E402" s="33"/>
-      <c r="G402" s="33"/>
+      <c r="A402" s="41"/>
+      <c r="E402" s="42"/>
+      <c r="G402" s="42"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="32"/>
-      <c r="E403" s="33"/>
-      <c r="G403" s="33"/>
+      <c r="A403" s="41"/>
+      <c r="E403" s="42"/>
+      <c r="G403" s="42"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="32"/>
-      <c r="E404" s="33"/>
-      <c r="G404" s="33"/>
+      <c r="A404" s="41"/>
+      <c r="E404" s="42"/>
+      <c r="G404" s="42"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="32"/>
-      <c r="E405" s="33"/>
-      <c r="G405" s="33"/>
+      <c r="A405" s="41"/>
+      <c r="E405" s="42"/>
+      <c r="G405" s="42"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="32"/>
-      <c r="E406" s="33"/>
-      <c r="G406" s="33"/>
+      <c r="A406" s="41"/>
+      <c r="E406" s="42"/>
+      <c r="G406" s="42"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="32"/>
-      <c r="E407" s="33"/>
-      <c r="G407" s="33"/>
+      <c r="A407" s="41"/>
+      <c r="E407" s="42"/>
+      <c r="G407" s="42"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="32"/>
-      <c r="E408" s="33"/>
-      <c r="G408" s="33"/>
+      <c r="A408" s="41"/>
+      <c r="E408" s="42"/>
+      <c r="G408" s="42"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="32"/>
-      <c r="E409" s="33"/>
-      <c r="G409" s="33"/>
+      <c r="A409" s="41"/>
+      <c r="E409" s="42"/>
+      <c r="G409" s="42"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="32"/>
-      <c r="E410" s="33"/>
-      <c r="G410" s="33"/>
+      <c r="A410" s="41"/>
+      <c r="E410" s="42"/>
+      <c r="G410" s="42"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="32"/>
-      <c r="E411" s="33"/>
-      <c r="G411" s="33"/>
+      <c r="A411" s="41"/>
+      <c r="E411" s="42"/>
+      <c r="G411" s="42"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="32"/>
-      <c r="E412" s="33"/>
-      <c r="G412" s="33"/>
+      <c r="A412" s="41"/>
+      <c r="E412" s="42"/>
+      <c r="G412" s="42"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="32"/>
-      <c r="E413" s="33"/>
-      <c r="G413" s="33"/>
+      <c r="A413" s="41"/>
+      <c r="E413" s="42"/>
+      <c r="G413" s="42"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="32"/>
-      <c r="E414" s="33"/>
-      <c r="G414" s="33"/>
+      <c r="A414" s="41"/>
+      <c r="E414" s="42"/>
+      <c r="G414" s="42"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="32"/>
-      <c r="E415" s="33"/>
-      <c r="G415" s="33"/>
+      <c r="A415" s="41"/>
+      <c r="E415" s="42"/>
+      <c r="G415" s="42"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="32"/>
-      <c r="E416" s="33"/>
-      <c r="G416" s="33"/>
+      <c r="A416" s="41"/>
+      <c r="E416" s="42"/>
+      <c r="G416" s="42"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="32"/>
-      <c r="E417" s="33"/>
-      <c r="G417" s="33"/>
+      <c r="A417" s="41"/>
+      <c r="E417" s="42"/>
+      <c r="G417" s="42"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="32"/>
-      <c r="E418" s="33"/>
-      <c r="G418" s="33"/>
+      <c r="A418" s="41"/>
+      <c r="E418" s="42"/>
+      <c r="G418" s="42"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="32"/>
-      <c r="E419" s="33"/>
-      <c r="G419" s="33"/>
+      <c r="A419" s="41"/>
+      <c r="E419" s="42"/>
+      <c r="G419" s="42"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="32"/>
-      <c r="E420" s="33"/>
-      <c r="G420" s="33"/>
+      <c r="A420" s="41"/>
+      <c r="E420" s="42"/>
+      <c r="G420" s="42"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="32"/>
-      <c r="E421" s="33"/>
-      <c r="G421" s="33"/>
+      <c r="A421" s="41"/>
+      <c r="E421" s="42"/>
+      <c r="G421" s="42"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="32"/>
-      <c r="E422" s="33"/>
-      <c r="G422" s="33"/>
+      <c r="A422" s="41"/>
+      <c r="E422" s="42"/>
+      <c r="G422" s="42"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="32"/>
-      <c r="E423" s="33"/>
-      <c r="G423" s="33"/>
+      <c r="A423" s="41"/>
+      <c r="E423" s="42"/>
+      <c r="G423" s="42"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="32"/>
-      <c r="E424" s="33"/>
-      <c r="G424" s="33"/>
+      <c r="A424" s="41"/>
+      <c r="E424" s="42"/>
+      <c r="G424" s="42"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="32"/>
-      <c r="E425" s="33"/>
-      <c r="G425" s="33"/>
+      <c r="A425" s="41"/>
+      <c r="E425" s="42"/>
+      <c r="G425" s="42"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="32"/>
-      <c r="E426" s="33"/>
-      <c r="G426" s="33"/>
+      <c r="A426" s="41"/>
+      <c r="E426" s="42"/>
+      <c r="G426" s="42"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="32"/>
-      <c r="E427" s="33"/>
-      <c r="G427" s="33"/>
+      <c r="A427" s="41"/>
+      <c r="E427" s="42"/>
+      <c r="G427" s="42"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="32"/>
-      <c r="E428" s="33"/>
-      <c r="G428" s="33"/>
+      <c r="A428" s="41"/>
+      <c r="E428" s="42"/>
+      <c r="G428" s="42"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="32"/>
-      <c r="E429" s="33"/>
-      <c r="G429" s="33"/>
+      <c r="A429" s="41"/>
+      <c r="E429" s="42"/>
+      <c r="G429" s="42"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="32"/>
-      <c r="E430" s="33"/>
-      <c r="G430" s="33"/>
+      <c r="A430" s="41"/>
+      <c r="E430" s="42"/>
+      <c r="G430" s="42"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="32"/>
-      <c r="E431" s="33"/>
-      <c r="G431" s="33"/>
+      <c r="A431" s="41"/>
+      <c r="E431" s="42"/>
+      <c r="G431" s="42"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="32"/>
-      <c r="E432" s="33"/>
-      <c r="G432" s="33"/>
+      <c r="A432" s="41"/>
+      <c r="E432" s="42"/>
+      <c r="G432" s="42"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="32"/>
-      <c r="E433" s="33"/>
-      <c r="G433" s="33"/>
+      <c r="A433" s="41"/>
+      <c r="E433" s="42"/>
+      <c r="G433" s="42"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="32"/>
-      <c r="E434" s="33"/>
-      <c r="G434" s="33"/>
+      <c r="A434" s="41"/>
+      <c r="E434" s="42"/>
+      <c r="G434" s="42"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="32"/>
-      <c r="E435" s="33"/>
-      <c r="G435" s="33"/>
+      <c r="A435" s="41"/>
+      <c r="E435" s="42"/>
+      <c r="G435" s="42"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="32"/>
-      <c r="E436" s="33"/>
-      <c r="G436" s="33"/>
+      <c r="A436" s="41"/>
+      <c r="E436" s="42"/>
+      <c r="G436" s="42"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="32"/>
-      <c r="E437" s="33"/>
-      <c r="G437" s="33"/>
+      <c r="A437" s="41"/>
+      <c r="E437" s="42"/>
+      <c r="G437" s="42"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="32"/>
-      <c r="E438" s="33"/>
-      <c r="G438" s="33"/>
+      <c r="A438" s="41"/>
+      <c r="E438" s="42"/>
+      <c r="G438" s="42"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="32"/>
-      <c r="E439" s="33"/>
-      <c r="G439" s="33"/>
+      <c r="A439" s="41"/>
+      <c r="E439" s="42"/>
+      <c r="G439" s="42"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="32"/>
-      <c r="E440" s="33"/>
-      <c r="G440" s="33"/>
+      <c r="A440" s="41"/>
+      <c r="E440" s="42"/>
+      <c r="G440" s="42"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="32"/>
-      <c r="E441" s="33"/>
-      <c r="G441" s="33"/>
+      <c r="A441" s="41"/>
+      <c r="E441" s="42"/>
+      <c r="G441" s="42"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="32"/>
-      <c r="E442" s="33"/>
-      <c r="G442" s="33"/>
+      <c r="A442" s="41"/>
+      <c r="E442" s="42"/>
+      <c r="G442" s="42"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="32"/>
-      <c r="E443" s="33"/>
-      <c r="G443" s="33"/>
+      <c r="A443" s="41"/>
+      <c r="E443" s="42"/>
+      <c r="G443" s="42"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="32"/>
-      <c r="E444" s="33"/>
-      <c r="G444" s="33"/>
+      <c r="A444" s="41"/>
+      <c r="E444" s="42"/>
+      <c r="G444" s="42"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="32"/>
-      <c r="E445" s="33"/>
-      <c r="G445" s="33"/>
+      <c r="A445" s="41"/>
+      <c r="E445" s="42"/>
+      <c r="G445" s="42"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="32"/>
-      <c r="E446" s="33"/>
-      <c r="G446" s="33"/>
+      <c r="A446" s="41"/>
+      <c r="E446" s="42"/>
+      <c r="G446" s="42"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="32"/>
-      <c r="E447" s="33"/>
-      <c r="G447" s="33"/>
+      <c r="A447" s="41"/>
+      <c r="E447" s="42"/>
+      <c r="G447" s="42"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="32"/>
-      <c r="E448" s="33"/>
-      <c r="G448" s="33"/>
+      <c r="A448" s="41"/>
+      <c r="E448" s="42"/>
+      <c r="G448" s="42"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="32"/>
-      <c r="E449" s="33"/>
-      <c r="G449" s="33"/>
+      <c r="A449" s="41"/>
+      <c r="E449" s="42"/>
+      <c r="G449" s="42"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="32"/>
-      <c r="E450" s="33"/>
-      <c r="G450" s="33"/>
+      <c r="A450" s="41"/>
+      <c r="E450" s="42"/>
+      <c r="G450" s="42"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="32"/>
-      <c r="E451" s="33"/>
-      <c r="G451" s="33"/>
+      <c r="A451" s="41"/>
+      <c r="E451" s="42"/>
+      <c r="G451" s="42"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="32"/>
-      <c r="E452" s="33"/>
-      <c r="G452" s="33"/>
+      <c r="A452" s="41"/>
+      <c r="E452" s="42"/>
+      <c r="G452" s="42"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="32"/>
-      <c r="E453" s="33"/>
-      <c r="G453" s="33"/>
+      <c r="A453" s="41"/>
+      <c r="E453" s="42"/>
+      <c r="G453" s="42"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="32"/>
-      <c r="E454" s="33"/>
-      <c r="G454" s="33"/>
+      <c r="A454" s="41"/>
+      <c r="E454" s="42"/>
+      <c r="G454" s="42"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="32"/>
-      <c r="E455" s="33"/>
-      <c r="G455" s="33"/>
+      <c r="A455" s="41"/>
+      <c r="E455" s="42"/>
+      <c r="G455" s="42"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="32"/>
-      <c r="E456" s="33"/>
-      <c r="G456" s="33"/>
+      <c r="A456" s="41"/>
+      <c r="E456" s="42"/>
+      <c r="G456" s="42"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="32"/>
-      <c r="E457" s="33"/>
-      <c r="G457" s="33"/>
+      <c r="A457" s="41"/>
+      <c r="E457" s="42"/>
+      <c r="G457" s="42"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="32"/>
-      <c r="E458" s="33"/>
-      <c r="G458" s="33"/>
+      <c r="A458" s="41"/>
+      <c r="E458" s="42"/>
+      <c r="G458" s="42"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="32"/>
-      <c r="E459" s="33"/>
-      <c r="G459" s="33"/>
+      <c r="A459" s="41"/>
+      <c r="E459" s="42"/>
+      <c r="G459" s="42"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="32"/>
-      <c r="E460" s="33"/>
-      <c r="G460" s="33"/>
+      <c r="A460" s="41"/>
+      <c r="E460" s="42"/>
+      <c r="G460" s="42"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="32"/>
-      <c r="E461" s="33"/>
-      <c r="G461" s="33"/>
+      <c r="A461" s="41"/>
+      <c r="E461" s="42"/>
+      <c r="G461" s="42"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="32"/>
-      <c r="E462" s="33"/>
-      <c r="G462" s="33"/>
+      <c r="A462" s="41"/>
+      <c r="E462" s="42"/>
+      <c r="G462" s="42"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="32"/>
-      <c r="E463" s="33"/>
-      <c r="G463" s="33"/>
+      <c r="A463" s="41"/>
+      <c r="E463" s="42"/>
+      <c r="G463" s="42"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="32"/>
-      <c r="E464" s="33"/>
-      <c r="G464" s="33"/>
+      <c r="A464" s="41"/>
+      <c r="E464" s="42"/>
+      <c r="G464" s="42"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="32"/>
-      <c r="E465" s="33"/>
-      <c r="G465" s="33"/>
+      <c r="A465" s="41"/>
+      <c r="E465" s="42"/>
+      <c r="G465" s="42"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="32"/>
-      <c r="E466" s="33"/>
-      <c r="G466" s="33"/>
+      <c r="A466" s="41"/>
+      <c r="E466" s="42"/>
+      <c r="G466" s="42"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="32"/>
-      <c r="E467" s="33"/>
-      <c r="G467" s="33"/>
+      <c r="A467" s="41"/>
+      <c r="E467" s="42"/>
+      <c r="G467" s="42"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="32"/>
-      <c r="E468" s="33"/>
-      <c r="G468" s="33"/>
+      <c r="A468" s="41"/>
+      <c r="E468" s="42"/>
+      <c r="G468" s="42"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="32"/>
-      <c r="E469" s="33"/>
-      <c r="G469" s="33"/>
+      <c r="A469" s="41"/>
+      <c r="E469" s="42"/>
+      <c r="G469" s="42"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="32"/>
-      <c r="E470" s="33"/>
-      <c r="G470" s="33"/>
+      <c r="A470" s="41"/>
+      <c r="E470" s="42"/>
+      <c r="G470" s="42"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="32"/>
-      <c r="E471" s="33"/>
-      <c r="G471" s="33"/>
+      <c r="A471" s="41"/>
+      <c r="E471" s="42"/>
+      <c r="G471" s="42"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="32"/>
-      <c r="E472" s="33"/>
-      <c r="G472" s="33"/>
+      <c r="A472" s="41"/>
+      <c r="E472" s="42"/>
+      <c r="G472" s="42"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="32"/>
-      <c r="E473" s="33"/>
-      <c r="G473" s="33"/>
+      <c r="A473" s="41"/>
+      <c r="E473" s="42"/>
+      <c r="G473" s="42"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="32"/>
-      <c r="E474" s="33"/>
-      <c r="G474" s="33"/>
+      <c r="A474" s="41"/>
+      <c r="E474" s="42"/>
+      <c r="G474" s="42"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="32"/>
-      <c r="E475" s="33"/>
-      <c r="G475" s="33"/>
+      <c r="A475" s="41"/>
+      <c r="E475" s="42"/>
+      <c r="G475" s="42"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="32"/>
-      <c r="E476" s="33"/>
-      <c r="G476" s="33"/>
+      <c r="A476" s="41"/>
+      <c r="E476" s="42"/>
+      <c r="G476" s="42"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="32"/>
-      <c r="E477" s="33"/>
-      <c r="G477" s="33"/>
+      <c r="A477" s="41"/>
+      <c r="E477" s="42"/>
+      <c r="G477" s="42"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="32"/>
-      <c r="E478" s="33"/>
-      <c r="G478" s="33"/>
+      <c r="A478" s="41"/>
+      <c r="E478" s="42"/>
+      <c r="G478" s="42"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="32"/>
-      <c r="E479" s="33"/>
-      <c r="G479" s="33"/>
+      <c r="A479" s="41"/>
+      <c r="E479" s="42"/>
+      <c r="G479" s="42"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="32"/>
-      <c r="E480" s="33"/>
-      <c r="G480" s="33"/>
+      <c r="A480" s="41"/>
+      <c r="E480" s="42"/>
+      <c r="G480" s="42"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="32"/>
-      <c r="E481" s="33"/>
-      <c r="G481" s="33"/>
+      <c r="A481" s="41"/>
+      <c r="E481" s="42"/>
+      <c r="G481" s="42"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="32"/>
-      <c r="E482" s="33"/>
-      <c r="G482" s="33"/>
+      <c r="A482" s="41"/>
+      <c r="E482" s="42"/>
+      <c r="G482" s="42"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="32"/>
-      <c r="E483" s="33"/>
-      <c r="G483" s="33"/>
+      <c r="A483" s="41"/>
+      <c r="E483" s="42"/>
+      <c r="G483" s="42"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="32"/>
-      <c r="E484" s="33"/>
-      <c r="G484" s="33"/>
+      <c r="A484" s="41"/>
+      <c r="E484" s="42"/>
+      <c r="G484" s="42"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="32"/>
-      <c r="E485" s="33"/>
-      <c r="G485" s="33"/>
+      <c r="A485" s="41"/>
+      <c r="E485" s="42"/>
+      <c r="G485" s="42"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="32"/>
-      <c r="E486" s="33"/>
-      <c r="G486" s="33"/>
+      <c r="A486" s="41"/>
+      <c r="E486" s="42"/>
+      <c r="G486" s="42"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="32"/>
-      <c r="E487" s="33"/>
-      <c r="G487" s="33"/>
+      <c r="A487" s="41"/>
+      <c r="E487" s="42"/>
+      <c r="G487" s="42"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="32"/>
-      <c r="E488" s="33"/>
-      <c r="G488" s="33"/>
+      <c r="A488" s="41"/>
+      <c r="E488" s="42"/>
+      <c r="G488" s="42"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="32"/>
-      <c r="E489" s="33"/>
-      <c r="G489" s="33"/>
+      <c r="A489" s="41"/>
+      <c r="E489" s="42"/>
+      <c r="G489" s="42"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="32"/>
-      <c r="E490" s="33"/>
-      <c r="G490" s="33"/>
+      <c r="A490" s="41"/>
+      <c r="E490" s="42"/>
+      <c r="G490" s="42"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="32"/>
-      <c r="E491" s="33"/>
-      <c r="G491" s="33"/>
+      <c r="A491" s="41"/>
+      <c r="E491" s="42"/>
+      <c r="G491" s="42"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="32"/>
-      <c r="E492" s="33"/>
-      <c r="G492" s="33"/>
+      <c r="A492" s="41"/>
+      <c r="E492" s="42"/>
+      <c r="G492" s="42"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="32"/>
-      <c r="E493" s="33"/>
-      <c r="G493" s="33"/>
+      <c r="A493" s="41"/>
+      <c r="E493" s="42"/>
+      <c r="G493" s="42"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="32"/>
-      <c r="E494" s="33"/>
-      <c r="G494" s="33"/>
+      <c r="A494" s="41"/>
+      <c r="E494" s="42"/>
+      <c r="G494" s="42"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="32"/>
-      <c r="E495" s="33"/>
-      <c r="G495" s="33"/>
+      <c r="A495" s="41"/>
+      <c r="E495" s="42"/>
+      <c r="G495" s="42"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="32"/>
-      <c r="E496" s="33"/>
-      <c r="G496" s="33"/>
+      <c r="A496" s="41"/>
+      <c r="E496" s="42"/>
+      <c r="G496" s="42"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="32"/>
-      <c r="E497" s="33"/>
-      <c r="G497" s="33"/>
+      <c r="A497" s="41"/>
+      <c r="E497" s="42"/>
+      <c r="G497" s="42"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="32"/>
-      <c r="E498" s="33"/>
-      <c r="G498" s="33"/>
+      <c r="A498" s="41"/>
+      <c r="E498" s="42"/>
+      <c r="G498" s="42"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="32"/>
-      <c r="E499" s="33"/>
-      <c r="G499" s="33"/>
+      <c r="A499" s="41"/>
+      <c r="E499" s="42"/>
+      <c r="G499" s="42"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="32"/>
-      <c r="E500" s="33"/>
-      <c r="G500" s="33"/>
+      <c r="A500" s="41"/>
+      <c r="E500" s="42"/>
+      <c r="G500" s="42"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="32"/>
-      <c r="E501" s="33"/>
-      <c r="G501" s="33"/>
+      <c r="A501" s="41"/>
+      <c r="E501" s="42"/>
+      <c r="G501" s="42"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="32"/>
-      <c r="E502" s="33"/>
-      <c r="G502" s="33"/>
+      <c r="A502" s="41"/>
+      <c r="E502" s="42"/>
+      <c r="G502" s="42"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="32"/>
-      <c r="E503" s="33"/>
-      <c r="G503" s="33"/>
+      <c r="A503" s="41"/>
+      <c r="E503" s="42"/>
+      <c r="G503" s="42"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="32"/>
-      <c r="E504" s="33"/>
-      <c r="G504" s="33"/>
+      <c r="A504" s="41"/>
+      <c r="E504" s="42"/>
+      <c r="G504" s="42"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="32"/>
-      <c r="E505" s="33"/>
-      <c r="G505" s="33"/>
+      <c r="A505" s="41"/>
+      <c r="E505" s="42"/>
+      <c r="G505" s="42"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="32"/>
-      <c r="E506" s="33"/>
-      <c r="G506" s="33"/>
+      <c r="A506" s="41"/>
+      <c r="E506" s="42"/>
+      <c r="G506" s="42"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="32"/>
-      <c r="E507" s="33"/>
-      <c r="G507" s="33"/>
+      <c r="A507" s="41"/>
+      <c r="E507" s="42"/>
+      <c r="G507" s="42"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="32"/>
-      <c r="E508" s="33"/>
-      <c r="G508" s="33"/>
+      <c r="A508" s="41"/>
+      <c r="E508" s="42"/>
+      <c r="G508" s="42"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="32"/>
-      <c r="E509" s="33"/>
-      <c r="G509" s="33"/>
+      <c r="A509" s="41"/>
+      <c r="E509" s="42"/>
+      <c r="G509" s="42"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="32"/>
-      <c r="E510" s="33"/>
-      <c r="G510" s="33"/>
+      <c r="A510" s="41"/>
+      <c r="E510" s="42"/>
+      <c r="G510" s="42"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="32"/>
-      <c r="E511" s="33"/>
-      <c r="G511" s="33"/>
+      <c r="A511" s="41"/>
+      <c r="E511" s="42"/>
+      <c r="G511" s="42"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="32"/>
-      <c r="E512" s="33"/>
-      <c r="G512" s="33"/>
+      <c r="A512" s="41"/>
+      <c r="E512" s="42"/>
+      <c r="G512" s="42"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="32"/>
-      <c r="E513" s="33"/>
-      <c r="G513" s="33"/>
+      <c r="A513" s="41"/>
+      <c r="E513" s="42"/>
+      <c r="G513" s="42"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="32"/>
-      <c r="E514" s="33"/>
-      <c r="G514" s="33"/>
+      <c r="A514" s="41"/>
+      <c r="E514" s="42"/>
+      <c r="G514" s="42"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="32"/>
-      <c r="E515" s="33"/>
-      <c r="G515" s="33"/>
+      <c r="A515" s="41"/>
+      <c r="E515" s="42"/>
+      <c r="G515" s="42"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="32"/>
-      <c r="E516" s="33"/>
-      <c r="G516" s="33"/>
+      <c r="A516" s="41"/>
+      <c r="E516" s="42"/>
+      <c r="G516" s="42"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="32"/>
-      <c r="E517" s="33"/>
-      <c r="G517" s="33"/>
+      <c r="A517" s="41"/>
+      <c r="E517" s="42"/>
+      <c r="G517" s="42"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="32"/>
-      <c r="E518" s="33"/>
-      <c r="G518" s="33"/>
+      <c r="A518" s="41"/>
+      <c r="E518" s="42"/>
+      <c r="G518" s="42"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="32"/>
-      <c r="E519" s="33"/>
-      <c r="G519" s="33"/>
+      <c r="A519" s="41"/>
+      <c r="E519" s="42"/>
+      <c r="G519" s="42"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="32"/>
-      <c r="E520" s="33"/>
-      <c r="G520" s="33"/>
+      <c r="A520" s="41"/>
+      <c r="E520" s="42"/>
+      <c r="G520" s="42"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="32"/>
-      <c r="E521" s="33"/>
-      <c r="G521" s="33"/>
+      <c r="A521" s="41"/>
+      <c r="E521" s="42"/>
+      <c r="G521" s="42"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="32"/>
-      <c r="E522" s="33"/>
-      <c r="G522" s="33"/>
+      <c r="A522" s="41"/>
+      <c r="E522" s="42"/>
+      <c r="G522" s="42"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="32"/>
-      <c r="E523" s="33"/>
-      <c r="G523" s="33"/>
+      <c r="A523" s="41"/>
+      <c r="E523" s="42"/>
+      <c r="G523" s="42"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="32"/>
-      <c r="E524" s="33"/>
-      <c r="G524" s="33"/>
+      <c r="A524" s="41"/>
+      <c r="E524" s="42"/>
+      <c r="G524" s="42"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="32"/>
-      <c r="E525" s="33"/>
-      <c r="G525" s="33"/>
+      <c r="A525" s="41"/>
+      <c r="E525" s="42"/>
+      <c r="G525" s="42"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="32"/>
-      <c r="E526" s="33"/>
-      <c r="G526" s="33"/>
+      <c r="A526" s="41"/>
+      <c r="E526" s="42"/>
+      <c r="G526" s="42"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="32"/>
-      <c r="E527" s="33"/>
-      <c r="G527" s="33"/>
+      <c r="A527" s="41"/>
+      <c r="E527" s="42"/>
+      <c r="G527" s="42"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="32"/>
-      <c r="E528" s="33"/>
-      <c r="G528" s="33"/>
+      <c r="A528" s="41"/>
+      <c r="E528" s="42"/>
+      <c r="G528" s="42"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="32"/>
-      <c r="E529" s="33"/>
-      <c r="G529" s="33"/>
+      <c r="A529" s="41"/>
+      <c r="E529" s="42"/>
+      <c r="G529" s="42"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="32"/>
-      <c r="E530" s="33"/>
-      <c r="G530" s="33"/>
+      <c r="A530" s="41"/>
+      <c r="E530" s="42"/>
+      <c r="G530" s="42"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="32"/>
-      <c r="E531" s="33"/>
-      <c r="G531" s="33"/>
+      <c r="A531" s="41"/>
+      <c r="E531" s="42"/>
+      <c r="G531" s="42"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="32"/>
-      <c r="E532" s="33"/>
-      <c r="G532" s="33"/>
+      <c r="A532" s="41"/>
+      <c r="E532" s="42"/>
+      <c r="G532" s="42"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="32"/>
-      <c r="E533" s="33"/>
-      <c r="G533" s="33"/>
+      <c r="A533" s="41"/>
+      <c r="E533" s="42"/>
+      <c r="G533" s="42"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="32"/>
-      <c r="E534" s="33"/>
-      <c r="G534" s="33"/>
+      <c r="A534" s="41"/>
+      <c r="E534" s="42"/>
+      <c r="G534" s="42"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="32"/>
-      <c r="E535" s="33"/>
-      <c r="G535" s="33"/>
+      <c r="A535" s="41"/>
+      <c r="E535" s="42"/>
+      <c r="G535" s="42"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="32"/>
-      <c r="E536" s="33"/>
-      <c r="G536" s="33"/>
+      <c r="A536" s="41"/>
+      <c r="E536" s="42"/>
+      <c r="G536" s="42"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="32"/>
-      <c r="E537" s="33"/>
-      <c r="G537" s="33"/>
+      <c r="A537" s="41"/>
+      <c r="E537" s="42"/>
+      <c r="G537" s="42"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="32"/>
-      <c r="E538" s="33"/>
-      <c r="G538" s="33"/>
+      <c r="A538" s="41"/>
+      <c r="E538" s="42"/>
+      <c r="G538" s="42"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="32"/>
-      <c r="E539" s="33"/>
-      <c r="G539" s="33"/>
+      <c r="A539" s="41"/>
+      <c r="E539" s="42"/>
+      <c r="G539" s="42"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="32"/>
-      <c r="E540" s="33"/>
-      <c r="G540" s="33"/>
+      <c r="A540" s="41"/>
+      <c r="E540" s="42"/>
+      <c r="G540" s="42"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="32"/>
-      <c r="E541" s="33"/>
-      <c r="G541" s="33"/>
+      <c r="A541" s="41"/>
+      <c r="E541" s="42"/>
+      <c r="G541" s="42"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="32"/>
-      <c r="E542" s="33"/>
-      <c r="G542" s="33"/>
+      <c r="A542" s="41"/>
+      <c r="E542" s="42"/>
+      <c r="G542" s="42"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="32"/>
-      <c r="E543" s="33"/>
-      <c r="G543" s="33"/>
+      <c r="A543" s="41"/>
+      <c r="E543" s="42"/>
+      <c r="G543" s="42"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="32"/>
-      <c r="E544" s="33"/>
-      <c r="G544" s="33"/>
+      <c r="A544" s="41"/>
+      <c r="E544" s="42"/>
+      <c r="G544" s="42"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="32"/>
-      <c r="E545" s="33"/>
-      <c r="G545" s="33"/>
+      <c r="A545" s="41"/>
+      <c r="E545" s="42"/>
+      <c r="G545" s="42"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="32"/>
-      <c r="E546" s="33"/>
-      <c r="G546" s="33"/>
+      <c r="A546" s="41"/>
+      <c r="E546" s="42"/>
+      <c r="G546" s="42"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="32"/>
-      <c r="E547" s="33"/>
-      <c r="G547" s="33"/>
+      <c r="A547" s="41"/>
+      <c r="E547" s="42"/>
+      <c r="G547" s="42"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="32"/>
-      <c r="E548" s="33"/>
-      <c r="G548" s="33"/>
+      <c r="A548" s="41"/>
+      <c r="E548" s="42"/>
+      <c r="G548" s="42"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="32"/>
-      <c r="E549" s="33"/>
-      <c r="G549" s="33"/>
+      <c r="A549" s="41"/>
+      <c r="E549" s="42"/>
+      <c r="G549" s="42"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="32"/>
-      <c r="E550" s="33"/>
-      <c r="G550" s="33"/>
+      <c r="A550" s="41"/>
+      <c r="E550" s="42"/>
+      <c r="G550" s="42"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="32"/>
-      <c r="E551" s="33"/>
-      <c r="G551" s="33"/>
+      <c r="A551" s="41"/>
+      <c r="E551" s="42"/>
+      <c r="G551" s="42"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="32"/>
-      <c r="E552" s="33"/>
-      <c r="G552" s="33"/>
+      <c r="A552" s="41"/>
+      <c r="E552" s="42"/>
+      <c r="G552" s="42"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="32"/>
-      <c r="E553" s="33"/>
-      <c r="G553" s="33"/>
+      <c r="A553" s="41"/>
+      <c r="E553" s="42"/>
+      <c r="G553" s="42"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="32"/>
-      <c r="E554" s="33"/>
-      <c r="G554" s="33"/>
+      <c r="A554" s="41"/>
+      <c r="E554" s="42"/>
+      <c r="G554" s="42"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="32"/>
-      <c r="E555" s="33"/>
-      <c r="G555" s="33"/>
+      <c r="A555" s="41"/>
+      <c r="E555" s="42"/>
+      <c r="G555" s="42"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="32"/>
-      <c r="E556" s="33"/>
-      <c r="G556" s="33"/>
+      <c r="A556" s="41"/>
+      <c r="E556" s="42"/>
+      <c r="G556" s="42"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="32"/>
-      <c r="E557" s="33"/>
-      <c r="G557" s="33"/>
+      <c r="A557" s="41"/>
+      <c r="E557" s="42"/>
+      <c r="G557" s="42"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="32"/>
-      <c r="E558" s="33"/>
-      <c r="G558" s="33"/>
+      <c r="A558" s="41"/>
+      <c r="E558" s="42"/>
+      <c r="G558" s="42"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="32"/>
-      <c r="E559" s="33"/>
-      <c r="G559" s="33"/>
+      <c r="A559" s="41"/>
+      <c r="E559" s="42"/>
+      <c r="G559" s="42"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="32"/>
-      <c r="E560" s="33"/>
-      <c r="G560" s="33"/>
+      <c r="A560" s="41"/>
+      <c r="E560" s="42"/>
+      <c r="G560" s="42"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="32"/>
-      <c r="E561" s="33"/>
-      <c r="G561" s="33"/>
+      <c r="A561" s="41"/>
+      <c r="E561" s="42"/>
+      <c r="G561" s="42"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="32"/>
-      <c r="E562" s="33"/>
-      <c r="G562" s="33"/>
+      <c r="A562" s="41"/>
+      <c r="E562" s="42"/>
+      <c r="G562" s="42"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="32"/>
-      <c r="E563" s="33"/>
-      <c r="G563" s="33"/>
+      <c r="A563" s="41"/>
+      <c r="E563" s="42"/>
+      <c r="G563" s="42"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="32"/>
-      <c r="E564" s="33"/>
-      <c r="G564" s="33"/>
+      <c r="A564" s="41"/>
+      <c r="E564" s="42"/>
+      <c r="G564" s="42"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="32"/>
-      <c r="E565" s="33"/>
-      <c r="G565" s="33"/>
+      <c r="A565" s="41"/>
+      <c r="E565" s="42"/>
+      <c r="G565" s="42"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="32"/>
-      <c r="E566" s="33"/>
-      <c r="G566" s="33"/>
+      <c r="A566" s="41"/>
+      <c r="E566" s="42"/>
+      <c r="G566" s="42"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="32"/>
-      <c r="E567" s="33"/>
-      <c r="G567" s="33"/>
+      <c r="A567" s="41"/>
+      <c r="E567" s="42"/>
+      <c r="G567" s="42"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="32"/>
-      <c r="E568" s="33"/>
-      <c r="G568" s="33"/>
+      <c r="A568" s="41"/>
+      <c r="E568" s="42"/>
+      <c r="G568" s="42"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="32"/>
-      <c r="E569" s="33"/>
-      <c r="G569" s="33"/>
+      <c r="A569" s="41"/>
+      <c r="E569" s="42"/>
+      <c r="G569" s="42"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="32"/>
-      <c r="E570" s="33"/>
-      <c r="G570" s="33"/>
+      <c r="A570" s="41"/>
+      <c r="E570" s="42"/>
+      <c r="G570" s="42"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="32"/>
-      <c r="E571" s="33"/>
-      <c r="G571" s="33"/>
+      <c r="A571" s="41"/>
+      <c r="E571" s="42"/>
+      <c r="G571" s="42"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="32"/>
-      <c r="E572" s="33"/>
-      <c r="G572" s="33"/>
+      <c r="A572" s="41"/>
+      <c r="E572" s="42"/>
+      <c r="G572" s="42"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="32"/>
-      <c r="E573" s="33"/>
-      <c r="G573" s="33"/>
+      <c r="A573" s="41"/>
+      <c r="E573" s="42"/>
+      <c r="G573" s="42"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="32"/>
-      <c r="E574" s="33"/>
-      <c r="G574" s="33"/>
+      <c r="A574" s="41"/>
+      <c r="E574" s="42"/>
+      <c r="G574" s="42"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="32"/>
-      <c r="E575" s="33"/>
-      <c r="G575" s="33"/>
+      <c r="A575" s="41"/>
+      <c r="E575" s="42"/>
+      <c r="G575" s="42"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="32"/>
-      <c r="E576" s="33"/>
-      <c r="G576" s="33"/>
+      <c r="A576" s="41"/>
+      <c r="E576" s="42"/>
+      <c r="G576" s="42"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="32"/>
-      <c r="E577" s="33"/>
-      <c r="G577" s="33"/>
+      <c r="A577" s="41"/>
+      <c r="E577" s="42"/>
+      <c r="G577" s="42"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="32"/>
-      <c r="E578" s="33"/>
-      <c r="G578" s="33"/>
+      <c r="A578" s="41"/>
+      <c r="E578" s="42"/>
+      <c r="G578" s="42"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="32"/>
-      <c r="E579" s="33"/>
-      <c r="G579" s="33"/>
+      <c r="A579" s="41"/>
+      <c r="E579" s="42"/>
+      <c r="G579" s="42"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="32"/>
-      <c r="E580" s="33"/>
-      <c r="G580" s="33"/>
+      <c r="A580" s="41"/>
+      <c r="E580" s="42"/>
+      <c r="G580" s="42"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="32"/>
-      <c r="E581" s="33"/>
-      <c r="G581" s="33"/>
+      <c r="A581" s="41"/>
+      <c r="E581" s="42"/>
+      <c r="G581" s="42"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="32"/>
-      <c r="E582" s="33"/>
-      <c r="G582" s="33"/>
+      <c r="A582" s="41"/>
+      <c r="E582" s="42"/>
+      <c r="G582" s="42"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="32"/>
-      <c r="E583" s="33"/>
-      <c r="G583" s="33"/>
+      <c r="A583" s="41"/>
+      <c r="E583" s="42"/>
+      <c r="G583" s="42"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="32"/>
-      <c r="E584" s="33"/>
-      <c r="G584" s="33"/>
+      <c r="A584" s="41"/>
+      <c r="E584" s="42"/>
+      <c r="G584" s="42"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="32"/>
-      <c r="E585" s="33"/>
-      <c r="G585" s="33"/>
+      <c r="A585" s="41"/>
+      <c r="E585" s="42"/>
+      <c r="G585" s="42"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="32"/>
-      <c r="E586" s="33"/>
-      <c r="G586" s="33"/>
+      <c r="A586" s="41"/>
+      <c r="E586" s="42"/>
+      <c r="G586" s="42"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="32"/>
-      <c r="E587" s="33"/>
-      <c r="G587" s="33"/>
+      <c r="A587" s="41"/>
+      <c r="E587" s="42"/>
+      <c r="G587" s="42"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="32"/>
-      <c r="E588" s="33"/>
-      <c r="G588" s="33"/>
+      <c r="A588" s="41"/>
+      <c r="E588" s="42"/>
+      <c r="G588" s="42"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="32"/>
-      <c r="E589" s="33"/>
-      <c r="G589" s="33"/>
+      <c r="A589" s="41"/>
+      <c r="E589" s="42"/>
+      <c r="G589" s="42"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="32"/>
-      <c r="E590" s="33"/>
-      <c r="G590" s="33"/>
+      <c r="A590" s="41"/>
+      <c r="E590" s="42"/>
+      <c r="G590" s="42"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="32"/>
-      <c r="E591" s="33"/>
-      <c r="G591" s="33"/>
+      <c r="A591" s="41"/>
+      <c r="E591" s="42"/>
+      <c r="G591" s="42"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="32"/>
-      <c r="E592" s="33"/>
-      <c r="G592" s="33"/>
+      <c r="A592" s="41"/>
+      <c r="E592" s="42"/>
+      <c r="G592" s="42"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="32"/>
-      <c r="E593" s="33"/>
-      <c r="G593" s="33"/>
+      <c r="A593" s="41"/>
+      <c r="E593" s="42"/>
+      <c r="G593" s="42"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="32"/>
-      <c r="E594" s="33"/>
-      <c r="G594" s="33"/>
+      <c r="A594" s="41"/>
+      <c r="E594" s="42"/>
+      <c r="G594" s="42"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="32"/>
-      <c r="E595" s="33"/>
-      <c r="G595" s="33"/>
+      <c r="A595" s="41"/>
+      <c r="E595" s="42"/>
+      <c r="G595" s="42"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="32"/>
-      <c r="E596" s="33"/>
-      <c r="G596" s="33"/>
+      <c r="A596" s="41"/>
+      <c r="E596" s="42"/>
+      <c r="G596" s="42"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="32"/>
-      <c r="E597" s="33"/>
-      <c r="G597" s="33"/>
+      <c r="A597" s="41"/>
+      <c r="E597" s="42"/>
+      <c r="G597" s="42"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="32"/>
-      <c r="E598" s="33"/>
-      <c r="G598" s="33"/>
+      <c r="A598" s="41"/>
+      <c r="E598" s="42"/>
+      <c r="G598" s="42"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="32"/>
-      <c r="E599" s="33"/>
-      <c r="G599" s="33"/>
+      <c r="A599" s="41"/>
+      <c r="E599" s="42"/>
+      <c r="G599" s="42"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="32"/>
-      <c r="E600" s="33"/>
-      <c r="G600" s="33"/>
+      <c r="A600" s="41"/>
+      <c r="E600" s="42"/>
+      <c r="G600" s="42"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="32"/>
-      <c r="E601" s="33"/>
-      <c r="G601" s="33"/>
+      <c r="A601" s="41"/>
+      <c r="E601" s="42"/>
+      <c r="G601" s="42"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="32"/>
-      <c r="E602" s="33"/>
-      <c r="G602" s="33"/>
+      <c r="A602" s="41"/>
+      <c r="E602" s="42"/>
+      <c r="G602" s="42"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="32"/>
-      <c r="E603" s="33"/>
-      <c r="G603" s="33"/>
+      <c r="A603" s="41"/>
+      <c r="E603" s="42"/>
+      <c r="G603" s="42"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="32"/>
-      <c r="E604" s="33"/>
-      <c r="G604" s="33"/>
+      <c r="A604" s="41"/>
+      <c r="E604" s="42"/>
+      <c r="G604" s="42"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="32"/>
-      <c r="E605" s="33"/>
-      <c r="G605" s="33"/>
+      <c r="A605" s="41"/>
+      <c r="E605" s="42"/>
+      <c r="G605" s="42"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="32"/>
-      <c r="E606" s="33"/>
-      <c r="G606" s="33"/>
+      <c r="A606" s="41"/>
+      <c r="E606" s="42"/>
+      <c r="G606" s="42"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="32"/>
-      <c r="E607" s="33"/>
-      <c r="G607" s="33"/>
+      <c r="A607" s="41"/>
+      <c r="E607" s="42"/>
+      <c r="G607" s="42"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="32"/>
-      <c r="E608" s="33"/>
-      <c r="G608" s="33"/>
+      <c r="A608" s="41"/>
+      <c r="E608" s="42"/>
+      <c r="G608" s="42"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="32"/>
-      <c r="E609" s="33"/>
-      <c r="G609" s="33"/>
+      <c r="A609" s="41"/>
+      <c r="E609" s="42"/>
+      <c r="G609" s="42"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="32"/>
-      <c r="E610" s="33"/>
-      <c r="G610" s="33"/>
+      <c r="A610" s="41"/>
+      <c r="E610" s="42"/>
+      <c r="G610" s="42"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="32"/>
-      <c r="E611" s="33"/>
-      <c r="G611" s="33"/>
+      <c r="A611" s="41"/>
+      <c r="E611" s="42"/>
+      <c r="G611" s="42"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="32"/>
-      <c r="E612" s="33"/>
-      <c r="G612" s="33"/>
+      <c r="A612" s="41"/>
+      <c r="E612" s="42"/>
+      <c r="G612" s="42"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="32"/>
-      <c r="E613" s="33"/>
-      <c r="G613" s="33"/>
+      <c r="A613" s="41"/>
+      <c r="E613" s="42"/>
+      <c r="G613" s="42"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="32"/>
-      <c r="E614" s="33"/>
-      <c r="G614" s="33"/>
+      <c r="A614" s="41"/>
+      <c r="E614" s="42"/>
+      <c r="G614" s="42"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="32"/>
-      <c r="E615" s="33"/>
-      <c r="G615" s="33"/>
+      <c r="A615" s="41"/>
+      <c r="E615" s="42"/>
+      <c r="G615" s="42"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="32"/>
-      <c r="E616" s="33"/>
-      <c r="G616" s="33"/>
+      <c r="A616" s="41"/>
+      <c r="E616" s="42"/>
+      <c r="G616" s="42"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="32"/>
-      <c r="E617" s="33"/>
-      <c r="G617" s="33"/>
+      <c r="A617" s="41"/>
+      <c r="E617" s="42"/>
+      <c r="G617" s="42"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="32"/>
-      <c r="E618" s="33"/>
-      <c r="G618" s="33"/>
+      <c r="A618" s="41"/>
+      <c r="E618" s="42"/>
+      <c r="G618" s="42"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="32"/>
-      <c r="E619" s="33"/>
-      <c r="G619" s="33"/>
+      <c r="A619" s="41"/>
+      <c r="E619" s="42"/>
+      <c r="G619" s="42"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="32"/>
-      <c r="E620" s="33"/>
-      <c r="G620" s="33"/>
+      <c r="A620" s="41"/>
+      <c r="E620" s="42"/>
+      <c r="G620" s="42"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="32"/>
-      <c r="E621" s="33"/>
-      <c r="G621" s="33"/>
+      <c r="A621" s="41"/>
+      <c r="E621" s="42"/>
+      <c r="G621" s="42"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="32"/>
-      <c r="E622" s="33"/>
-      <c r="G622" s="33"/>
+      <c r="A622" s="41"/>
+      <c r="E622" s="42"/>
+      <c r="G622" s="42"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="32"/>
-      <c r="E623" s="33"/>
-      <c r="G623" s="33"/>
+      <c r="A623" s="41"/>
+      <c r="E623" s="42"/>
+      <c r="G623" s="42"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="32"/>
-      <c r="E624" s="33"/>
-      <c r="G624" s="33"/>
+      <c r="A624" s="41"/>
+      <c r="E624" s="42"/>
+      <c r="G624" s="42"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="32"/>
-      <c r="E625" s="33"/>
-      <c r="G625" s="33"/>
+      <c r="A625" s="41"/>
+      <c r="E625" s="42"/>
+      <c r="G625" s="42"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="32"/>
-      <c r="E626" s="33"/>
-      <c r="G626" s="33"/>
+      <c r="A626" s="41"/>
+      <c r="E626" s="42"/>
+      <c r="G626" s="42"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="32"/>
-      <c r="E627" s="33"/>
-      <c r="G627" s="33"/>
+      <c r="A627" s="41"/>
+      <c r="E627" s="42"/>
+      <c r="G627" s="42"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="32"/>
-      <c r="E628" s="33"/>
-      <c r="G628" s="33"/>
+      <c r="A628" s="41"/>
+      <c r="E628" s="42"/>
+      <c r="G628" s="42"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="32"/>
-      <c r="E629" s="33"/>
-      <c r="G629" s="33"/>
+      <c r="A629" s="41"/>
+      <c r="E629" s="42"/>
+      <c r="G629" s="42"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="32"/>
-      <c r="E630" s="33"/>
-      <c r="G630" s="33"/>
+      <c r="A630" s="41"/>
+      <c r="E630" s="42"/>
+      <c r="G630" s="42"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="32"/>
-      <c r="E631" s="33"/>
-      <c r="G631" s="33"/>
+      <c r="A631" s="41"/>
+      <c r="E631" s="42"/>
+      <c r="G631" s="42"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="32"/>
-      <c r="E632" s="33"/>
-      <c r="G632" s="33"/>
+      <c r="A632" s="41"/>
+      <c r="E632" s="42"/>
+      <c r="G632" s="42"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="32"/>
-      <c r="E633" s="33"/>
-      <c r="G633" s="33"/>
+      <c r="A633" s="41"/>
+      <c r="E633" s="42"/>
+      <c r="G633" s="42"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="32"/>
-      <c r="E634" s="33"/>
-      <c r="G634" s="33"/>
+      <c r="A634" s="41"/>
+      <c r="E634" s="42"/>
+      <c r="G634" s="42"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="32"/>
-      <c r="E635" s="33"/>
-      <c r="G635" s="33"/>
+      <c r="A635" s="41"/>
+      <c r="E635" s="42"/>
+      <c r="G635" s="42"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="32"/>
-      <c r="E636" s="33"/>
-      <c r="G636" s="33"/>
+      <c r="A636" s="41"/>
+      <c r="E636" s="42"/>
+      <c r="G636" s="42"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="32"/>
-      <c r="E637" s="33"/>
-      <c r="G637" s="33"/>
+      <c r="A637" s="41"/>
+      <c r="E637" s="42"/>
+      <c r="G637" s="42"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="32"/>
-      <c r="E638" s="33"/>
-      <c r="G638" s="33"/>
+      <c r="A638" s="41"/>
+      <c r="E638" s="42"/>
+      <c r="G638" s="42"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="32"/>
-      <c r="E639" s="33"/>
-      <c r="G639" s="33"/>
+      <c r="A639" s="41"/>
+      <c r="E639" s="42"/>
+      <c r="G639" s="42"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="32"/>
-      <c r="E640" s="33"/>
-      <c r="G640" s="33"/>
+      <c r="A640" s="41"/>
+      <c r="E640" s="42"/>
+      <c r="G640" s="42"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="32"/>
-      <c r="E641" s="33"/>
-      <c r="G641" s="33"/>
+      <c r="A641" s="41"/>
+      <c r="E641" s="42"/>
+      <c r="G641" s="42"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="32"/>
-      <c r="E642" s="33"/>
-      <c r="G642" s="33"/>
+      <c r="A642" s="41"/>
+      <c r="E642" s="42"/>
+      <c r="G642" s="42"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="32"/>
-      <c r="E643" s="33"/>
-      <c r="G643" s="33"/>
+      <c r="A643" s="41"/>
+      <c r="E643" s="42"/>
+      <c r="G643" s="42"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="32"/>
-      <c r="E644" s="33"/>
-      <c r="G644" s="33"/>
+      <c r="A644" s="41"/>
+      <c r="E644" s="42"/>
+      <c r="G644" s="42"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="32"/>
-      <c r="E645" s="33"/>
-      <c r="G645" s="33"/>
+      <c r="A645" s="41"/>
+      <c r="E645" s="42"/>
+      <c r="G645" s="42"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="32"/>
-      <c r="E646" s="33"/>
-      <c r="G646" s="33"/>
+      <c r="A646" s="41"/>
+      <c r="E646" s="42"/>
+      <c r="G646" s="42"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="32"/>
-      <c r="E647" s="33"/>
-      <c r="G647" s="33"/>
+      <c r="A647" s="41"/>
+      <c r="E647" s="42"/>
+      <c r="G647" s="42"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="32"/>
-      <c r="E648" s="33"/>
-      <c r="G648" s="33"/>
+      <c r="A648" s="41"/>
+      <c r="E648" s="42"/>
+      <c r="G648" s="42"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="32"/>
-      <c r="E649" s="33"/>
-      <c r="G649" s="33"/>
+      <c r="A649" s="41"/>
+      <c r="E649" s="42"/>
+      <c r="G649" s="42"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="32"/>
-      <c r="E650" s="33"/>
-      <c r="G650" s="33"/>
+      <c r="A650" s="41"/>
+      <c r="E650" s="42"/>
+      <c r="G650" s="42"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="32"/>
-      <c r="E651" s="33"/>
-      <c r="G651" s="33"/>
+      <c r="A651" s="41"/>
+      <c r="E651" s="42"/>
+      <c r="G651" s="42"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="32"/>
-      <c r="E652" s="33"/>
-      <c r="G652" s="33"/>
+      <c r="A652" s="41"/>
+      <c r="E652" s="42"/>
+      <c r="G652" s="42"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="32"/>
-      <c r="E653" s="33"/>
-      <c r="G653" s="33"/>
+      <c r="A653" s="41"/>
+      <c r="E653" s="42"/>
+      <c r="G653" s="42"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="32"/>
-      <c r="E654" s="33"/>
-      <c r="G654" s="33"/>
+      <c r="A654" s="41"/>
+      <c r="E654" s="42"/>
+      <c r="G654" s="42"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="32"/>
-      <c r="E655" s="33"/>
-      <c r="G655" s="33"/>
+      <c r="A655" s="41"/>
+      <c r="E655" s="42"/>
+      <c r="G655" s="42"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="32"/>
-      <c r="E656" s="33"/>
-      <c r="G656" s="33"/>
+      <c r="A656" s="41"/>
+      <c r="E656" s="42"/>
+      <c r="G656" s="42"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="32"/>
-      <c r="E657" s="33"/>
-      <c r="G657" s="33"/>
+      <c r="A657" s="41"/>
+      <c r="E657" s="42"/>
+      <c r="G657" s="42"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="32"/>
-      <c r="E658" s="33"/>
-      <c r="G658" s="33"/>
+      <c r="A658" s="41"/>
+      <c r="E658" s="42"/>
+      <c r="G658" s="42"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="32"/>
-      <c r="E659" s="33"/>
-      <c r="G659" s="33"/>
+      <c r="A659" s="41"/>
+      <c r="E659" s="42"/>
+      <c r="G659" s="42"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="32"/>
-      <c r="E660" s="33"/>
-      <c r="G660" s="33"/>
+      <c r="A660" s="41"/>
+      <c r="E660" s="42"/>
+      <c r="G660" s="42"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="32"/>
-      <c r="E661" s="33"/>
-      <c r="G661" s="33"/>
+      <c r="A661" s="41"/>
+      <c r="E661" s="42"/>
+      <c r="G661" s="42"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="32"/>
-      <c r="E662" s="33"/>
-      <c r="G662" s="33"/>
+      <c r="A662" s="41"/>
+      <c r="E662" s="42"/>
+      <c r="G662" s="42"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="32"/>
-      <c r="E663" s="33"/>
-      <c r="G663" s="33"/>
+      <c r="A663" s="41"/>
+      <c r="E663" s="42"/>
+      <c r="G663" s="42"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="32"/>
-      <c r="E664" s="33"/>
-      <c r="G664" s="33"/>
+      <c r="A664" s="41"/>
+      <c r="E664" s="42"/>
+      <c r="G664" s="42"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="32"/>
-      <c r="E665" s="33"/>
-      <c r="G665" s="33"/>
+      <c r="A665" s="41"/>
+      <c r="E665" s="42"/>
+      <c r="G665" s="42"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="32"/>
-      <c r="E666" s="33"/>
-      <c r="G666" s="33"/>
+      <c r="A666" s="41"/>
+      <c r="E666" s="42"/>
+      <c r="G666" s="42"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="32"/>
-      <c r="E667" s="33"/>
-      <c r="G667" s="33"/>
+      <c r="A667" s="41"/>
+      <c r="E667" s="42"/>
+      <c r="G667" s="42"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="32"/>
-      <c r="E668" s="33"/>
-      <c r="G668" s="33"/>
+      <c r="A668" s="41"/>
+      <c r="E668" s="42"/>
+      <c r="G668" s="42"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="32"/>
-      <c r="E669" s="33"/>
-      <c r="G669" s="33"/>
+      <c r="A669" s="41"/>
+      <c r="E669" s="42"/>
+      <c r="G669" s="42"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="32"/>
-      <c r="E670" s="33"/>
-      <c r="G670" s="33"/>
+      <c r="A670" s="41"/>
+      <c r="E670" s="42"/>
+      <c r="G670" s="42"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="32"/>
-      <c r="E671" s="33"/>
-      <c r="G671" s="33"/>
+      <c r="A671" s="41"/>
+      <c r="E671" s="42"/>
+      <c r="G671" s="42"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="32"/>
-      <c r="E672" s="33"/>
-      <c r="G672" s="33"/>
+      <c r="A672" s="41"/>
+      <c r="E672" s="42"/>
+      <c r="G672" s="42"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="32"/>
-      <c r="E673" s="33"/>
-      <c r="G673" s="33"/>
+      <c r="A673" s="41"/>
+      <c r="E673" s="42"/>
+      <c r="G673" s="42"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="32"/>
-      <c r="E674" s="33"/>
-      <c r="G674" s="33"/>
+      <c r="A674" s="41"/>
+      <c r="E674" s="42"/>
+      <c r="G674" s="42"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="32"/>
-      <c r="E675" s="33"/>
-      <c r="G675" s="33"/>
+      <c r="A675" s="41"/>
+      <c r="E675" s="42"/>
+      <c r="G675" s="42"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="32"/>
-      <c r="E676" s="33"/>
-      <c r="G676" s="33"/>
+      <c r="A676" s="41"/>
+      <c r="E676" s="42"/>
+      <c r="G676" s="42"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="32"/>
-      <c r="E677" s="33"/>
-      <c r="G677" s="33"/>
+      <c r="A677" s="41"/>
+      <c r="E677" s="42"/>
+      <c r="G677" s="42"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="32"/>
-      <c r="E678" s="33"/>
-      <c r="G678" s="33"/>
+      <c r="A678" s="41"/>
+      <c r="E678" s="42"/>
+      <c r="G678" s="42"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="32"/>
-      <c r="E679" s="33"/>
-      <c r="G679" s="33"/>
+      <c r="A679" s="41"/>
+      <c r="E679" s="42"/>
+      <c r="G679" s="42"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="32"/>
-      <c r="E680" s="33"/>
-      <c r="G680" s="33"/>
+      <c r="A680" s="41"/>
+      <c r="E680" s="42"/>
+      <c r="G680" s="42"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="32"/>
-      <c r="E681" s="33"/>
-      <c r="G681" s="33"/>
+      <c r="A681" s="41"/>
+      <c r="E681" s="42"/>
+      <c r="G681" s="42"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="32"/>
-      <c r="E682" s="33"/>
-      <c r="G682" s="33"/>
+      <c r="A682" s="41"/>
+      <c r="E682" s="42"/>
+      <c r="G682" s="42"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="32"/>
-      <c r="E683" s="33"/>
-      <c r="G683" s="33"/>
+      <c r="A683" s="41"/>
+      <c r="E683" s="42"/>
+      <c r="G683" s="42"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="32"/>
-      <c r="E684" s="33"/>
-      <c r="G684" s="33"/>
+      <c r="A684" s="41"/>
+      <c r="E684" s="42"/>
+      <c r="G684" s="42"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="32"/>
-      <c r="E685" s="33"/>
-      <c r="G685" s="33"/>
+      <c r="A685" s="41"/>
+      <c r="E685" s="42"/>
+      <c r="G685" s="42"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="32"/>
-      <c r="E686" s="33"/>
-      <c r="G686" s="33"/>
+      <c r="A686" s="41"/>
+      <c r="E686" s="42"/>
+      <c r="G686" s="42"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="32"/>
-      <c r="E687" s="33"/>
-      <c r="G687" s="33"/>
+      <c r="A687" s="41"/>
+      <c r="E687" s="42"/>
+      <c r="G687" s="42"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="32"/>
-      <c r="E688" s="33"/>
-      <c r="G688" s="33"/>
+      <c r="A688" s="41"/>
+      <c r="E688" s="42"/>
+      <c r="G688" s="42"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="32"/>
-      <c r="E689" s="33"/>
-      <c r="G689" s="33"/>
+      <c r="A689" s="41"/>
+      <c r="E689" s="42"/>
+      <c r="G689" s="42"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="32"/>
-      <c r="E690" s="33"/>
-      <c r="G690" s="33"/>
+      <c r="A690" s="41"/>
+      <c r="E690" s="42"/>
+      <c r="G690" s="42"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="32"/>
-      <c r="E691" s="33"/>
-      <c r="G691" s="33"/>
+      <c r="A691" s="41"/>
+      <c r="E691" s="42"/>
+      <c r="G691" s="42"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="32"/>
-      <c r="E692" s="33"/>
-      <c r="G692" s="33"/>
+      <c r="A692" s="41"/>
+      <c r="E692" s="42"/>
+      <c r="G692" s="42"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="32"/>
-      <c r="E693" s="33"/>
-      <c r="G693" s="33"/>
+      <c r="A693" s="41"/>
+      <c r="E693" s="42"/>
+      <c r="G693" s="42"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="32"/>
-      <c r="E694" s="33"/>
-      <c r="G694" s="33"/>
+      <c r="A694" s="41"/>
+      <c r="E694" s="42"/>
+      <c r="G694" s="42"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="32"/>
-      <c r="E695" s="33"/>
-      <c r="G695" s="33"/>
+      <c r="A695" s="41"/>
+      <c r="E695" s="42"/>
+      <c r="G695" s="42"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="32"/>
-      <c r="E696" s="33"/>
-      <c r="G696" s="33"/>
+      <c r="A696" s="41"/>
+      <c r="E696" s="42"/>
+      <c r="G696" s="42"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="32"/>
-      <c r="E697" s="33"/>
-      <c r="G697" s="33"/>
+      <c r="A697" s="41"/>
+      <c r="E697" s="42"/>
+      <c r="G697" s="42"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="32"/>
-      <c r="E698" s="33"/>
-      <c r="G698" s="33"/>
+      <c r="A698" s="41"/>
+      <c r="E698" s="42"/>
+      <c r="G698" s="42"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="32"/>
-      <c r="E699" s="33"/>
-      <c r="G699" s="33"/>
+      <c r="A699" s="41"/>
+      <c r="E699" s="42"/>
+      <c r="G699" s="42"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="32"/>
-      <c r="E700" s="33"/>
-      <c r="G700" s="33"/>
+      <c r="A700" s="41"/>
+      <c r="E700" s="42"/>
+      <c r="G700" s="42"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="32"/>
-      <c r="E701" s="33"/>
-      <c r="G701" s="33"/>
+      <c r="A701" s="41"/>
+      <c r="E701" s="42"/>
+      <c r="G701" s="42"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="32"/>
-      <c r="E702" s="33"/>
-      <c r="G702" s="33"/>
+      <c r="A702" s="41"/>
+      <c r="E702" s="42"/>
+      <c r="G702" s="42"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="32"/>
-      <c r="E703" s="33"/>
-      <c r="G703" s="33"/>
+      <c r="A703" s="41"/>
+      <c r="E703" s="42"/>
+      <c r="G703" s="42"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="32"/>
-      <c r="E704" s="33"/>
-      <c r="G704" s="33"/>
+      <c r="A704" s="41"/>
+      <c r="E704" s="42"/>
+      <c r="G704" s="42"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="32"/>
-      <c r="E705" s="33"/>
-      <c r="G705" s="33"/>
+      <c r="A705" s="41"/>
+      <c r="E705" s="42"/>
+      <c r="G705" s="42"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="32"/>
-      <c r="E706" s="33"/>
-      <c r="G706" s="33"/>
+      <c r="A706" s="41"/>
+      <c r="E706" s="42"/>
+      <c r="G706" s="42"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="32"/>
-      <c r="E707" s="33"/>
-      <c r="G707" s="33"/>
+      <c r="A707" s="41"/>
+      <c r="E707" s="42"/>
+      <c r="G707" s="42"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="32"/>
-      <c r="E708" s="33"/>
-      <c r="G708" s="33"/>
+      <c r="A708" s="41"/>
+      <c r="E708" s="42"/>
+      <c r="G708" s="42"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="32"/>
-      <c r="E709" s="33"/>
-      <c r="G709" s="33"/>
+      <c r="A709" s="41"/>
+      <c r="E709" s="42"/>
+      <c r="G709" s="42"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="32"/>
-      <c r="E710" s="33"/>
-      <c r="G710" s="33"/>
+      <c r="A710" s="41"/>
+      <c r="E710" s="42"/>
+      <c r="G710" s="42"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="32"/>
-      <c r="E711" s="33"/>
-      <c r="G711" s="33"/>
+      <c r="A711" s="41"/>
+      <c r="E711" s="42"/>
+      <c r="G711" s="42"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="32"/>
-      <c r="E712" s="33"/>
-      <c r="G712" s="33"/>
+      <c r="A712" s="41"/>
+      <c r="E712" s="42"/>
+      <c r="G712" s="42"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="32"/>
-      <c r="E713" s="33"/>
-      <c r="G713" s="33"/>
+      <c r="A713" s="41"/>
+      <c r="E713" s="42"/>
+      <c r="G713" s="42"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="32"/>
-      <c r="E714" s="33"/>
-      <c r="G714" s="33"/>
+      <c r="A714" s="41"/>
+      <c r="E714" s="42"/>
+      <c r="G714" s="42"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="32"/>
-      <c r="E715" s="33"/>
-      <c r="G715" s="33"/>
+      <c r="A715" s="41"/>
+      <c r="E715" s="42"/>
+      <c r="G715" s="42"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="32"/>
-      <c r="E716" s="33"/>
-      <c r="G716" s="33"/>
+      <c r="A716" s="41"/>
+      <c r="E716" s="42"/>
+      <c r="G716" s="42"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="32"/>
-      <c r="E717" s="33"/>
-      <c r="G717" s="33"/>
+      <c r="A717" s="41"/>
+      <c r="E717" s="42"/>
+      <c r="G717" s="42"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="32"/>
-      <c r="E718" s="33"/>
-      <c r="G718" s="33"/>
+      <c r="A718" s="41"/>
+      <c r="E718" s="42"/>
+      <c r="G718" s="42"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="32"/>
-      <c r="E719" s="33"/>
-      <c r="G719" s="33"/>
+      <c r="A719" s="41"/>
+      <c r="E719" s="42"/>
+      <c r="G719" s="42"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="32"/>
-      <c r="E720" s="33"/>
-      <c r="G720" s="33"/>
+      <c r="A720" s="41"/>
+      <c r="E720" s="42"/>
+      <c r="G720" s="42"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="32"/>
-      <c r="E721" s="33"/>
-      <c r="G721" s="33"/>
+      <c r="A721" s="41"/>
+      <c r="E721" s="42"/>
+      <c r="G721" s="42"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="32"/>
-      <c r="E722" s="33"/>
-      <c r="G722" s="33"/>
+      <c r="A722" s="41"/>
+      <c r="E722" s="42"/>
+      <c r="G722" s="42"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="32"/>
-      <c r="E723" s="33"/>
-      <c r="G723" s="33"/>
+      <c r="A723" s="41"/>
+      <c r="E723" s="42"/>
+      <c r="G723" s="42"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="32"/>
-      <c r="E724" s="33"/>
-      <c r="G724" s="33"/>
+      <c r="A724" s="41"/>
+      <c r="E724" s="42"/>
+      <c r="G724" s="42"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="32"/>
-      <c r="E725" s="33"/>
-      <c r="G725" s="33"/>
+      <c r="A725" s="41"/>
+      <c r="E725" s="42"/>
+      <c r="G725" s="42"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="32"/>
-      <c r="E726" s="33"/>
-      <c r="G726" s="33"/>
+      <c r="A726" s="41"/>
+      <c r="E726" s="42"/>
+      <c r="G726" s="42"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="32"/>
-      <c r="E727" s="33"/>
-      <c r="G727" s="33"/>
+      <c r="A727" s="41"/>
+      <c r="E727" s="42"/>
+      <c r="G727" s="42"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="32"/>
-      <c r="E728" s="33"/>
-      <c r="G728" s="33"/>
+      <c r="A728" s="41"/>
+      <c r="E728" s="42"/>
+      <c r="G728" s="42"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="32"/>
-      <c r="E729" s="33"/>
-      <c r="G729" s="33"/>
+      <c r="A729" s="41"/>
+      <c r="E729" s="42"/>
+      <c r="G729" s="42"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="32"/>
-      <c r="E730" s="33"/>
-      <c r="G730" s="33"/>
+      <c r="A730" s="41"/>
+      <c r="E730" s="42"/>
+      <c r="G730" s="42"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="32"/>
-      <c r="E731" s="33"/>
-      <c r="G731" s="33"/>
+      <c r="A731" s="41"/>
+      <c r="E731" s="42"/>
+      <c r="G731" s="42"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="32"/>
-      <c r="E732" s="33"/>
-      <c r="G732" s="33"/>
+      <c r="A732" s="41"/>
+      <c r="E732" s="42"/>
+      <c r="G732" s="42"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="32"/>
-      <c r="E733" s="33"/>
-      <c r="G733" s="33"/>
+      <c r="A733" s="41"/>
+      <c r="E733" s="42"/>
+      <c r="G733" s="42"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="32"/>
-      <c r="E734" s="33"/>
-      <c r="G734" s="33"/>
+      <c r="A734" s="41"/>
+      <c r="E734" s="42"/>
+      <c r="G734" s="42"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="32"/>
-      <c r="E735" s="33"/>
-      <c r="G735" s="33"/>
+      <c r="A735" s="41"/>
+      <c r="E735" s="42"/>
+      <c r="G735" s="42"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="32"/>
-      <c r="E736" s="33"/>
-      <c r="G736" s="33"/>
+      <c r="A736" s="41"/>
+      <c r="E736" s="42"/>
+      <c r="G736" s="42"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="32"/>
-      <c r="E737" s="33"/>
-      <c r="G737" s="33"/>
+      <c r="A737" s="41"/>
+      <c r="E737" s="42"/>
+      <c r="G737" s="42"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="32"/>
-      <c r="E738" s="33"/>
-      <c r="G738" s="33"/>
+      <c r="A738" s="41"/>
+      <c r="E738" s="42"/>
+      <c r="G738" s="42"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="32"/>
-      <c r="E739" s="33"/>
-      <c r="G739" s="33"/>
+      <c r="A739" s="41"/>
+      <c r="E739" s="42"/>
+      <c r="G739" s="42"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="32"/>
-      <c r="E740" s="33"/>
-      <c r="G740" s="33"/>
+      <c r="A740" s="41"/>
+      <c r="E740" s="42"/>
+      <c r="G740" s="42"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="32"/>
-      <c r="E741" s="33"/>
-      <c r="G741" s="33"/>
+      <c r="A741" s="41"/>
+      <c r="E741" s="42"/>
+      <c r="G741" s="42"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="32"/>
-      <c r="E742" s="33"/>
-      <c r="G742" s="33"/>
+      <c r="A742" s="41"/>
+      <c r="E742" s="42"/>
+      <c r="G742" s="42"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="32"/>
-      <c r="E743" s="33"/>
-      <c r="G743" s="33"/>
+      <c r="A743" s="41"/>
+      <c r="E743" s="42"/>
+      <c r="G743" s="42"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="32"/>
-      <c r="E744" s="33"/>
-      <c r="G744" s="33"/>
+      <c r="A744" s="41"/>
+      <c r="E744" s="42"/>
+      <c r="G744" s="42"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="32"/>
-      <c r="E745" s="33"/>
-      <c r="G745" s="33"/>
+      <c r="A745" s="41"/>
+      <c r="E745" s="42"/>
+      <c r="G745" s="42"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="32"/>
-      <c r="E746" s="33"/>
-      <c r="G746" s="33"/>
+      <c r="A746" s="41"/>
+      <c r="E746" s="42"/>
+      <c r="G746" s="42"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="32"/>
-      <c r="E747" s="33"/>
-      <c r="G747" s="33"/>
+      <c r="A747" s="41"/>
+      <c r="E747" s="42"/>
+      <c r="G747" s="42"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="32"/>
-      <c r="E748" s="33"/>
-      <c r="G748" s="33"/>
+      <c r="A748" s="41"/>
+      <c r="E748" s="42"/>
+      <c r="G748" s="42"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="32"/>
-      <c r="E749" s="33"/>
-      <c r="G749" s="33"/>
+      <c r="A749" s="41"/>
+      <c r="E749" s="42"/>
+      <c r="G749" s="42"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="32"/>
-      <c r="E750" s="33"/>
-      <c r="G750" s="33"/>
+      <c r="A750" s="41"/>
+      <c r="E750" s="42"/>
+      <c r="G750" s="42"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="32"/>
-      <c r="E751" s="33"/>
-      <c r="G751" s="33"/>
+      <c r="A751" s="41"/>
+      <c r="E751" s="42"/>
+      <c r="G751" s="42"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="32"/>
-      <c r="E752" s="33"/>
-      <c r="G752" s="33"/>
+      <c r="A752" s="41"/>
+      <c r="E752" s="42"/>
+      <c r="G752" s="42"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="32"/>
-      <c r="E753" s="33"/>
-      <c r="G753" s="33"/>
+      <c r="A753" s="41"/>
+      <c r="E753" s="42"/>
+      <c r="G753" s="42"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="32"/>
-      <c r="E754" s="33"/>
-      <c r="G754" s="33"/>
+      <c r="A754" s="41"/>
+      <c r="E754" s="42"/>
+      <c r="G754" s="42"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="32"/>
-      <c r="E755" s="33"/>
-      <c r="G755" s="33"/>
+      <c r="A755" s="41"/>
+      <c r="E755" s="42"/>
+      <c r="G755" s="42"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="32"/>
-      <c r="E756" s="33"/>
-      <c r="G756" s="33"/>
+      <c r="A756" s="41"/>
+      <c r="E756" s="42"/>
+      <c r="G756" s="42"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="32"/>
-      <c r="E757" s="33"/>
-      <c r="G757" s="33"/>
+      <c r="A757" s="41"/>
+      <c r="E757" s="42"/>
+      <c r="G757" s="42"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="32"/>
-      <c r="E758" s="33"/>
-      <c r="G758" s="33"/>
+      <c r="A758" s="41"/>
+      <c r="E758" s="42"/>
+      <c r="G758" s="42"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="32"/>
-      <c r="E759" s="33"/>
-      <c r="G759" s="33"/>
+      <c r="A759" s="41"/>
+      <c r="E759" s="42"/>
+      <c r="G759" s="42"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="32"/>
-      <c r="E760" s="33"/>
-      <c r="G760" s="33"/>
+      <c r="A760" s="41"/>
+      <c r="E760" s="42"/>
+      <c r="G760" s="42"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="32"/>
-      <c r="E761" s="33"/>
-      <c r="G761" s="33"/>
+      <c r="A761" s="41"/>
+      <c r="E761" s="42"/>
+      <c r="G761" s="42"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="32"/>
-      <c r="E762" s="33"/>
-      <c r="G762" s="33"/>
+      <c r="A762" s="41"/>
+      <c r="E762" s="42"/>
+      <c r="G762" s="42"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="32"/>
-      <c r="E763" s="33"/>
-      <c r="G763" s="33"/>
+      <c r="A763" s="41"/>
+      <c r="E763" s="42"/>
+      <c r="G763" s="42"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="32"/>
-      <c r="E764" s="33"/>
-      <c r="G764" s="33"/>
+      <c r="A764" s="41"/>
+      <c r="E764" s="42"/>
+      <c r="G764" s="42"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="32"/>
-      <c r="E765" s="33"/>
-      <c r="G765" s="33"/>
+      <c r="A765" s="41"/>
+      <c r="E765" s="42"/>
+      <c r="G765" s="42"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="32"/>
-      <c r="E766" s="33"/>
-      <c r="G766" s="33"/>
+      <c r="A766" s="41"/>
+      <c r="E766" s="42"/>
+      <c r="G766" s="42"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="32"/>
-      <c r="E767" s="33"/>
-      <c r="G767" s="33"/>
+      <c r="A767" s="41"/>
+      <c r="E767" s="42"/>
+      <c r="G767" s="42"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="32"/>
-      <c r="E768" s="33"/>
-      <c r="G768" s="33"/>
+      <c r="A768" s="41"/>
+      <c r="E768" s="42"/>
+      <c r="G768" s="42"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="32"/>
-      <c r="E769" s="33"/>
-      <c r="G769" s="33"/>
+      <c r="A769" s="41"/>
+      <c r="E769" s="42"/>
+      <c r="G769" s="42"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="32"/>
-      <c r="E770" s="33"/>
-      <c r="G770" s="33"/>
+      <c r="A770" s="41"/>
+      <c r="E770" s="42"/>
+      <c r="G770" s="42"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="32"/>
-      <c r="E771" s="33"/>
-      <c r="G771" s="33"/>
+      <c r="A771" s="41"/>
+      <c r="E771" s="42"/>
+      <c r="G771" s="42"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="32"/>
-      <c r="E772" s="33"/>
-      <c r="G772" s="33"/>
+      <c r="A772" s="41"/>
+      <c r="E772" s="42"/>
+      <c r="G772" s="42"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="32"/>
-      <c r="E773" s="33"/>
-      <c r="G773" s="33"/>
+      <c r="A773" s="41"/>
+      <c r="E773" s="42"/>
+      <c r="G773" s="42"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="32"/>
-      <c r="E774" s="33"/>
-      <c r="G774" s="33"/>
+      <c r="A774" s="41"/>
+      <c r="E774" s="42"/>
+      <c r="G774" s="42"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="32"/>
-      <c r="E775" s="33"/>
-      <c r="G775" s="33"/>
+      <c r="A775" s="41"/>
+      <c r="E775" s="42"/>
+      <c r="G775" s="42"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="32"/>
-      <c r="E776" s="33"/>
-      <c r="G776" s="33"/>
+      <c r="A776" s="41"/>
+      <c r="E776" s="42"/>
+      <c r="G776" s="42"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="32"/>
-      <c r="E777" s="33"/>
-      <c r="G777" s="33"/>
+      <c r="A777" s="41"/>
+      <c r="E777" s="42"/>
+      <c r="G777" s="42"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="32"/>
-      <c r="E778" s="33"/>
-      <c r="G778" s="33"/>
+      <c r="A778" s="41"/>
+      <c r="E778" s="42"/>
+      <c r="G778" s="42"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="32"/>
-      <c r="E779" s="33"/>
-      <c r="G779" s="33"/>
+      <c r="A779" s="41"/>
+      <c r="E779" s="42"/>
+      <c r="G779" s="42"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="32"/>
-      <c r="E780" s="33"/>
-      <c r="G780" s="33"/>
+      <c r="A780" s="41"/>
+      <c r="E780" s="42"/>
+      <c r="G780" s="42"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="32"/>
-      <c r="E781" s="33"/>
-      <c r="G781" s="33"/>
+      <c r="A781" s="41"/>
+      <c r="E781" s="42"/>
+      <c r="G781" s="42"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="32"/>
-      <c r="E782" s="33"/>
-      <c r="G782" s="33"/>
+      <c r="A782" s="41"/>
+      <c r="E782" s="42"/>
+      <c r="G782" s="42"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="32"/>
-      <c r="E783" s="33"/>
-      <c r="G783" s="33"/>
+      <c r="A783" s="41"/>
+      <c r="E783" s="42"/>
+      <c r="G783" s="42"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="32"/>
-      <c r="E784" s="33"/>
-      <c r="G784" s="33"/>
+      <c r="A784" s="41"/>
+      <c r="E784" s="42"/>
+      <c r="G784" s="42"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="32"/>
-      <c r="E785" s="33"/>
-      <c r="G785" s="33"/>
+      <c r="A785" s="41"/>
+      <c r="E785" s="42"/>
+      <c r="G785" s="42"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="32"/>
-      <c r="E786" s="33"/>
-      <c r="G786" s="33"/>
+      <c r="A786" s="41"/>
+      <c r="E786" s="42"/>
+      <c r="G786" s="42"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="32"/>
-      <c r="E787" s="33"/>
-      <c r="G787" s="33"/>
+      <c r="A787" s="41"/>
+      <c r="E787" s="42"/>
+      <c r="G787" s="42"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="32"/>
-      <c r="E788" s="33"/>
-      <c r="G788" s="33"/>
+      <c r="A788" s="41"/>
+      <c r="E788" s="42"/>
+      <c r="G788" s="42"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="32"/>
-      <c r="E789" s="33"/>
-      <c r="G789" s="33"/>
+      <c r="A789" s="41"/>
+      <c r="E789" s="42"/>
+      <c r="G789" s="42"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="32"/>
-      <c r="E790" s="33"/>
-      <c r="G790" s="33"/>
+      <c r="A790" s="41"/>
+      <c r="E790" s="42"/>
+      <c r="G790" s="42"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="32"/>
-      <c r="E791" s="33"/>
-      <c r="G791" s="33"/>
+      <c r="A791" s="41"/>
+      <c r="E791" s="42"/>
+      <c r="G791" s="42"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="32"/>
-      <c r="E792" s="33"/>
-      <c r="G792" s="33"/>
+      <c r="A792" s="41"/>
+      <c r="E792" s="42"/>
+      <c r="G792" s="42"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="32"/>
-      <c r="E793" s="33"/>
-      <c r="G793" s="33"/>
+      <c r="A793" s="41"/>
+      <c r="E793" s="42"/>
+      <c r="G793" s="42"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="32"/>
-      <c r="E794" s="33"/>
-      <c r="G794" s="33"/>
+      <c r="A794" s="41"/>
+      <c r="E794" s="42"/>
+      <c r="G794" s="42"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="32"/>
-      <c r="E795" s="33"/>
-      <c r="G795" s="33"/>
+      <c r="A795" s="41"/>
+      <c r="E795" s="42"/>
+      <c r="G795" s="42"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="32"/>
-      <c r="E796" s="33"/>
-      <c r="G796" s="33"/>
+      <c r="A796" s="41"/>
+      <c r="E796" s="42"/>
+      <c r="G796" s="42"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="32"/>
-      <c r="E797" s="33"/>
-      <c r="G797" s="33"/>
+      <c r="A797" s="41"/>
+      <c r="E797" s="42"/>
+      <c r="G797" s="42"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="32"/>
-      <c r="E798" s="33"/>
-      <c r="G798" s="33"/>
+      <c r="A798" s="41"/>
+      <c r="E798" s="42"/>
+      <c r="G798" s="42"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="32"/>
-      <c r="E799" s="33"/>
-      <c r="G799" s="33"/>
+      <c r="A799" s="41"/>
+      <c r="E799" s="42"/>
+      <c r="G799" s="42"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="32"/>
-      <c r="E800" s="33"/>
-      <c r="G800" s="33"/>
+      <c r="A800" s="41"/>
+      <c r="E800" s="42"/>
+      <c r="G800" s="42"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="32"/>
-      <c r="E801" s="33"/>
-      <c r="G801" s="33"/>
+      <c r="A801" s="41"/>
+      <c r="E801" s="42"/>
+      <c r="G801" s="42"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="32"/>
-      <c r="E802" s="33"/>
-      <c r="G802" s="33"/>
+      <c r="A802" s="41"/>
+      <c r="E802" s="42"/>
+      <c r="G802" s="42"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="32"/>
-      <c r="E803" s="33"/>
-      <c r="G803" s="33"/>
+      <c r="A803" s="41"/>
+      <c r="E803" s="42"/>
+      <c r="G803" s="42"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="32"/>
-      <c r="E804" s="33"/>
-      <c r="G804" s="33"/>
+      <c r="A804" s="41"/>
+      <c r="E804" s="42"/>
+      <c r="G804" s="42"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="32"/>
-      <c r="E805" s="33"/>
-      <c r="G805" s="33"/>
+      <c r="A805" s="41"/>
+      <c r="E805" s="42"/>
+      <c r="G805" s="42"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="32"/>
-      <c r="E806" s="33"/>
-      <c r="G806" s="33"/>
+      <c r="A806" s="41"/>
+      <c r="E806" s="42"/>
+      <c r="G806" s="42"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="32"/>
-      <c r="E807" s="33"/>
-      <c r="G807" s="33"/>
+      <c r="A807" s="41"/>
+      <c r="E807" s="42"/>
+      <c r="G807" s="42"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="32"/>
-      <c r="E808" s="33"/>
-      <c r="G808" s="33"/>
+      <c r="A808" s="41"/>
+      <c r="E808" s="42"/>
+      <c r="G808" s="42"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="32"/>
-      <c r="E809" s="33"/>
-      <c r="G809" s="33"/>
+      <c r="A809" s="41"/>
+      <c r="E809" s="42"/>
+      <c r="G809" s="42"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="32"/>
-      <c r="E810" s="33"/>
-      <c r="G810" s="33"/>
+      <c r="A810" s="41"/>
+      <c r="E810" s="42"/>
+      <c r="G810" s="42"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="32"/>
-      <c r="E811" s="33"/>
-      <c r="G811" s="33"/>
+      <c r="A811" s="41"/>
+      <c r="E811" s="42"/>
+      <c r="G811" s="42"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="32"/>
-      <c r="E812" s="33"/>
-      <c r="G812" s="33"/>
+      <c r="A812" s="41"/>
+      <c r="E812" s="42"/>
+      <c r="G812" s="42"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="32"/>
-      <c r="E813" s="33"/>
-      <c r="G813" s="33"/>
+      <c r="A813" s="41"/>
+      <c r="E813" s="42"/>
+      <c r="G813" s="42"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="32"/>
-      <c r="E814" s="33"/>
-      <c r="G814" s="33"/>
+      <c r="A814" s="41"/>
+      <c r="E814" s="42"/>
+      <c r="G814" s="42"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="32"/>
-      <c r="E815" s="33"/>
-      <c r="G815" s="33"/>
+      <c r="A815" s="41"/>
+      <c r="E815" s="42"/>
+      <c r="G815" s="42"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="32"/>
-      <c r="E816" s="33"/>
-      <c r="G816" s="33"/>
+      <c r="A816" s="41"/>
+      <c r="E816" s="42"/>
+      <c r="G816" s="42"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="32"/>
-      <c r="E817" s="33"/>
-      <c r="G817" s="33"/>
+      <c r="A817" s="41"/>
+      <c r="E817" s="42"/>
+      <c r="G817" s="42"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="32"/>
-      <c r="E818" s="33"/>
-      <c r="G818" s="33"/>
+      <c r="A818" s="41"/>
+      <c r="E818" s="42"/>
+      <c r="G818" s="42"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="32"/>
-      <c r="E819" s="33"/>
-      <c r="G819" s="33"/>
+      <c r="A819" s="41"/>
+      <c r="E819" s="42"/>
+      <c r="G819" s="42"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="32"/>
-      <c r="E820" s="33"/>
-      <c r="G820" s="33"/>
+      <c r="A820" s="41"/>
+      <c r="E820" s="42"/>
+      <c r="G820" s="42"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="32"/>
-      <c r="E821" s="33"/>
-      <c r="G821" s="33"/>
+      <c r="A821" s="41"/>
+      <c r="E821" s="42"/>
+      <c r="G821" s="42"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="32"/>
-      <c r="E822" s="33"/>
-      <c r="G822" s="33"/>
+      <c r="A822" s="41"/>
+      <c r="E822" s="42"/>
+      <c r="G822" s="42"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="32"/>
-      <c r="E823" s="33"/>
-      <c r="G823" s="33"/>
+      <c r="A823" s="41"/>
+      <c r="E823" s="42"/>
+      <c r="G823" s="42"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="32"/>
-      <c r="E824" s="33"/>
-      <c r="G824" s="33"/>
+      <c r="A824" s="41"/>
+      <c r="E824" s="42"/>
+      <c r="G824" s="42"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="32"/>
-      <c r="E825" s="33"/>
-      <c r="G825" s="33"/>
+      <c r="A825" s="41"/>
+      <c r="E825" s="42"/>
+      <c r="G825" s="42"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="32"/>
-      <c r="E826" s="33"/>
-      <c r="G826" s="33"/>
+      <c r="A826" s="41"/>
+      <c r="E826" s="42"/>
+      <c r="G826" s="42"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="32"/>
-      <c r="E827" s="33"/>
-      <c r="G827" s="33"/>
+      <c r="A827" s="41"/>
+      <c r="E827" s="42"/>
+      <c r="G827" s="42"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="32"/>
-      <c r="E828" s="33"/>
-      <c r="G828" s="33"/>
+      <c r="A828" s="41"/>
+      <c r="E828" s="42"/>
+      <c r="G828" s="42"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="32"/>
-      <c r="E829" s="33"/>
-      <c r="G829" s="33"/>
+      <c r="A829" s="41"/>
+      <c r="E829" s="42"/>
+      <c r="G829" s="42"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="32"/>
-      <c r="E830" s="33"/>
-      <c r="G830" s="33"/>
+      <c r="A830" s="41"/>
+      <c r="E830" s="42"/>
+      <c r="G830" s="42"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="32"/>
-      <c r="E831" s="33"/>
-      <c r="G831" s="33"/>
+      <c r="A831" s="41"/>
+      <c r="E831" s="42"/>
+      <c r="G831" s="42"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="32"/>
-      <c r="E832" s="33"/>
-      <c r="G832" s="33"/>
+      <c r="A832" s="41"/>
+      <c r="E832" s="42"/>
+      <c r="G832" s="42"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="32"/>
-      <c r="E833" s="33"/>
-      <c r="G833" s="33"/>
+      <c r="A833" s="41"/>
+      <c r="E833" s="42"/>
+      <c r="G833" s="42"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="32"/>
-      <c r="E834" s="33"/>
-      <c r="G834" s="33"/>
+      <c r="A834" s="41"/>
+      <c r="E834" s="42"/>
+      <c r="G834" s="42"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="32"/>
-      <c r="E835" s="33"/>
-      <c r="G835" s="33"/>
+      <c r="A835" s="41"/>
+      <c r="E835" s="42"/>
+      <c r="G835" s="42"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="32"/>
-      <c r="E836" s="33"/>
-      <c r="G836" s="33"/>
+      <c r="A836" s="41"/>
+      <c r="E836" s="42"/>
+      <c r="G836" s="42"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="32"/>
-      <c r="E837" s="33"/>
-      <c r="G837" s="33"/>
+      <c r="A837" s="41"/>
+      <c r="E837" s="42"/>
+      <c r="G837" s="42"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="32"/>
-      <c r="E838" s="33"/>
-      <c r="G838" s="33"/>
+      <c r="A838" s="41"/>
+      <c r="E838" s="42"/>
+      <c r="G838" s="42"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="32"/>
-      <c r="E839" s="33"/>
-      <c r="G839" s="33"/>
+      <c r="A839" s="41"/>
+      <c r="E839" s="42"/>
+      <c r="G839" s="42"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="32"/>
-      <c r="E840" s="33"/>
-      <c r="G840" s="33"/>
+      <c r="A840" s="41"/>
+      <c r="E840" s="42"/>
+      <c r="G840" s="42"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="32"/>
-      <c r="E841" s="33"/>
-      <c r="G841" s="33"/>
+      <c r="A841" s="41"/>
+      <c r="E841" s="42"/>
+      <c r="G841" s="42"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="32"/>
-      <c r="E842" s="33"/>
-      <c r="G842" s="33"/>
+      <c r="A842" s="41"/>
+      <c r="E842" s="42"/>
+      <c r="G842" s="42"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="32"/>
-      <c r="E843" s="33"/>
-      <c r="G843" s="33"/>
+      <c r="A843" s="41"/>
+      <c r="E843" s="42"/>
+      <c r="G843" s="42"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="32"/>
-      <c r="E844" s="33"/>
-      <c r="G844" s="33"/>
+      <c r="A844" s="41"/>
+      <c r="E844" s="42"/>
+      <c r="G844" s="42"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="32"/>
-      <c r="E845" s="33"/>
-      <c r="G845" s="33"/>
+      <c r="A845" s="41"/>
+      <c r="E845" s="42"/>
+      <c r="G845" s="42"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="32"/>
-      <c r="E846" s="33"/>
-      <c r="G846" s="33"/>
+      <c r="A846" s="41"/>
+      <c r="E846" s="42"/>
+      <c r="G846" s="42"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="32"/>
-      <c r="E847" s="33"/>
-      <c r="G847" s="33"/>
+      <c r="A847" s="41"/>
+      <c r="E847" s="42"/>
+      <c r="G847" s="42"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="32"/>
-      <c r="E848" s="33"/>
-      <c r="G848" s="33"/>
+      <c r="A848" s="41"/>
+      <c r="E848" s="42"/>
+      <c r="G848" s="42"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="32"/>
-      <c r="E849" s="33"/>
-      <c r="G849" s="33"/>
+      <c r="A849" s="41"/>
+      <c r="E849" s="42"/>
+      <c r="G849" s="42"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="32"/>
-      <c r="E850" s="33"/>
-      <c r="G850" s="33"/>
+      <c r="A850" s="41"/>
+      <c r="E850" s="42"/>
+      <c r="G850" s="42"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="32"/>
-      <c r="E851" s="33"/>
-      <c r="G851" s="33"/>
+      <c r="A851" s="41"/>
+      <c r="E851" s="42"/>
+      <c r="G851" s="42"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="32"/>
-      <c r="E852" s="33"/>
-      <c r="G852" s="33"/>
+      <c r="A852" s="41"/>
+      <c r="E852" s="42"/>
+      <c r="G852" s="42"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="32"/>
-      <c r="E853" s="33"/>
-      <c r="G853" s="33"/>
+      <c r="A853" s="41"/>
+      <c r="E853" s="42"/>
+      <c r="G853" s="42"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="32"/>
-      <c r="E854" s="33"/>
-      <c r="G854" s="33"/>
+      <c r="A854" s="41"/>
+      <c r="E854" s="42"/>
+      <c r="G854" s="42"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="32"/>
-      <c r="E855" s="33"/>
-      <c r="G855" s="33"/>
+      <c r="A855" s="41"/>
+      <c r="E855" s="42"/>
+      <c r="G855" s="42"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="32"/>
-      <c r="E856" s="33"/>
-      <c r="G856" s="33"/>
+      <c r="A856" s="41"/>
+      <c r="E856" s="42"/>
+      <c r="G856" s="42"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="32"/>
-      <c r="E857" s="33"/>
-      <c r="G857" s="33"/>
+      <c r="A857" s="41"/>
+      <c r="E857" s="42"/>
+      <c r="G857" s="42"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="32"/>
-      <c r="E858" s="33"/>
-      <c r="G858" s="33"/>
+      <c r="A858" s="41"/>
+      <c r="E858" s="42"/>
+      <c r="G858" s="42"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="32"/>
-      <c r="E859" s="33"/>
-      <c r="G859" s="33"/>
+      <c r="A859" s="41"/>
+      <c r="E859" s="42"/>
+      <c r="G859" s="42"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="32"/>
-      <c r="E860" s="33"/>
-      <c r="G860" s="33"/>
+      <c r="A860" s="41"/>
+      <c r="E860" s="42"/>
+      <c r="G860" s="42"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="32"/>
-      <c r="E861" s="33"/>
-      <c r="G861" s="33"/>
+      <c r="A861" s="41"/>
+      <c r="E861" s="42"/>
+      <c r="G861" s="42"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="32"/>
-      <c r="E862" s="33"/>
-      <c r="G862" s="33"/>
+      <c r="A862" s="41"/>
+      <c r="E862" s="42"/>
+      <c r="G862" s="42"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="32"/>
-      <c r="E863" s="33"/>
-      <c r="G863" s="33"/>
+      <c r="A863" s="41"/>
+      <c r="E863" s="42"/>
+      <c r="G863" s="42"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="32"/>
-      <c r="E864" s="33"/>
-      <c r="G864" s="33"/>
+      <c r="A864" s="41"/>
+      <c r="E864" s="42"/>
+      <c r="G864" s="42"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="32"/>
-      <c r="E865" s="33"/>
-      <c r="G865" s="33"/>
+      <c r="A865" s="41"/>
+      <c r="E865" s="42"/>
+      <c r="G865" s="42"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="32"/>
-      <c r="E866" s="33"/>
-      <c r="G866" s="33"/>
+      <c r="A866" s="41"/>
+      <c r="E866" s="42"/>
+      <c r="G866" s="42"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="32"/>
-      <c r="E867" s="33"/>
-      <c r="G867" s="33"/>
+      <c r="A867" s="41"/>
+      <c r="E867" s="42"/>
+      <c r="G867" s="42"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="32"/>
-      <c r="E868" s="33"/>
-      <c r="G868" s="33"/>
+      <c r="A868" s="41"/>
+      <c r="E868" s="42"/>
+      <c r="G868" s="42"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="32"/>
-      <c r="E869" s="33"/>
-      <c r="G869" s="33"/>
+      <c r="A869" s="41"/>
+      <c r="E869" s="42"/>
+      <c r="G869" s="42"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="32"/>
-      <c r="E870" s="33"/>
-      <c r="G870" s="33"/>
+      <c r="A870" s="41"/>
+      <c r="E870" s="42"/>
+      <c r="G870" s="42"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="32"/>
-      <c r="E871" s="33"/>
-      <c r="G871" s="33"/>
+      <c r="A871" s="41"/>
+      <c r="E871" s="42"/>
+      <c r="G871" s="42"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="32"/>
-      <c r="E872" s="33"/>
-      <c r="G872" s="33"/>
+      <c r="A872" s="41"/>
+      <c r="E872" s="42"/>
+      <c r="G872" s="42"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="32"/>
-      <c r="E873" s="33"/>
-      <c r="G873" s="33"/>
+      <c r="A873" s="41"/>
+      <c r="E873" s="42"/>
+      <c r="G873" s="42"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="32"/>
-      <c r="E874" s="33"/>
-      <c r="G874" s="33"/>
+      <c r="A874" s="41"/>
+      <c r="E874" s="42"/>
+      <c r="G874" s="42"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="32"/>
-      <c r="E875" s="33"/>
-      <c r="G875" s="33"/>
+      <c r="A875" s="41"/>
+      <c r="E875" s="42"/>
+      <c r="G875" s="42"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="32"/>
-      <c r="E876" s="33"/>
-      <c r="G876" s="33"/>
+      <c r="A876" s="41"/>
+      <c r="E876" s="42"/>
+      <c r="G876" s="42"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="32"/>
-      <c r="E877" s="33"/>
-      <c r="G877" s="33"/>
+      <c r="A877" s="41"/>
+      <c r="E877" s="42"/>
+      <c r="G877" s="42"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="32"/>
-      <c r="E878" s="33"/>
-      <c r="G878" s="33"/>
+      <c r="A878" s="41"/>
+      <c r="E878" s="42"/>
+      <c r="G878" s="42"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="32"/>
-      <c r="E879" s="33"/>
-      <c r="G879" s="33"/>
+      <c r="A879" s="41"/>
+      <c r="E879" s="42"/>
+      <c r="G879" s="42"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="32"/>
-      <c r="E880" s="33"/>
-      <c r="G880" s="33"/>
+      <c r="A880" s="41"/>
+      <c r="E880" s="42"/>
+      <c r="G880" s="42"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="32"/>
-      <c r="E881" s="33"/>
-      <c r="G881" s="33"/>
+      <c r="A881" s="41"/>
+      <c r="E881" s="42"/>
+      <c r="G881" s="42"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="32"/>
-      <c r="E882" s="33"/>
-      <c r="G882" s="33"/>
+      <c r="A882" s="41"/>
+      <c r="E882" s="42"/>
+      <c r="G882" s="42"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="32"/>
-      <c r="E883" s="33"/>
-      <c r="G883" s="33"/>
+      <c r="A883" s="41"/>
+      <c r="E883" s="42"/>
+      <c r="G883" s="42"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="32"/>
-      <c r="E884" s="33"/>
-      <c r="G884" s="33"/>
+      <c r="A884" s="41"/>
+      <c r="E884" s="42"/>
+      <c r="G884" s="42"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="32"/>
-      <c r="E885" s="33"/>
-      <c r="G885" s="33"/>
+      <c r="A885" s="41"/>
+      <c r="E885" s="42"/>
+      <c r="G885" s="42"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="32"/>
-      <c r="E886" s="33"/>
-      <c r="G886" s="33"/>
+      <c r="A886" s="41"/>
+      <c r="E886" s="42"/>
+      <c r="G886" s="42"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="32"/>
-      <c r="E887" s="33"/>
-      <c r="G887" s="33"/>
+      <c r="A887" s="41"/>
+      <c r="E887" s="42"/>
+      <c r="G887" s="42"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="32"/>
-      <c r="E888" s="33"/>
-      <c r="G888" s="33"/>
+      <c r="A888" s="41"/>
+      <c r="E888" s="42"/>
+      <c r="G888" s="42"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="32"/>
-      <c r="E889" s="33"/>
-      <c r="G889" s="33"/>
+      <c r="A889" s="41"/>
+      <c r="E889" s="42"/>
+      <c r="G889" s="42"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="32"/>
-      <c r="E890" s="33"/>
-      <c r="G890" s="33"/>
+      <c r="A890" s="41"/>
+      <c r="E890" s="42"/>
+      <c r="G890" s="42"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="32"/>
-      <c r="E891" s="33"/>
-      <c r="G891" s="33"/>
+      <c r="A891" s="41"/>
+      <c r="E891" s="42"/>
+      <c r="G891" s="42"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="32"/>
-      <c r="E892" s="33"/>
-      <c r="G892" s="33"/>
+      <c r="A892" s="41"/>
+      <c r="E892" s="42"/>
+      <c r="G892" s="42"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="32"/>
-      <c r="E893" s="33"/>
-      <c r="G893" s="33"/>
+      <c r="A893" s="41"/>
+      <c r="E893" s="42"/>
+      <c r="G893" s="42"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="32"/>
-      <c r="E894" s="33"/>
-      <c r="G894" s="33"/>
+      <c r="A894" s="41"/>
+      <c r="E894" s="42"/>
+      <c r="G894" s="42"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="32"/>
-      <c r="E895" s="33"/>
-      <c r="G895" s="33"/>
+      <c r="A895" s="41"/>
+      <c r="E895" s="42"/>
+      <c r="G895" s="42"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="32"/>
-      <c r="E896" s="33"/>
-      <c r="G896" s="33"/>
+      <c r="A896" s="41"/>
+      <c r="E896" s="42"/>
+      <c r="G896" s="42"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="32"/>
-      <c r="E897" s="33"/>
-      <c r="G897" s="33"/>
+      <c r="A897" s="41"/>
+      <c r="E897" s="42"/>
+      <c r="G897" s="42"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="32"/>
-      <c r="E898" s="33"/>
-      <c r="G898" s="33"/>
+      <c r="A898" s="41"/>
+      <c r="E898" s="42"/>
+      <c r="G898" s="42"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="32"/>
-      <c r="E899" s="33"/>
-      <c r="G899" s="33"/>
+      <c r="A899" s="41"/>
+      <c r="E899" s="42"/>
+      <c r="G899" s="42"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="32"/>
-      <c r="E900" s="33"/>
-      <c r="G900" s="33"/>
+      <c r="A900" s="41"/>
+      <c r="E900" s="42"/>
+      <c r="G900" s="42"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="32"/>
-      <c r="E901" s="33"/>
-      <c r="G901" s="33"/>
+      <c r="A901" s="41"/>
+      <c r="E901" s="42"/>
+      <c r="G901" s="42"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="32"/>
-      <c r="E902" s="33"/>
-      <c r="G902" s="33"/>
+      <c r="A902" s="41"/>
+      <c r="E902" s="42"/>
+      <c r="G902" s="42"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="32"/>
-      <c r="E903" s="33"/>
-      <c r="G903" s="33"/>
+      <c r="A903" s="41"/>
+      <c r="E903" s="42"/>
+      <c r="G903" s="42"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="32"/>
-      <c r="E904" s="33"/>
-      <c r="G904" s="33"/>
+      <c r="A904" s="41"/>
+      <c r="E904" s="42"/>
+      <c r="G904" s="42"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="32"/>
-      <c r="E905" s="33"/>
-      <c r="G905" s="33"/>
+      <c r="A905" s="41"/>
+      <c r="E905" s="42"/>
+      <c r="G905" s="42"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="32"/>
-      <c r="E906" s="33"/>
-      <c r="G906" s="33"/>
+      <c r="A906" s="41"/>
+      <c r="E906" s="42"/>
+      <c r="G906" s="42"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="32"/>
-      <c r="E907" s="33"/>
-      <c r="G907" s="33"/>
+      <c r="A907" s="41"/>
+      <c r="E907" s="42"/>
+      <c r="G907" s="42"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="32"/>
-      <c r="E908" s="33"/>
-      <c r="G908" s="33"/>
+      <c r="A908" s="41"/>
+      <c r="E908" s="42"/>
+      <c r="G908" s="42"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="32"/>
-      <c r="E909" s="33"/>
-      <c r="G909" s="33"/>
+      <c r="A909" s="41"/>
+      <c r="E909" s="42"/>
+      <c r="G909" s="42"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="32"/>
-      <c r="E910" s="33"/>
-      <c r="G910" s="33"/>
+      <c r="A910" s="41"/>
+      <c r="E910" s="42"/>
+      <c r="G910" s="42"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="32"/>
-      <c r="E911" s="33"/>
-      <c r="G911" s="33"/>
+      <c r="A911" s="41"/>
+      <c r="E911" s="42"/>
+      <c r="G911" s="42"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="32"/>
-      <c r="E912" s="33"/>
-      <c r="G912" s="33"/>
+      <c r="A912" s="41"/>
+      <c r="E912" s="42"/>
+      <c r="G912" s="42"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="32"/>
-      <c r="E913" s="33"/>
-      <c r="G913" s="33"/>
+      <c r="A913" s="41"/>
+      <c r="E913" s="42"/>
+      <c r="G913" s="42"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="32"/>
-      <c r="E914" s="33"/>
-      <c r="G914" s="33"/>
+      <c r="A914" s="41"/>
+      <c r="E914" s="42"/>
+      <c r="G914" s="42"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="32"/>
-      <c r="E915" s="33"/>
-      <c r="G915" s="33"/>
+      <c r="A915" s="41"/>
+      <c r="E915" s="42"/>
+      <c r="G915" s="42"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="32"/>
-      <c r="E916" s="33"/>
-      <c r="G916" s="33"/>
+      <c r="A916" s="41"/>
+      <c r="E916" s="42"/>
+      <c r="G916" s="42"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="32"/>
-      <c r="E917" s="33"/>
-      <c r="G917" s="33"/>
+      <c r="A917" s="41"/>
+      <c r="E917" s="42"/>
+      <c r="G917" s="42"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="32"/>
-      <c r="E918" s="33"/>
-      <c r="G918" s="33"/>
+      <c r="A918" s="41"/>
+      <c r="E918" s="42"/>
+      <c r="G918" s="42"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="32"/>
-      <c r="E919" s="33"/>
-      <c r="G919" s="33"/>
+      <c r="A919" s="41"/>
+      <c r="E919" s="42"/>
+      <c r="G919" s="42"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="32"/>
-      <c r="E920" s="33"/>
-      <c r="G920" s="33"/>
+      <c r="A920" s="41"/>
+      <c r="E920" s="42"/>
+      <c r="G920" s="42"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="32"/>
-      <c r="E921" s="33"/>
-      <c r="G921" s="33"/>
+      <c r="A921" s="41"/>
+      <c r="E921" s="42"/>
+      <c r="G921" s="42"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="32"/>
-      <c r="E922" s="33"/>
-      <c r="G922" s="33"/>
+      <c r="A922" s="41"/>
+      <c r="E922" s="42"/>
+      <c r="G922" s="42"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="32"/>
-      <c r="E923" s="33"/>
-      <c r="G923" s="33"/>
+      <c r="A923" s="41"/>
+      <c r="E923" s="42"/>
+      <c r="G923" s="42"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="32"/>
-      <c r="E924" s="33"/>
-      <c r="G924" s="33"/>
+      <c r="A924" s="41"/>
+      <c r="E924" s="42"/>
+      <c r="G924" s="42"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="32"/>
-      <c r="E925" s="33"/>
-      <c r="G925" s="33"/>
+      <c r="A925" s="41"/>
+      <c r="E925" s="42"/>
+      <c r="G925" s="42"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="32"/>
-      <c r="E926" s="33"/>
-      <c r="G926" s="33"/>
+      <c r="A926" s="41"/>
+      <c r="E926" s="42"/>
+      <c r="G926" s="42"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="32"/>
-      <c r="E927" s="33"/>
-      <c r="G927" s="33"/>
+      <c r="A927" s="41"/>
+      <c r="E927" s="42"/>
+      <c r="G927" s="42"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="32"/>
-      <c r="E928" s="33"/>
-      <c r="G928" s="33"/>
+      <c r="A928" s="41"/>
+      <c r="E928" s="42"/>
+      <c r="G928" s="42"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="32"/>
-      <c r="E929" s="33"/>
-      <c r="G929" s="33"/>
+      <c r="A929" s="41"/>
+      <c r="E929" s="42"/>
+      <c r="G929" s="42"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="32"/>
-      <c r="E930" s="33"/>
-      <c r="G930" s="33"/>
+      <c r="A930" s="41"/>
+      <c r="E930" s="42"/>
+      <c r="G930" s="42"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="32"/>
-      <c r="E931" s="33"/>
-      <c r="G931" s="33"/>
+      <c r="A931" s="41"/>
+      <c r="E931" s="42"/>
+      <c r="G931" s="42"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="32"/>
-      <c r="E932" s="33"/>
-      <c r="G932" s="33"/>
+      <c r="A932" s="41"/>
+      <c r="E932" s="42"/>
+      <c r="G932" s="42"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="32"/>
-      <c r="E933" s="33"/>
-      <c r="G933" s="33"/>
+      <c r="A933" s="41"/>
+      <c r="E933" s="42"/>
+      <c r="G933" s="42"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="32"/>
-      <c r="E934" s="33"/>
-      <c r="G934" s="33"/>
+      <c r="A934" s="41"/>
+      <c r="E934" s="42"/>
+      <c r="G934" s="42"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="32"/>
-      <c r="E935" s="33"/>
-      <c r="G935" s="33"/>
+      <c r="A935" s="41"/>
+      <c r="E935" s="42"/>
+      <c r="G935" s="42"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="32"/>
-      <c r="E936" s="33"/>
-      <c r="G936" s="33"/>
+      <c r="A936" s="41"/>
+      <c r="E936" s="42"/>
+      <c r="G936" s="42"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="32"/>
-      <c r="E937" s="33"/>
-      <c r="G937" s="33"/>
+      <c r="A937" s="41"/>
+      <c r="E937" s="42"/>
+      <c r="G937" s="42"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="32"/>
-      <c r="E938" s="33"/>
-      <c r="G938" s="33"/>
+      <c r="A938" s="41"/>
+      <c r="E938" s="42"/>
+      <c r="G938" s="42"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="32"/>
-      <c r="E939" s="33"/>
-      <c r="G939" s="33"/>
+      <c r="A939" s="41"/>
+      <c r="E939" s="42"/>
+      <c r="G939" s="42"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="32"/>
-      <c r="E940" s="33"/>
-      <c r="G940" s="33"/>
+      <c r="A940" s="41"/>
+      <c r="E940" s="42"/>
+      <c r="G940" s="42"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="32"/>
-      <c r="E941" s="33"/>
-      <c r="G941" s="33"/>
+      <c r="A941" s="41"/>
+      <c r="E941" s="42"/>
+      <c r="G941" s="42"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="32"/>
-      <c r="E942" s="33"/>
-      <c r="G942" s="33"/>
+      <c r="A942" s="41"/>
+      <c r="E942" s="42"/>
+      <c r="G942" s="42"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="32"/>
-      <c r="E943" s="33"/>
-      <c r="G943" s="33"/>
+      <c r="A943" s="41"/>
+      <c r="E943" s="42"/>
+      <c r="G943" s="42"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="32"/>
-      <c r="E944" s="33"/>
-      <c r="G944" s="33"/>
+      <c r="A944" s="41"/>
+      <c r="E944" s="42"/>
+      <c r="G944" s="42"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="32"/>
-      <c r="E945" s="33"/>
-      <c r="G945" s="33"/>
+      <c r="A945" s="41"/>
+      <c r="E945" s="42"/>
+      <c r="G945" s="42"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="32"/>
-      <c r="E946" s="33"/>
-      <c r="G946" s="33"/>
+      <c r="A946" s="41"/>
+      <c r="E946" s="42"/>
+      <c r="G946" s="42"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="32"/>
-      <c r="E947" s="33"/>
-      <c r="G947" s="33"/>
+      <c r="A947" s="41"/>
+      <c r="E947" s="42"/>
+      <c r="G947" s="42"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="32"/>
-      <c r="E948" s="33"/>
-      <c r="G948" s="33"/>
+      <c r="A948" s="41"/>
+      <c r="E948" s="42"/>
+      <c r="G948" s="42"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="32"/>
-      <c r="E949" s="33"/>
-      <c r="G949" s="33"/>
+      <c r="A949" s="41"/>
+      <c r="E949" s="42"/>
+      <c r="G949" s="42"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="32"/>
-      <c r="E950" s="33"/>
-      <c r="G950" s="33"/>
+      <c r="A950" s="41"/>
+      <c r="E950" s="42"/>
+      <c r="G950" s="42"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="32"/>
-      <c r="E951" s="33"/>
-      <c r="G951" s="33"/>
+      <c r="A951" s="41"/>
+      <c r="E951" s="42"/>
+      <c r="G951" s="42"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="32"/>
-      <c r="E952" s="33"/>
-      <c r="G952" s="33"/>
+      <c r="A952" s="41"/>
+      <c r="E952" s="42"/>
+      <c r="G952" s="42"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="32"/>
-      <c r="E953" s="33"/>
-      <c r="G953" s="33"/>
+      <c r="A953" s="41"/>
+      <c r="E953" s="42"/>
+      <c r="G953" s="42"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="32"/>
-      <c r="E954" s="33"/>
-      <c r="G954" s="33"/>
+      <c r="A954" s="41"/>
+      <c r="E954" s="42"/>
+      <c r="G954" s="42"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="32"/>
-      <c r="E955" s="33"/>
-      <c r="G955" s="33"/>
+      <c r="A955" s="41"/>
+      <c r="E955" s="42"/>
+      <c r="G955" s="42"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="32"/>
-      <c r="E956" s="33"/>
-      <c r="G956" s="33"/>
+      <c r="A956" s="41"/>
+      <c r="E956" s="42"/>
+      <c r="G956" s="42"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="32"/>
-      <c r="E957" s="33"/>
-      <c r="G957" s="33"/>
+      <c r="A957" s="41"/>
+      <c r="E957" s="42"/>
+      <c r="G957" s="42"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="32"/>
-      <c r="E958" s="33"/>
-      <c r="G958" s="33"/>
+      <c r="A958" s="41"/>
+      <c r="E958" s="42"/>
+      <c r="G958" s="42"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="32"/>
-      <c r="E959" s="33"/>
-      <c r="G959" s="33"/>
+      <c r="A959" s="41"/>
+      <c r="E959" s="42"/>
+      <c r="G959" s="42"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="32"/>
-      <c r="E960" s="33"/>
-      <c r="G960" s="33"/>
+      <c r="A960" s="41"/>
+      <c r="E960" s="42"/>
+      <c r="G960" s="42"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="32"/>
-      <c r="E961" s="33"/>
-      <c r="G961" s="33"/>
+      <c r="A961" s="41"/>
+      <c r="E961" s="42"/>
+      <c r="G961" s="42"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="32"/>
-      <c r="E962" s="33"/>
-      <c r="G962" s="33"/>
+      <c r="A962" s="41"/>
+      <c r="E962" s="42"/>
+      <c r="G962" s="42"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="32"/>
-      <c r="E963" s="33"/>
-      <c r="G963" s="33"/>
+      <c r="A963" s="41"/>
+      <c r="E963" s="42"/>
+      <c r="G963" s="42"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="32"/>
-      <c r="E964" s="33"/>
-      <c r="G964" s="33"/>
+      <c r="A964" s="41"/>
+      <c r="E964" s="42"/>
+      <c r="G964" s="42"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="32"/>
-      <c r="E965" s="33"/>
-      <c r="G965" s="33"/>
+      <c r="A965" s="41"/>
+      <c r="E965" s="42"/>
+      <c r="G965" s="42"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="32"/>
-      <c r="E966" s="33"/>
-      <c r="G966" s="33"/>
+      <c r="A966" s="41"/>
+      <c r="E966" s="42"/>
+      <c r="G966" s="42"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="32"/>
-      <c r="E967" s="33"/>
-      <c r="G967" s="33"/>
+      <c r="A967" s="41"/>
+      <c r="E967" s="42"/>
+      <c r="G967" s="42"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="32"/>
-      <c r="E968" s="33"/>
-      <c r="G968" s="33"/>
+      <c r="A968" s="41"/>
+      <c r="E968" s="42"/>
+      <c r="G968" s="42"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="32"/>
-      <c r="E969" s="33"/>
-      <c r="G969" s="33"/>
+      <c r="A969" s="41"/>
+      <c r="E969" s="42"/>
+      <c r="G969" s="42"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="32"/>
-      <c r="E970" s="33"/>
-      <c r="G970" s="33"/>
+      <c r="A970" s="41"/>
+      <c r="E970" s="42"/>
+      <c r="G970" s="42"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="32"/>
-      <c r="E971" s="33"/>
-      <c r="G971" s="33"/>
+      <c r="A971" s="41"/>
+      <c r="E971" s="42"/>
+      <c r="G971" s="42"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="32"/>
-      <c r="E972" s="33"/>
-      <c r="G972" s="33"/>
+      <c r="A972" s="41"/>
+      <c r="E972" s="42"/>
+      <c r="G972" s="42"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="32"/>
-      <c r="E973" s="33"/>
-      <c r="G973" s="33"/>
+      <c r="A973" s="41"/>
+      <c r="E973" s="42"/>
+      <c r="G973" s="42"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="32"/>
-      <c r="E974" s="33"/>
-      <c r="G974" s="33"/>
+      <c r="A974" s="41"/>
+      <c r="E974" s="42"/>
+      <c r="G974" s="42"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="32"/>
-      <c r="E975" s="33"/>
-      <c r="G975" s="33"/>
+      <c r="A975" s="41"/>
+      <c r="E975" s="42"/>
+      <c r="G975" s="42"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="32"/>
-      <c r="E976" s="33"/>
-      <c r="G976" s="33"/>
+      <c r="A976" s="41"/>
+      <c r="E976" s="42"/>
+      <c r="G976" s="42"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="32"/>
-      <c r="E977" s="33"/>
-      <c r="G977" s="33"/>
+      <c r="A977" s="41"/>
+      <c r="E977" s="42"/>
+      <c r="G977" s="42"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="32"/>
-      <c r="E978" s="33"/>
-      <c r="G978" s="33"/>
+      <c r="A978" s="41"/>
+      <c r="E978" s="42"/>
+      <c r="G978" s="42"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="32"/>
-      <c r="E979" s="33"/>
-      <c r="G979" s="33"/>
+      <c r="A979" s="41"/>
+      <c r="E979" s="42"/>
+      <c r="G979" s="42"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="32"/>
-      <c r="E980" s="33"/>
-      <c r="G980" s="33"/>
+      <c r="A980" s="41"/>
+      <c r="E980" s="42"/>
+      <c r="G980" s="42"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="32"/>
-      <c r="E981" s="33"/>
-      <c r="G981" s="33"/>
+      <c r="A981" s="41"/>
+      <c r="E981" s="42"/>
+      <c r="G981" s="42"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="32"/>
-      <c r="E982" s="33"/>
-      <c r="G982" s="33"/>
+      <c r="A982" s="41"/>
+      <c r="E982" s="42"/>
+      <c r="G982" s="42"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="32"/>
-      <c r="E983" s="33"/>
-      <c r="G983" s="33"/>
+      <c r="A983" s="41"/>
+      <c r="E983" s="42"/>
+      <c r="G983" s="42"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="32"/>
-      <c r="E984" s="33"/>
-      <c r="G984" s="33"/>
+      <c r="A984" s="41"/>
+      <c r="E984" s="42"/>
+      <c r="G984" s="42"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="32"/>
-      <c r="E985" s="33"/>
-      <c r="G985" s="33"/>
+      <c r="A985" s="41"/>
+      <c r="E985" s="42"/>
+      <c r="G985" s="42"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="32"/>
-      <c r="E986" s="33"/>
-      <c r="G986" s="33"/>
+      <c r="A986" s="41"/>
+      <c r="E986" s="42"/>
+      <c r="G986" s="42"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="32"/>
-      <c r="E987" s="33"/>
-      <c r="G987" s="33"/>
+      <c r="A987" s="41"/>
+      <c r="E987" s="42"/>
+      <c r="G987" s="42"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="32"/>
-      <c r="E988" s="33"/>
-      <c r="G988" s="33"/>
+      <c r="A988" s="41"/>
+      <c r="E988" s="42"/>
+      <c r="G988" s="42"/>
     </row>
     <row r="989">
-      <c r="A989" s="32"/>
-      <c r="E989" s="33"/>
-      <c r="G989" s="33"/>
+      <c r="A989" s="41"/>
+      <c r="E989" s="42"/>
+      <c r="G989" s="42"/>
     </row>
     <row r="990">
-      <c r="A990" s="32"/>
-      <c r="E990" s="33"/>
-      <c r="G990" s="33"/>
+      <c r="A990" s="41"/>
+      <c r="E990" s="42"/>
+      <c r="G990" s="42"/>
     </row>
     <row r="991">
-      <c r="A991" s="32"/>
-      <c r="E991" s="33"/>
-      <c r="G991" s="33"/>
+      <c r="A991" s="41"/>
+      <c r="E991" s="42"/>
+      <c r="G991" s="42"/>
     </row>
     <row r="992">
-      <c r="A992" s="32"/>
-      <c r="E992" s="33"/>
-      <c r="G992" s="33"/>
+      <c r="A992" s="41"/>
+      <c r="E992" s="42"/>
+      <c r="G992" s="42"/>
     </row>
     <row r="993">
-      <c r="A993" s="32"/>
-      <c r="E993" s="33"/>
-      <c r="G993" s="33"/>
+      <c r="A993" s="41"/>
+      <c r="E993" s="42"/>
+      <c r="G993" s="42"/>
     </row>
     <row r="994">
-      <c r="A994" s="32"/>
-      <c r="E994" s="33"/>
-      <c r="G994" s="33"/>
+      <c r="A994" s="41"/>
+      <c r="E994" s="42"/>
+      <c r="G994" s="42"/>
     </row>
     <row r="995">
-      <c r="A995" s="32"/>
-      <c r="E995" s="33"/>
-      <c r="G995" s="33"/>
+      <c r="A995" s="41"/>
+      <c r="E995" s="42"/>
+      <c r="G995" s="42"/>
     </row>
     <row r="996">
-      <c r="A996" s="32"/>
-      <c r="E996" s="33"/>
-      <c r="G996" s="33"/>
+      <c r="A996" s="41"/>
+      <c r="E996" s="42"/>
+      <c r="G996" s="42"/>
     </row>
     <row r="997">
-      <c r="A997" s="32"/>
-      <c r="E997" s="33"/>
-      <c r="G997" s="33"/>
+      <c r="A997" s="41"/>
+      <c r="E997" s="42"/>
+      <c r="G997" s="42"/>
     </row>
     <row r="998">
-      <c r="A998" s="32"/>
-      <c r="E998" s="33"/>
-      <c r="G998" s="33"/>
+      <c r="A998" s="41"/>
+      <c r="E998" s="42"/>
+      <c r="G998" s="42"/>
     </row>
     <row r="999">
-      <c r="A999" s="32"/>
-      <c r="E999" s="33"/>
-      <c r="G999" s="33"/>
+      <c r="A999" s="41"/>
+      <c r="E999" s="42"/>
+      <c r="G999" s="42"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -8257,236 +8422,236 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="A1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>61</v>
+      <c r="M1" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="A2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="A3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
+      <c r="A4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="A5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -11,15 +11,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mha5l6Bk6P8Mf6EJ05tE+RjvwFg0Q=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="lzBuKMeag6f9V64czRZjFlN5XGSAV2+hdTok4x/hKKg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,12 @@
   <si>
     <t>CAS_DE_TEST</t>
   </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>IMPARB_ID</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -597,6 +603,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8518,9 +8527,11 @@
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="38"/>
+        <v>78</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>79</v>
+      </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -8538,120 +8549,141 @@
       <c r="Q4" s="38"/>
     </row>
     <row r="5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -12,14 +12,38 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="lzBuKMeag6f9V64czRZjFlN5XGSAV2+hdTok4x/hKKg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="KcvKj/DBCTmk/M/Tge0Nuu2wCQeGzlG1kmol0SD6wDY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D4">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAA2b2aO7E
+Nicolas HUC    (2023-08-09 12:08:13)
+@jean-marc.lafarge-ext@apave.com A vérifier
+_Attribuée à Jean-Marc LAFARGE_</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhQfvIz4kDd6Pz2FywnjwBlq/6rYg=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -193,6 +217,9 @@
   </si>
   <si>
     <t>Code court</t>
+  </si>
+  <si>
+    <t>Saisie dans l'IHM</t>
   </si>
   <si>
     <t>ST_DES</t>
@@ -387,8 +414,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
     <fill>
@@ -1998,7 +2025,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="4" width="24.38"/>
+    <col customWidth="1" min="3" max="3" width="24.38"/>
+    <col customWidth="1" min="4" max="4" width="33.88"/>
     <col customWidth="1" min="5" max="5" width="10.63"/>
     <col customWidth="1" min="6" max="6" width="11.88"/>
     <col customWidth="1" min="7" max="27" width="10.63"/>
@@ -2268,7 +2296,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>30</v>
@@ -2276,7 +2304,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>27</v>
@@ -2293,7 +2321,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>22</v>
@@ -2327,16 +2355,16 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>25</v>
@@ -2364,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>47</v>
@@ -2395,10 +2423,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>36</v>
@@ -2415,10 +2443,10 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>36</v>
@@ -2435,13 +2463,13 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>37</v>
@@ -2452,13 +2480,13 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>37</v>
@@ -3349,7 +3377,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3370,7 +3399,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>21</v>
@@ -3396,7 +3425,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -3408,7 +3437,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -3420,7 +3449,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -3432,7 +3461,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -8450,16 +8479,16 @@
         <v>56</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="45" t="s">
         <v>34</v>
@@ -8471,21 +8500,21 @@
         <v>31</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -8506,7 +8535,7 @@
     </row>
     <row r="3">
       <c r="A3" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -8527,10 +8556,10 @@
     </row>
     <row r="4">
       <c r="A4" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -8550,7 +8579,7 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -8571,7 +8600,7 @@
     </row>
     <row r="6">
       <c r="A6" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>

--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -30,13 +30,21 @@
 ID#AAAA2b2aO7E
 Nicolas HUC    (2023-08-09 12:08:13)
 @jean-marc.lafarge-ext@apave.com A vérifier
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA3j2p_eE
+Jean-Marc LAFARGE    (2023-08-22 09:56:40)
+Tout est saisi dans IMPARB et répercuté sur IMP par trigger:
+IMPARB.ST_CODLON --&gt; IMP.ID_CODIMP
+Pas d'équivalent  ST_CODCOU dans IMP
+@nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhQfvIz4kDd6Pz2FywnjwBlq/6rYg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgqFWh90eVLL5UuPkUw9uX+PeJs1A=="/>
     </ext>
   </extLst>
 </comments>

--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="KcvKj/DBCTmk/M/Tge0Nuu2wCQeGzlG1kmol0SD6wDY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="LecjjHBVgk+24k4G4HLpp9cx1J+b6QugCVvY/EV+PP8="/>
     </ext>
   </extLst>
 </workbook>
@@ -24,34 +24,26 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D4">
+    <comment authorId="0" ref="D20">
       <text>
         <t xml:space="preserve">======
-ID#AAAA2b2aO7E
-Nicolas HUC    (2023-08-09 12:08:13)
-@jean-marc.lafarge-ext@apave.com A vérifier
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA3j2p_eE
-Jean-Marc LAFARGE    (2023-08-22 09:56:40)
-Tout est saisi dans IMPARB et répercuté sur IMP par trigger:
-IMPARB.ST_CODLON --&gt; IMP.ID_CODIMP
-Pas d'équivalent  ST_CODCOU dans IMP
-@nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_</t>
+ID#AAAA4lRxT-g
+Nicolas HUC    (2023-09-05 08:18:38)
+@jean-marc.lafarge-ext@apave.com pas de réponse à cette question ?
+_Attribuée à Jean-Marc LAFARGE_</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgqFWh90eVLL5UuPkUw9uX+PeJs1A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhQHGBbe2iv0fIjstm7GO1PZb1IwA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -125,10 +117,11 @@
     <t>varchar(200)</t>
   </si>
   <si>
-    <t>VOIR MOE: ST_CODIMP = ST_CODLONG ? Qui est saisi ? qui est calculé ?</t>
+    <t>Calculé
+Issu de IMPARB.ST_CODLON</t>
   </si>
   <si>
-    <t>ATTENTE INFO</t>
+    <t>OK</t>
   </si>
   <si>
     <t>ST_NOM</t>
@@ -140,10 +133,8 @@
     <t>varchar(100)</t>
   </si>
   <si>
-    <t>VOIR MOE: ST_NOM = ST_DES ? Qui est saisi ? qui est calculé ?</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Calculé
+Issu de IMPARB.ST_DES</t>
   </si>
   <si>
     <t>ST_DIV</t>
@@ -152,7 +143,8 @@
     <t>Divers</t>
   </si>
   <si>
-    <t>VOIR MOE: Qui est saisi ? qui est calculé ?</t>
+    <t>Calculé
+Issu de IMPARB.ST_DIV</t>
   </si>
   <si>
     <t>ID_CODUTI</t>
@@ -179,6 +171,10 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>Calculé
+Issu de IMPARB.ST_INA</t>
+  </si>
+  <si>
     <t>ID_NUMIMP</t>
   </si>
   <si>
@@ -188,6 +184,10 @@
     <t>numeric</t>
   </si>
   <si>
+    <t>Calculé
+Issu de IMPARB.ID_NUMIMP</t>
+  </si>
+  <si>
     <t>ST_CODPERSIMP</t>
   </si>
   <si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>Calculé
+Issu de IMPARB.ST_CODPERSIMP</t>
   </si>
   <si>
     <t>001A</t>
@@ -227,9 +231,6 @@
     <t>Code court</t>
   </si>
   <si>
-    <t>Saisie dans l'IHM</t>
-  </si>
-  <si>
     <t>ST_DES</t>
   </si>
   <si>
@@ -243,6 +244,9 @@
   </si>
   <si>
     <t>VOIR MOE. A quoi sert cette rubrique ?</t>
+  </si>
+  <si>
+    <t>ATTENTE INFO</t>
   </si>
   <si>
     <t>Code personnalisé imputation</t>
@@ -362,13 +366,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <sz val="8.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -422,12 +426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -442,6 +440,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
     <fill>
@@ -506,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -569,8 +573,11 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -578,16 +585,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -599,7 +600,13 @@
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -611,7 +618,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -627,14 +634,14 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -646,7 +653,7 @@
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2090,7 +2097,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
@@ -2103,125 +2110,125 @@
       <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5">
       <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>30</v>
+      <c r="E6" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="E7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="27" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+      <c r="E8" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+      <c r="D9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="24" t="s">
         <v>47</v>
       </c>
+      <c r="C10" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="D10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>48</v>
+      <c r="A11" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31">
+        <v>51</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30">
         <v>1382.0</v>
       </c>
     </row>
@@ -2229,278 +2236,270 @@
       <c r="A12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>30</v>
+      <c r="D12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>30</v>
+      <c r="D13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>30</v>
+      <c r="D14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>30</v>
+      <c r="D15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>30</v>
+      <c r="B16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>30</v>
+      <c r="D17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
+      <c r="D18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="C19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
+      <c r="D19" s="32"/>
+      <c r="E19" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="B20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>25</v>
+      <c r="C20" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="C21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>30</v>
+      <c r="E21" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>30</v>
+      <c r="D23" s="32"/>
+      <c r="E23" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="E25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>30</v>
+      <c r="B26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>30</v>
+      <c r="D27" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1"/>
@@ -3406,5048 +3405,5048 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>45</v>
+      <c r="H1" s="36" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="A5" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="A8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="A10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="A12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="A14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="A16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="A18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="A32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="A34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="A36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="A37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="A40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="A41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="A42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="A43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="A44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="A45" s="42"/>
+      <c r="E45" s="43"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="A46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="A48" s="42"/>
+      <c r="E48" s="43"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="A50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="A52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="A53" s="42"/>
+      <c r="E53" s="43"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="A54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="E55" s="43"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="A56" s="42"/>
+      <c r="E56" s="43"/>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="A57" s="42"/>
+      <c r="E57" s="43"/>
+      <c r="G57" s="43"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="A58" s="42"/>
+      <c r="E58" s="43"/>
+      <c r="G58" s="43"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="A60" s="42"/>
+      <c r="E60" s="43"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="E61" s="43"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="A62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="G62" s="43"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="G63" s="43"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="A64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="G64" s="43"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="E65" s="43"/>
+      <c r="G65" s="43"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="A66" s="42"/>
+      <c r="E66" s="43"/>
+      <c r="G66" s="43"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="E67" s="43"/>
+      <c r="G67" s="43"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="A68" s="42"/>
+      <c r="E68" s="43"/>
+      <c r="G68" s="43"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="E69" s="43"/>
+      <c r="G69" s="43"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="41"/>
-      <c r="E70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="A70" s="42"/>
+      <c r="E70" s="43"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="41"/>
-      <c r="E71" s="42"/>
-      <c r="G71" s="42"/>
+      <c r="A71" s="42"/>
+      <c r="E71" s="43"/>
+      <c r="G71" s="43"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="41"/>
-      <c r="E72" s="42"/>
-      <c r="G72" s="42"/>
+      <c r="A72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="G72" s="43"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="41"/>
-      <c r="E73" s="42"/>
-      <c r="G73" s="42"/>
+      <c r="A73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="G73" s="43"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="41"/>
-      <c r="E74" s="42"/>
-      <c r="G74" s="42"/>
+      <c r="A74" s="42"/>
+      <c r="E74" s="43"/>
+      <c r="G74" s="43"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="G75" s="42"/>
+      <c r="A75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="G75" s="43"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="G76" s="42"/>
+      <c r="A76" s="42"/>
+      <c r="E76" s="43"/>
+      <c r="G76" s="43"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="41"/>
-      <c r="E77" s="42"/>
-      <c r="G77" s="42"/>
+      <c r="A77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="G77" s="43"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="41"/>
-      <c r="E78" s="42"/>
-      <c r="G78" s="42"/>
+      <c r="A78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="G78" s="43"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="41"/>
-      <c r="E79" s="42"/>
-      <c r="G79" s="42"/>
+      <c r="A79" s="42"/>
+      <c r="E79" s="43"/>
+      <c r="G79" s="43"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="41"/>
-      <c r="E80" s="42"/>
-      <c r="G80" s="42"/>
+      <c r="A80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="G80" s="43"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="41"/>
-      <c r="E81" s="42"/>
-      <c r="G81" s="42"/>
+      <c r="A81" s="42"/>
+      <c r="E81" s="43"/>
+      <c r="G81" s="43"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="41"/>
-      <c r="E82" s="42"/>
-      <c r="G82" s="42"/>
+      <c r="A82" s="42"/>
+      <c r="E82" s="43"/>
+      <c r="G82" s="43"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="41"/>
-      <c r="E83" s="42"/>
-      <c r="G83" s="42"/>
+      <c r="A83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="G83" s="43"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="41"/>
-      <c r="E84" s="42"/>
-      <c r="G84" s="42"/>
+      <c r="A84" s="42"/>
+      <c r="E84" s="43"/>
+      <c r="G84" s="43"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="G85" s="42"/>
+      <c r="A85" s="42"/>
+      <c r="E85" s="43"/>
+      <c r="G85" s="43"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="G86" s="42"/>
+      <c r="A86" s="42"/>
+      <c r="E86" s="43"/>
+      <c r="G86" s="43"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="G87" s="42"/>
+      <c r="A87" s="42"/>
+      <c r="E87" s="43"/>
+      <c r="G87" s="43"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="G88" s="42"/>
+      <c r="A88" s="42"/>
+      <c r="E88" s="43"/>
+      <c r="G88" s="43"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="G89" s="42"/>
+      <c r="A89" s="42"/>
+      <c r="E89" s="43"/>
+      <c r="G89" s="43"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="G90" s="42"/>
+      <c r="A90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="G90" s="43"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="G91" s="42"/>
+      <c r="A91" s="42"/>
+      <c r="E91" s="43"/>
+      <c r="G91" s="43"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="41"/>
-      <c r="E92" s="42"/>
-      <c r="G92" s="42"/>
+      <c r="A92" s="42"/>
+      <c r="E92" s="43"/>
+      <c r="G92" s="43"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="41"/>
-      <c r="E93" s="42"/>
-      <c r="G93" s="42"/>
+      <c r="A93" s="42"/>
+      <c r="E93" s="43"/>
+      <c r="G93" s="43"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="41"/>
-      <c r="E94" s="42"/>
-      <c r="G94" s="42"/>
+      <c r="A94" s="42"/>
+      <c r="E94" s="43"/>
+      <c r="G94" s="43"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="41"/>
-      <c r="E95" s="42"/>
-      <c r="G95" s="42"/>
+      <c r="A95" s="42"/>
+      <c r="E95" s="43"/>
+      <c r="G95" s="43"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="41"/>
-      <c r="E96" s="42"/>
-      <c r="G96" s="42"/>
+      <c r="A96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="G96" s="43"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="41"/>
-      <c r="E97" s="42"/>
-      <c r="G97" s="42"/>
+      <c r="A97" s="42"/>
+      <c r="E97" s="43"/>
+      <c r="G97" s="43"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="41"/>
-      <c r="E98" s="42"/>
-      <c r="G98" s="42"/>
+      <c r="A98" s="42"/>
+      <c r="E98" s="43"/>
+      <c r="G98" s="43"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="41"/>
-      <c r="E99" s="42"/>
-      <c r="G99" s="42"/>
+      <c r="A99" s="42"/>
+      <c r="E99" s="43"/>
+      <c r="G99" s="43"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="41"/>
-      <c r="E100" s="42"/>
-      <c r="G100" s="42"/>
+      <c r="A100" s="42"/>
+      <c r="E100" s="43"/>
+      <c r="G100" s="43"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="41"/>
-      <c r="E101" s="42"/>
-      <c r="G101" s="42"/>
+      <c r="A101" s="42"/>
+      <c r="E101" s="43"/>
+      <c r="G101" s="43"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="41"/>
-      <c r="E102" s="42"/>
-      <c r="G102" s="42"/>
+      <c r="A102" s="42"/>
+      <c r="E102" s="43"/>
+      <c r="G102" s="43"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="41"/>
-      <c r="E103" s="42"/>
-      <c r="G103" s="42"/>
+      <c r="A103" s="42"/>
+      <c r="E103" s="43"/>
+      <c r="G103" s="43"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="41"/>
-      <c r="E104" s="42"/>
-      <c r="G104" s="42"/>
+      <c r="A104" s="42"/>
+      <c r="E104" s="43"/>
+      <c r="G104" s="43"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="41"/>
-      <c r="E105" s="42"/>
-      <c r="G105" s="42"/>
+      <c r="A105" s="42"/>
+      <c r="E105" s="43"/>
+      <c r="G105" s="43"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="41"/>
-      <c r="E106" s="42"/>
-      <c r="G106" s="42"/>
+      <c r="A106" s="42"/>
+      <c r="E106" s="43"/>
+      <c r="G106" s="43"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="41"/>
-      <c r="E107" s="42"/>
-      <c r="G107" s="42"/>
+      <c r="A107" s="42"/>
+      <c r="E107" s="43"/>
+      <c r="G107" s="43"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="41"/>
-      <c r="E108" s="42"/>
-      <c r="G108" s="42"/>
+      <c r="A108" s="42"/>
+      <c r="E108" s="43"/>
+      <c r="G108" s="43"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="41"/>
-      <c r="E109" s="42"/>
-      <c r="G109" s="42"/>
+      <c r="A109" s="42"/>
+      <c r="E109" s="43"/>
+      <c r="G109" s="43"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="41"/>
-      <c r="E110" s="42"/>
-      <c r="G110" s="42"/>
+      <c r="A110" s="42"/>
+      <c r="E110" s="43"/>
+      <c r="G110" s="43"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="41"/>
-      <c r="E111" s="42"/>
-      <c r="G111" s="42"/>
+      <c r="A111" s="42"/>
+      <c r="E111" s="43"/>
+      <c r="G111" s="43"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="41"/>
-      <c r="E112" s="42"/>
-      <c r="G112" s="42"/>
+      <c r="A112" s="42"/>
+      <c r="E112" s="43"/>
+      <c r="G112" s="43"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="41"/>
-      <c r="E113" s="42"/>
-      <c r="G113" s="42"/>
+      <c r="A113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="G113" s="43"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="41"/>
-      <c r="E114" s="42"/>
-      <c r="G114" s="42"/>
+      <c r="A114" s="42"/>
+      <c r="E114" s="43"/>
+      <c r="G114" s="43"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="41"/>
-      <c r="E115" s="42"/>
-      <c r="G115" s="42"/>
+      <c r="A115" s="42"/>
+      <c r="E115" s="43"/>
+      <c r="G115" s="43"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="41"/>
-      <c r="E116" s="42"/>
-      <c r="G116" s="42"/>
+      <c r="A116" s="42"/>
+      <c r="E116" s="43"/>
+      <c r="G116" s="43"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="41"/>
-      <c r="E117" s="42"/>
-      <c r="G117" s="42"/>
+      <c r="A117" s="42"/>
+      <c r="E117" s="43"/>
+      <c r="G117" s="43"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="41"/>
-      <c r="E118" s="42"/>
-      <c r="G118" s="42"/>
+      <c r="A118" s="42"/>
+      <c r="E118" s="43"/>
+      <c r="G118" s="43"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="41"/>
-      <c r="E119" s="42"/>
-      <c r="G119" s="42"/>
+      <c r="A119" s="42"/>
+      <c r="E119" s="43"/>
+      <c r="G119" s="43"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="41"/>
-      <c r="E120" s="42"/>
-      <c r="G120" s="42"/>
+      <c r="A120" s="42"/>
+      <c r="E120" s="43"/>
+      <c r="G120" s="43"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="41"/>
-      <c r="E121" s="42"/>
-      <c r="G121" s="42"/>
+      <c r="A121" s="42"/>
+      <c r="E121" s="43"/>
+      <c r="G121" s="43"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="41"/>
-      <c r="E122" s="42"/>
-      <c r="G122" s="42"/>
+      <c r="A122" s="42"/>
+      <c r="E122" s="43"/>
+      <c r="G122" s="43"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="41"/>
-      <c r="E123" s="42"/>
-      <c r="G123" s="42"/>
+      <c r="A123" s="42"/>
+      <c r="E123" s="43"/>
+      <c r="G123" s="43"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="41"/>
-      <c r="E124" s="42"/>
-      <c r="G124" s="42"/>
+      <c r="A124" s="42"/>
+      <c r="E124" s="43"/>
+      <c r="G124" s="43"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="41"/>
-      <c r="E125" s="42"/>
-      <c r="G125" s="42"/>
+      <c r="A125" s="42"/>
+      <c r="E125" s="43"/>
+      <c r="G125" s="43"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="41"/>
-      <c r="E126" s="42"/>
-      <c r="G126" s="42"/>
+      <c r="A126" s="42"/>
+      <c r="E126" s="43"/>
+      <c r="G126" s="43"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="41"/>
-      <c r="E127" s="42"/>
-      <c r="G127" s="42"/>
+      <c r="A127" s="42"/>
+      <c r="E127" s="43"/>
+      <c r="G127" s="43"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="41"/>
-      <c r="E128" s="42"/>
-      <c r="G128" s="42"/>
+      <c r="A128" s="42"/>
+      <c r="E128" s="43"/>
+      <c r="G128" s="43"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="41"/>
-      <c r="E129" s="42"/>
-      <c r="G129" s="42"/>
+      <c r="A129" s="42"/>
+      <c r="E129" s="43"/>
+      <c r="G129" s="43"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="41"/>
-      <c r="E130" s="42"/>
-      <c r="G130" s="42"/>
+      <c r="A130" s="42"/>
+      <c r="E130" s="43"/>
+      <c r="G130" s="43"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="41"/>
-      <c r="E131" s="42"/>
-      <c r="G131" s="42"/>
+      <c r="A131" s="42"/>
+      <c r="E131" s="43"/>
+      <c r="G131" s="43"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="41"/>
-      <c r="E132" s="42"/>
-      <c r="G132" s="42"/>
+      <c r="A132" s="42"/>
+      <c r="E132" s="43"/>
+      <c r="G132" s="43"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="41"/>
-      <c r="E133" s="42"/>
-      <c r="G133" s="42"/>
+      <c r="A133" s="42"/>
+      <c r="E133" s="43"/>
+      <c r="G133" s="43"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="41"/>
-      <c r="E134" s="42"/>
-      <c r="G134" s="42"/>
+      <c r="A134" s="42"/>
+      <c r="E134" s="43"/>
+      <c r="G134" s="43"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="41"/>
-      <c r="E135" s="42"/>
-      <c r="G135" s="42"/>
+      <c r="A135" s="42"/>
+      <c r="E135" s="43"/>
+      <c r="G135" s="43"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="41"/>
-      <c r="E136" s="42"/>
-      <c r="G136" s="42"/>
+      <c r="A136" s="42"/>
+      <c r="E136" s="43"/>
+      <c r="G136" s="43"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="41"/>
-      <c r="E137" s="42"/>
-      <c r="G137" s="42"/>
+      <c r="A137" s="42"/>
+      <c r="E137" s="43"/>
+      <c r="G137" s="43"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="41"/>
-      <c r="E138" s="42"/>
-      <c r="G138" s="42"/>
+      <c r="A138" s="42"/>
+      <c r="E138" s="43"/>
+      <c r="G138" s="43"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="41"/>
-      <c r="E139" s="42"/>
-      <c r="G139" s="42"/>
+      <c r="A139" s="42"/>
+      <c r="E139" s="43"/>
+      <c r="G139" s="43"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="41"/>
-      <c r="E140" s="42"/>
-      <c r="G140" s="42"/>
+      <c r="A140" s="42"/>
+      <c r="E140" s="43"/>
+      <c r="G140" s="43"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="41"/>
-      <c r="E141" s="42"/>
-      <c r="G141" s="42"/>
+      <c r="A141" s="42"/>
+      <c r="E141" s="43"/>
+      <c r="G141" s="43"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="41"/>
-      <c r="E142" s="42"/>
-      <c r="G142" s="42"/>
+      <c r="A142" s="42"/>
+      <c r="E142" s="43"/>
+      <c r="G142" s="43"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="41"/>
-      <c r="E143" s="42"/>
-      <c r="G143" s="42"/>
+      <c r="A143" s="42"/>
+      <c r="E143" s="43"/>
+      <c r="G143" s="43"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="41"/>
-      <c r="E144" s="42"/>
-      <c r="G144" s="42"/>
+      <c r="A144" s="42"/>
+      <c r="E144" s="43"/>
+      <c r="G144" s="43"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="41"/>
-      <c r="E145" s="42"/>
-      <c r="G145" s="42"/>
+      <c r="A145" s="42"/>
+      <c r="E145" s="43"/>
+      <c r="G145" s="43"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="41"/>
-      <c r="E146" s="42"/>
-      <c r="G146" s="42"/>
+      <c r="A146" s="42"/>
+      <c r="E146" s="43"/>
+      <c r="G146" s="43"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="41"/>
-      <c r="E147" s="42"/>
-      <c r="G147" s="42"/>
+      <c r="A147" s="42"/>
+      <c r="E147" s="43"/>
+      <c r="G147" s="43"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="41"/>
-      <c r="E148" s="42"/>
-      <c r="G148" s="42"/>
+      <c r="A148" s="42"/>
+      <c r="E148" s="43"/>
+      <c r="G148" s="43"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="41"/>
-      <c r="E149" s="42"/>
-      <c r="G149" s="42"/>
+      <c r="A149" s="42"/>
+      <c r="E149" s="43"/>
+      <c r="G149" s="43"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="41"/>
-      <c r="E150" s="42"/>
-      <c r="G150" s="42"/>
+      <c r="A150" s="42"/>
+      <c r="E150" s="43"/>
+      <c r="G150" s="43"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="41"/>
-      <c r="E151" s="42"/>
-      <c r="G151" s="42"/>
+      <c r="A151" s="42"/>
+      <c r="E151" s="43"/>
+      <c r="G151" s="43"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="41"/>
-      <c r="E152" s="42"/>
-      <c r="G152" s="42"/>
+      <c r="A152" s="42"/>
+      <c r="E152" s="43"/>
+      <c r="G152" s="43"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="41"/>
-      <c r="E153" s="42"/>
-      <c r="G153" s="42"/>
+      <c r="A153" s="42"/>
+      <c r="E153" s="43"/>
+      <c r="G153" s="43"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="41"/>
-      <c r="E154" s="42"/>
-      <c r="G154" s="42"/>
+      <c r="A154" s="42"/>
+      <c r="E154" s="43"/>
+      <c r="G154" s="43"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="41"/>
-      <c r="E155" s="42"/>
-      <c r="G155" s="42"/>
+      <c r="A155" s="42"/>
+      <c r="E155" s="43"/>
+      <c r="G155" s="43"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="41"/>
-      <c r="E156" s="42"/>
-      <c r="G156" s="42"/>
+      <c r="A156" s="42"/>
+      <c r="E156" s="43"/>
+      <c r="G156" s="43"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="41"/>
-      <c r="E157" s="42"/>
-      <c r="G157" s="42"/>
+      <c r="A157" s="42"/>
+      <c r="E157" s="43"/>
+      <c r="G157" s="43"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="41"/>
-      <c r="E158" s="42"/>
-      <c r="G158" s="42"/>
+      <c r="A158" s="42"/>
+      <c r="E158" s="43"/>
+      <c r="G158" s="43"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="41"/>
-      <c r="E159" s="42"/>
-      <c r="G159" s="42"/>
+      <c r="A159" s="42"/>
+      <c r="E159" s="43"/>
+      <c r="G159" s="43"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="41"/>
-      <c r="E160" s="42"/>
-      <c r="G160" s="42"/>
+      <c r="A160" s="42"/>
+      <c r="E160" s="43"/>
+      <c r="G160" s="43"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="41"/>
-      <c r="E161" s="42"/>
-      <c r="G161" s="42"/>
+      <c r="A161" s="42"/>
+      <c r="E161" s="43"/>
+      <c r="G161" s="43"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="41"/>
-      <c r="E162" s="42"/>
-      <c r="G162" s="42"/>
+      <c r="A162" s="42"/>
+      <c r="E162" s="43"/>
+      <c r="G162" s="43"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="41"/>
-      <c r="E163" s="42"/>
-      <c r="G163" s="42"/>
+      <c r="A163" s="42"/>
+      <c r="E163" s="43"/>
+      <c r="G163" s="43"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="41"/>
-      <c r="E164" s="42"/>
-      <c r="G164" s="42"/>
+      <c r="A164" s="42"/>
+      <c r="E164" s="43"/>
+      <c r="G164" s="43"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="41"/>
-      <c r="E165" s="42"/>
-      <c r="G165" s="42"/>
+      <c r="A165" s="42"/>
+      <c r="E165" s="43"/>
+      <c r="G165" s="43"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="41"/>
-      <c r="E166" s="42"/>
-      <c r="G166" s="42"/>
+      <c r="A166" s="42"/>
+      <c r="E166" s="43"/>
+      <c r="G166" s="43"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="41"/>
-      <c r="E167" s="42"/>
-      <c r="G167" s="42"/>
+      <c r="A167" s="42"/>
+      <c r="E167" s="43"/>
+      <c r="G167" s="43"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="41"/>
-      <c r="E168" s="42"/>
-      <c r="G168" s="42"/>
+      <c r="A168" s="42"/>
+      <c r="E168" s="43"/>
+      <c r="G168" s="43"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="41"/>
-      <c r="E169" s="42"/>
-      <c r="G169" s="42"/>
+      <c r="A169" s="42"/>
+      <c r="E169" s="43"/>
+      <c r="G169" s="43"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="41"/>
-      <c r="E170" s="42"/>
-      <c r="G170" s="42"/>
+      <c r="A170" s="42"/>
+      <c r="E170" s="43"/>
+      <c r="G170" s="43"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="41"/>
-      <c r="E171" s="42"/>
-      <c r="G171" s="42"/>
+      <c r="A171" s="42"/>
+      <c r="E171" s="43"/>
+      <c r="G171" s="43"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="41"/>
-      <c r="E172" s="42"/>
-      <c r="G172" s="42"/>
+      <c r="A172" s="42"/>
+      <c r="E172" s="43"/>
+      <c r="G172" s="43"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="41"/>
-      <c r="E173" s="42"/>
-      <c r="G173" s="42"/>
+      <c r="A173" s="42"/>
+      <c r="E173" s="43"/>
+      <c r="G173" s="43"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="41"/>
-      <c r="E174" s="42"/>
-      <c r="G174" s="42"/>
+      <c r="A174" s="42"/>
+      <c r="E174" s="43"/>
+      <c r="G174" s="43"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="41"/>
-      <c r="E175" s="42"/>
-      <c r="G175" s="42"/>
+      <c r="A175" s="42"/>
+      <c r="E175" s="43"/>
+      <c r="G175" s="43"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="41"/>
-      <c r="E176" s="42"/>
-      <c r="G176" s="42"/>
+      <c r="A176" s="42"/>
+      <c r="E176" s="43"/>
+      <c r="G176" s="43"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="41"/>
-      <c r="E177" s="42"/>
-      <c r="G177" s="42"/>
+      <c r="A177" s="42"/>
+      <c r="E177" s="43"/>
+      <c r="G177" s="43"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="41"/>
-      <c r="E178" s="42"/>
-      <c r="G178" s="42"/>
+      <c r="A178" s="42"/>
+      <c r="E178" s="43"/>
+      <c r="G178" s="43"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="41"/>
-      <c r="E179" s="42"/>
-      <c r="G179" s="42"/>
+      <c r="A179" s="42"/>
+      <c r="E179" s="43"/>
+      <c r="G179" s="43"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="41"/>
-      <c r="E180" s="42"/>
-      <c r="G180" s="42"/>
+      <c r="A180" s="42"/>
+      <c r="E180" s="43"/>
+      <c r="G180" s="43"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="41"/>
-      <c r="E181" s="42"/>
-      <c r="G181" s="42"/>
+      <c r="A181" s="42"/>
+      <c r="E181" s="43"/>
+      <c r="G181" s="43"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="41"/>
-      <c r="E182" s="42"/>
-      <c r="G182" s="42"/>
+      <c r="A182" s="42"/>
+      <c r="E182" s="43"/>
+      <c r="G182" s="43"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="41"/>
-      <c r="E183" s="42"/>
-      <c r="G183" s="42"/>
+      <c r="A183" s="42"/>
+      <c r="E183" s="43"/>
+      <c r="G183" s="43"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="41"/>
-      <c r="E184" s="42"/>
-      <c r="G184" s="42"/>
+      <c r="A184" s="42"/>
+      <c r="E184" s="43"/>
+      <c r="G184" s="43"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="41"/>
-      <c r="E185" s="42"/>
-      <c r="G185" s="42"/>
+      <c r="A185" s="42"/>
+      <c r="E185" s="43"/>
+      <c r="G185" s="43"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="41"/>
-      <c r="E186" s="42"/>
-      <c r="G186" s="42"/>
+      <c r="A186" s="42"/>
+      <c r="E186" s="43"/>
+      <c r="G186" s="43"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="41"/>
-      <c r="E187" s="42"/>
-      <c r="G187" s="42"/>
+      <c r="A187" s="42"/>
+      <c r="E187" s="43"/>
+      <c r="G187" s="43"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="41"/>
-      <c r="E188" s="42"/>
-      <c r="G188" s="42"/>
+      <c r="A188" s="42"/>
+      <c r="E188" s="43"/>
+      <c r="G188" s="43"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="41"/>
-      <c r="E189" s="42"/>
-      <c r="G189" s="42"/>
+      <c r="A189" s="42"/>
+      <c r="E189" s="43"/>
+      <c r="G189" s="43"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="41"/>
-      <c r="E190" s="42"/>
-      <c r="G190" s="42"/>
+      <c r="A190" s="42"/>
+      <c r="E190" s="43"/>
+      <c r="G190" s="43"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="41"/>
-      <c r="E191" s="42"/>
-      <c r="G191" s="42"/>
+      <c r="A191" s="42"/>
+      <c r="E191" s="43"/>
+      <c r="G191" s="43"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="41"/>
-      <c r="E192" s="42"/>
-      <c r="G192" s="42"/>
+      <c r="A192" s="42"/>
+      <c r="E192" s="43"/>
+      <c r="G192" s="43"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="41"/>
-      <c r="E193" s="42"/>
-      <c r="G193" s="42"/>
+      <c r="A193" s="42"/>
+      <c r="E193" s="43"/>
+      <c r="G193" s="43"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="41"/>
-      <c r="E194" s="42"/>
-      <c r="G194" s="42"/>
+      <c r="A194" s="42"/>
+      <c r="E194" s="43"/>
+      <c r="G194" s="43"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="41"/>
-      <c r="E195" s="42"/>
-      <c r="G195" s="42"/>
+      <c r="A195" s="42"/>
+      <c r="E195" s="43"/>
+      <c r="G195" s="43"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="41"/>
-      <c r="E196" s="42"/>
-      <c r="G196" s="42"/>
+      <c r="A196" s="42"/>
+      <c r="E196" s="43"/>
+      <c r="G196" s="43"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="41"/>
-      <c r="E197" s="42"/>
-      <c r="G197" s="42"/>
+      <c r="A197" s="42"/>
+      <c r="E197" s="43"/>
+      <c r="G197" s="43"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="41"/>
-      <c r="E198" s="42"/>
-      <c r="G198" s="42"/>
+      <c r="A198" s="42"/>
+      <c r="E198" s="43"/>
+      <c r="G198" s="43"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="41"/>
-      <c r="E199" s="42"/>
-      <c r="G199" s="42"/>
+      <c r="A199" s="42"/>
+      <c r="E199" s="43"/>
+      <c r="G199" s="43"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="41"/>
-      <c r="E200" s="42"/>
-      <c r="G200" s="42"/>
+      <c r="A200" s="42"/>
+      <c r="E200" s="43"/>
+      <c r="G200" s="43"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="41"/>
-      <c r="E201" s="42"/>
-      <c r="G201" s="42"/>
+      <c r="A201" s="42"/>
+      <c r="E201" s="43"/>
+      <c r="G201" s="43"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="41"/>
-      <c r="E202" s="42"/>
-      <c r="G202" s="42"/>
+      <c r="A202" s="42"/>
+      <c r="E202" s="43"/>
+      <c r="G202" s="43"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="41"/>
-      <c r="E203" s="42"/>
-      <c r="G203" s="42"/>
+      <c r="A203" s="42"/>
+      <c r="E203" s="43"/>
+      <c r="G203" s="43"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="41"/>
-      <c r="E204" s="42"/>
-      <c r="G204" s="42"/>
+      <c r="A204" s="42"/>
+      <c r="E204" s="43"/>
+      <c r="G204" s="43"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="41"/>
-      <c r="E205" s="42"/>
-      <c r="G205" s="42"/>
+      <c r="A205" s="42"/>
+      <c r="E205" s="43"/>
+      <c r="G205" s="43"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="41"/>
-      <c r="E206" s="42"/>
-      <c r="G206" s="42"/>
+      <c r="A206" s="42"/>
+      <c r="E206" s="43"/>
+      <c r="G206" s="43"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="41"/>
-      <c r="E207" s="42"/>
-      <c r="G207" s="42"/>
+      <c r="A207" s="42"/>
+      <c r="E207" s="43"/>
+      <c r="G207" s="43"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="41"/>
-      <c r="E208" s="42"/>
-      <c r="G208" s="42"/>
+      <c r="A208" s="42"/>
+      <c r="E208" s="43"/>
+      <c r="G208" s="43"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="41"/>
-      <c r="E209" s="42"/>
-      <c r="G209" s="42"/>
+      <c r="A209" s="42"/>
+      <c r="E209" s="43"/>
+      <c r="G209" s="43"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="41"/>
-      <c r="E210" s="42"/>
-      <c r="G210" s="42"/>
+      <c r="A210" s="42"/>
+      <c r="E210" s="43"/>
+      <c r="G210" s="43"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="41"/>
-      <c r="E211" s="42"/>
-      <c r="G211" s="42"/>
+      <c r="A211" s="42"/>
+      <c r="E211" s="43"/>
+      <c r="G211" s="43"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="41"/>
-      <c r="E212" s="42"/>
-      <c r="G212" s="42"/>
+      <c r="A212" s="42"/>
+      <c r="E212" s="43"/>
+      <c r="G212" s="43"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="41"/>
-      <c r="E213" s="42"/>
-      <c r="G213" s="42"/>
+      <c r="A213" s="42"/>
+      <c r="E213" s="43"/>
+      <c r="G213" s="43"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="41"/>
-      <c r="E214" s="42"/>
-      <c r="G214" s="42"/>
+      <c r="A214" s="42"/>
+      <c r="E214" s="43"/>
+      <c r="G214" s="43"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="41"/>
-      <c r="E215" s="42"/>
-      <c r="G215" s="42"/>
+      <c r="A215" s="42"/>
+      <c r="E215" s="43"/>
+      <c r="G215" s="43"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="41"/>
-      <c r="E216" s="42"/>
-      <c r="G216" s="42"/>
+      <c r="A216" s="42"/>
+      <c r="E216" s="43"/>
+      <c r="G216" s="43"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="41"/>
-      <c r="E217" s="42"/>
-      <c r="G217" s="42"/>
+      <c r="A217" s="42"/>
+      <c r="E217" s="43"/>
+      <c r="G217" s="43"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="41"/>
-      <c r="E218" s="42"/>
-      <c r="G218" s="42"/>
+      <c r="A218" s="42"/>
+      <c r="E218" s="43"/>
+      <c r="G218" s="43"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="41"/>
-      <c r="E219" s="42"/>
-      <c r="G219" s="42"/>
+      <c r="A219" s="42"/>
+      <c r="E219" s="43"/>
+      <c r="G219" s="43"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="41"/>
-      <c r="E220" s="42"/>
-      <c r="G220" s="42"/>
+      <c r="A220" s="42"/>
+      <c r="E220" s="43"/>
+      <c r="G220" s="43"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="41"/>
-      <c r="E221" s="42"/>
-      <c r="G221" s="42"/>
+      <c r="A221" s="42"/>
+      <c r="E221" s="43"/>
+      <c r="G221" s="43"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="41"/>
-      <c r="E222" s="42"/>
-      <c r="G222" s="42"/>
+      <c r="A222" s="42"/>
+      <c r="E222" s="43"/>
+      <c r="G222" s="43"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="41"/>
-      <c r="E223" s="42"/>
-      <c r="G223" s="42"/>
+      <c r="A223" s="42"/>
+      <c r="E223" s="43"/>
+      <c r="G223" s="43"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="41"/>
-      <c r="E224" s="42"/>
-      <c r="G224" s="42"/>
+      <c r="A224" s="42"/>
+      <c r="E224" s="43"/>
+      <c r="G224" s="43"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="41"/>
-      <c r="E225" s="42"/>
-      <c r="G225" s="42"/>
+      <c r="A225" s="42"/>
+      <c r="E225" s="43"/>
+      <c r="G225" s="43"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="41"/>
-      <c r="E226" s="42"/>
-      <c r="G226" s="42"/>
+      <c r="A226" s="42"/>
+      <c r="E226" s="43"/>
+      <c r="G226" s="43"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="41"/>
-      <c r="E227" s="42"/>
-      <c r="G227" s="42"/>
+      <c r="A227" s="42"/>
+      <c r="E227" s="43"/>
+      <c r="G227" s="43"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="41"/>
-      <c r="E228" s="42"/>
-      <c r="G228" s="42"/>
+      <c r="A228" s="42"/>
+      <c r="E228" s="43"/>
+      <c r="G228" s="43"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="41"/>
-      <c r="E229" s="42"/>
-      <c r="G229" s="42"/>
+      <c r="A229" s="42"/>
+      <c r="E229" s="43"/>
+      <c r="G229" s="43"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="41"/>
-      <c r="E230" s="42"/>
-      <c r="G230" s="42"/>
+      <c r="A230" s="42"/>
+      <c r="E230" s="43"/>
+      <c r="G230" s="43"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="41"/>
-      <c r="E231" s="42"/>
-      <c r="G231" s="42"/>
+      <c r="A231" s="42"/>
+      <c r="E231" s="43"/>
+      <c r="G231" s="43"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="41"/>
-      <c r="E232" s="42"/>
-      <c r="G232" s="42"/>
+      <c r="A232" s="42"/>
+      <c r="E232" s="43"/>
+      <c r="G232" s="43"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="41"/>
-      <c r="E233" s="42"/>
-      <c r="G233" s="42"/>
+      <c r="A233" s="42"/>
+      <c r="E233" s="43"/>
+      <c r="G233" s="43"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="41"/>
-      <c r="E234" s="42"/>
-      <c r="G234" s="42"/>
+      <c r="A234" s="42"/>
+      <c r="E234" s="43"/>
+      <c r="G234" s="43"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="41"/>
-      <c r="E235" s="42"/>
-      <c r="G235" s="42"/>
+      <c r="A235" s="42"/>
+      <c r="E235" s="43"/>
+      <c r="G235" s="43"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="41"/>
-      <c r="E236" s="42"/>
-      <c r="G236" s="42"/>
+      <c r="A236" s="42"/>
+      <c r="E236" s="43"/>
+      <c r="G236" s="43"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="41"/>
-      <c r="E237" s="42"/>
-      <c r="G237" s="42"/>
+      <c r="A237" s="42"/>
+      <c r="E237" s="43"/>
+      <c r="G237" s="43"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="41"/>
-      <c r="E238" s="42"/>
-      <c r="G238" s="42"/>
+      <c r="A238" s="42"/>
+      <c r="E238" s="43"/>
+      <c r="G238" s="43"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="41"/>
-      <c r="E239" s="42"/>
-      <c r="G239" s="42"/>
+      <c r="A239" s="42"/>
+      <c r="E239" s="43"/>
+      <c r="G239" s="43"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="41"/>
-      <c r="E240" s="42"/>
-      <c r="G240" s="42"/>
+      <c r="A240" s="42"/>
+      <c r="E240" s="43"/>
+      <c r="G240" s="43"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="41"/>
-      <c r="E241" s="42"/>
-      <c r="G241" s="42"/>
+      <c r="A241" s="42"/>
+      <c r="E241" s="43"/>
+      <c r="G241" s="43"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="41"/>
-      <c r="E242" s="42"/>
-      <c r="G242" s="42"/>
+      <c r="A242" s="42"/>
+      <c r="E242" s="43"/>
+      <c r="G242" s="43"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="41"/>
-      <c r="E243" s="42"/>
-      <c r="G243" s="42"/>
+      <c r="A243" s="42"/>
+      <c r="E243" s="43"/>
+      <c r="G243" s="43"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="41"/>
-      <c r="E244" s="42"/>
-      <c r="G244" s="42"/>
+      <c r="A244" s="42"/>
+      <c r="E244" s="43"/>
+      <c r="G244" s="43"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="41"/>
-      <c r="E245" s="42"/>
-      <c r="G245" s="42"/>
+      <c r="A245" s="42"/>
+      <c r="E245" s="43"/>
+      <c r="G245" s="43"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="41"/>
-      <c r="E246" s="42"/>
-      <c r="G246" s="42"/>
+      <c r="A246" s="42"/>
+      <c r="E246" s="43"/>
+      <c r="G246" s="43"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="41"/>
-      <c r="E247" s="42"/>
-      <c r="G247" s="42"/>
+      <c r="A247" s="42"/>
+      <c r="E247" s="43"/>
+      <c r="G247" s="43"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="41"/>
-      <c r="E248" s="42"/>
-      <c r="G248" s="42"/>
+      <c r="A248" s="42"/>
+      <c r="E248" s="43"/>
+      <c r="G248" s="43"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="41"/>
-      <c r="E249" s="42"/>
-      <c r="G249" s="42"/>
+      <c r="A249" s="42"/>
+      <c r="E249" s="43"/>
+      <c r="G249" s="43"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="41"/>
-      <c r="E250" s="42"/>
-      <c r="G250" s="42"/>
+      <c r="A250" s="42"/>
+      <c r="E250" s="43"/>
+      <c r="G250" s="43"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="41"/>
-      <c r="E251" s="42"/>
-      <c r="G251" s="42"/>
+      <c r="A251" s="42"/>
+      <c r="E251" s="43"/>
+      <c r="G251" s="43"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="41"/>
-      <c r="E252" s="42"/>
-      <c r="G252" s="42"/>
+      <c r="A252" s="42"/>
+      <c r="E252" s="43"/>
+      <c r="G252" s="43"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="41"/>
-      <c r="E253" s="42"/>
-      <c r="G253" s="42"/>
+      <c r="A253" s="42"/>
+      <c r="E253" s="43"/>
+      <c r="G253" s="43"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="41"/>
-      <c r="E254" s="42"/>
-      <c r="G254" s="42"/>
+      <c r="A254" s="42"/>
+      <c r="E254" s="43"/>
+      <c r="G254" s="43"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="41"/>
-      <c r="E255" s="42"/>
-      <c r="G255" s="42"/>
+      <c r="A255" s="42"/>
+      <c r="E255" s="43"/>
+      <c r="G255" s="43"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="41"/>
-      <c r="E256" s="42"/>
-      <c r="G256" s="42"/>
+      <c r="A256" s="42"/>
+      <c r="E256" s="43"/>
+      <c r="G256" s="43"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="41"/>
-      <c r="E257" s="42"/>
-      <c r="G257" s="42"/>
+      <c r="A257" s="42"/>
+      <c r="E257" s="43"/>
+      <c r="G257" s="43"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="41"/>
-      <c r="E258" s="42"/>
-      <c r="G258" s="42"/>
+      <c r="A258" s="42"/>
+      <c r="E258" s="43"/>
+      <c r="G258" s="43"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="41"/>
-      <c r="E259" s="42"/>
-      <c r="G259" s="42"/>
+      <c r="A259" s="42"/>
+      <c r="E259" s="43"/>
+      <c r="G259" s="43"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="41"/>
-      <c r="E260" s="42"/>
-      <c r="G260" s="42"/>
+      <c r="A260" s="42"/>
+      <c r="E260" s="43"/>
+      <c r="G260" s="43"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="41"/>
-      <c r="E261" s="42"/>
-      <c r="G261" s="42"/>
+      <c r="A261" s="42"/>
+      <c r="E261" s="43"/>
+      <c r="G261" s="43"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="41"/>
-      <c r="E262" s="42"/>
-      <c r="G262" s="42"/>
+      <c r="A262" s="42"/>
+      <c r="E262" s="43"/>
+      <c r="G262" s="43"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="41"/>
-      <c r="E263" s="42"/>
-      <c r="G263" s="42"/>
+      <c r="A263" s="42"/>
+      <c r="E263" s="43"/>
+      <c r="G263" s="43"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="41"/>
-      <c r="E264" s="42"/>
-      <c r="G264" s="42"/>
+      <c r="A264" s="42"/>
+      <c r="E264" s="43"/>
+      <c r="G264" s="43"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="41"/>
-      <c r="E265" s="42"/>
-      <c r="G265" s="42"/>
+      <c r="A265" s="42"/>
+      <c r="E265" s="43"/>
+      <c r="G265" s="43"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="41"/>
-      <c r="E266" s="42"/>
-      <c r="G266" s="42"/>
+      <c r="A266" s="42"/>
+      <c r="E266" s="43"/>
+      <c r="G266" s="43"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="41"/>
-      <c r="E267" s="42"/>
-      <c r="G267" s="42"/>
+      <c r="A267" s="42"/>
+      <c r="E267" s="43"/>
+      <c r="G267" s="43"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="41"/>
-      <c r="E268" s="42"/>
-      <c r="G268" s="42"/>
+      <c r="A268" s="42"/>
+      <c r="E268" s="43"/>
+      <c r="G268" s="43"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="41"/>
-      <c r="E269" s="42"/>
-      <c r="G269" s="42"/>
+      <c r="A269" s="42"/>
+      <c r="E269" s="43"/>
+      <c r="G269" s="43"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="41"/>
-      <c r="E270" s="42"/>
-      <c r="G270" s="42"/>
+      <c r="A270" s="42"/>
+      <c r="E270" s="43"/>
+      <c r="G270" s="43"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="41"/>
-      <c r="E271" s="42"/>
-      <c r="G271" s="42"/>
+      <c r="A271" s="42"/>
+      <c r="E271" s="43"/>
+      <c r="G271" s="43"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="41"/>
-      <c r="E272" s="42"/>
-      <c r="G272" s="42"/>
+      <c r="A272" s="42"/>
+      <c r="E272" s="43"/>
+      <c r="G272" s="43"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="41"/>
-      <c r="E273" s="42"/>
-      <c r="G273" s="42"/>
+      <c r="A273" s="42"/>
+      <c r="E273" s="43"/>
+      <c r="G273" s="43"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="41"/>
-      <c r="E274" s="42"/>
-      <c r="G274" s="42"/>
+      <c r="A274" s="42"/>
+      <c r="E274" s="43"/>
+      <c r="G274" s="43"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="41"/>
-      <c r="E275" s="42"/>
-      <c r="G275" s="42"/>
+      <c r="A275" s="42"/>
+      <c r="E275" s="43"/>
+      <c r="G275" s="43"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="41"/>
-      <c r="E276" s="42"/>
-      <c r="G276" s="42"/>
+      <c r="A276" s="42"/>
+      <c r="E276" s="43"/>
+      <c r="G276" s="43"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="41"/>
-      <c r="E277" s="42"/>
-      <c r="G277" s="42"/>
+      <c r="A277" s="42"/>
+      <c r="E277" s="43"/>
+      <c r="G277" s="43"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="41"/>
-      <c r="E278" s="42"/>
-      <c r="G278" s="42"/>
+      <c r="A278" s="42"/>
+      <c r="E278" s="43"/>
+      <c r="G278" s="43"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="41"/>
-      <c r="E279" s="42"/>
-      <c r="G279" s="42"/>
+      <c r="A279" s="42"/>
+      <c r="E279" s="43"/>
+      <c r="G279" s="43"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="41"/>
-      <c r="E280" s="42"/>
-      <c r="G280" s="42"/>
+      <c r="A280" s="42"/>
+      <c r="E280" s="43"/>
+      <c r="G280" s="43"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="41"/>
-      <c r="E281" s="42"/>
-      <c r="G281" s="42"/>
+      <c r="A281" s="42"/>
+      <c r="E281" s="43"/>
+      <c r="G281" s="43"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="41"/>
-      <c r="E282" s="42"/>
-      <c r="G282" s="42"/>
+      <c r="A282" s="42"/>
+      <c r="E282" s="43"/>
+      <c r="G282" s="43"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="41"/>
-      <c r="E283" s="42"/>
-      <c r="G283" s="42"/>
+      <c r="A283" s="42"/>
+      <c r="E283" s="43"/>
+      <c r="G283" s="43"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="41"/>
-      <c r="E284" s="42"/>
-      <c r="G284" s="42"/>
+      <c r="A284" s="42"/>
+      <c r="E284" s="43"/>
+      <c r="G284" s="43"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="41"/>
-      <c r="E285" s="42"/>
-      <c r="G285" s="42"/>
+      <c r="A285" s="42"/>
+      <c r="E285" s="43"/>
+      <c r="G285" s="43"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="41"/>
-      <c r="E286" s="42"/>
-      <c r="G286" s="42"/>
+      <c r="A286" s="42"/>
+      <c r="E286" s="43"/>
+      <c r="G286" s="43"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="41"/>
-      <c r="E287" s="42"/>
-      <c r="G287" s="42"/>
+      <c r="A287" s="42"/>
+      <c r="E287" s="43"/>
+      <c r="G287" s="43"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="41"/>
-      <c r="E288" s="42"/>
-      <c r="G288" s="42"/>
+      <c r="A288" s="42"/>
+      <c r="E288" s="43"/>
+      <c r="G288" s="43"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="41"/>
-      <c r="E289" s="42"/>
-      <c r="G289" s="42"/>
+      <c r="A289" s="42"/>
+      <c r="E289" s="43"/>
+      <c r="G289" s="43"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="41"/>
-      <c r="E290" s="42"/>
-      <c r="G290" s="42"/>
+      <c r="A290" s="42"/>
+      <c r="E290" s="43"/>
+      <c r="G290" s="43"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="41"/>
-      <c r="E291" s="42"/>
-      <c r="G291" s="42"/>
+      <c r="A291" s="42"/>
+      <c r="E291" s="43"/>
+      <c r="G291" s="43"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="41"/>
-      <c r="E292" s="42"/>
-      <c r="G292" s="42"/>
+      <c r="A292" s="42"/>
+      <c r="E292" s="43"/>
+      <c r="G292" s="43"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="41"/>
-      <c r="E293" s="42"/>
-      <c r="G293" s="42"/>
+      <c r="A293" s="42"/>
+      <c r="E293" s="43"/>
+      <c r="G293" s="43"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="41"/>
-      <c r="E294" s="42"/>
-      <c r="G294" s="42"/>
+      <c r="A294" s="42"/>
+      <c r="E294" s="43"/>
+      <c r="G294" s="43"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="41"/>
-      <c r="E295" s="42"/>
-      <c r="G295" s="42"/>
+      <c r="A295" s="42"/>
+      <c r="E295" s="43"/>
+      <c r="G295" s="43"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="41"/>
-      <c r="E296" s="42"/>
-      <c r="G296" s="42"/>
+      <c r="A296" s="42"/>
+      <c r="E296" s="43"/>
+      <c r="G296" s="43"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="41"/>
-      <c r="E297" s="42"/>
-      <c r="G297" s="42"/>
+      <c r="A297" s="42"/>
+      <c r="E297" s="43"/>
+      <c r="G297" s="43"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="41"/>
-      <c r="E298" s="42"/>
-      <c r="G298" s="42"/>
+      <c r="A298" s="42"/>
+      <c r="E298" s="43"/>
+      <c r="G298" s="43"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="41"/>
-      <c r="E299" s="42"/>
-      <c r="G299" s="42"/>
+      <c r="A299" s="42"/>
+      <c r="E299" s="43"/>
+      <c r="G299" s="43"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="41"/>
-      <c r="E300" s="42"/>
-      <c r="G300" s="42"/>
+      <c r="A300" s="42"/>
+      <c r="E300" s="43"/>
+      <c r="G300" s="43"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="41"/>
-      <c r="E301" s="42"/>
-      <c r="G301" s="42"/>
+      <c r="A301" s="42"/>
+      <c r="E301" s="43"/>
+      <c r="G301" s="43"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="41"/>
-      <c r="E302" s="42"/>
-      <c r="G302" s="42"/>
+      <c r="A302" s="42"/>
+      <c r="E302" s="43"/>
+      <c r="G302" s="43"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="41"/>
-      <c r="E303" s="42"/>
-      <c r="G303" s="42"/>
+      <c r="A303" s="42"/>
+      <c r="E303" s="43"/>
+      <c r="G303" s="43"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="41"/>
-      <c r="E304" s="42"/>
-      <c r="G304" s="42"/>
+      <c r="A304" s="42"/>
+      <c r="E304" s="43"/>
+      <c r="G304" s="43"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="41"/>
-      <c r="E305" s="42"/>
-      <c r="G305" s="42"/>
+      <c r="A305" s="42"/>
+      <c r="E305" s="43"/>
+      <c r="G305" s="43"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="41"/>
-      <c r="E306" s="42"/>
-      <c r="G306" s="42"/>
+      <c r="A306" s="42"/>
+      <c r="E306" s="43"/>
+      <c r="G306" s="43"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="41"/>
-      <c r="E307" s="42"/>
-      <c r="G307" s="42"/>
+      <c r="A307" s="42"/>
+      <c r="E307" s="43"/>
+      <c r="G307" s="43"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="41"/>
-      <c r="E308" s="42"/>
-      <c r="G308" s="42"/>
+      <c r="A308" s="42"/>
+      <c r="E308" s="43"/>
+      <c r="G308" s="43"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="41"/>
-      <c r="E309" s="42"/>
-      <c r="G309" s="42"/>
+      <c r="A309" s="42"/>
+      <c r="E309" s="43"/>
+      <c r="G309" s="43"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="41"/>
-      <c r="E310" s="42"/>
-      <c r="G310" s="42"/>
+      <c r="A310" s="42"/>
+      <c r="E310" s="43"/>
+      <c r="G310" s="43"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="41"/>
-      <c r="E311" s="42"/>
-      <c r="G311" s="42"/>
+      <c r="A311" s="42"/>
+      <c r="E311" s="43"/>
+      <c r="G311" s="43"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="41"/>
-      <c r="E312" s="42"/>
-      <c r="G312" s="42"/>
+      <c r="A312" s="42"/>
+      <c r="E312" s="43"/>
+      <c r="G312" s="43"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="41"/>
-      <c r="E313" s="42"/>
-      <c r="G313" s="42"/>
+      <c r="A313" s="42"/>
+      <c r="E313" s="43"/>
+      <c r="G313" s="43"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="41"/>
-      <c r="E314" s="42"/>
-      <c r="G314" s="42"/>
+      <c r="A314" s="42"/>
+      <c r="E314" s="43"/>
+      <c r="G314" s="43"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="41"/>
-      <c r="E315" s="42"/>
-      <c r="G315" s="42"/>
+      <c r="A315" s="42"/>
+      <c r="E315" s="43"/>
+      <c r="G315" s="43"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="41"/>
-      <c r="E316" s="42"/>
-      <c r="G316" s="42"/>
+      <c r="A316" s="42"/>
+      <c r="E316" s="43"/>
+      <c r="G316" s="43"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="41"/>
-      <c r="E317" s="42"/>
-      <c r="G317" s="42"/>
+      <c r="A317" s="42"/>
+      <c r="E317" s="43"/>
+      <c r="G317" s="43"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="41"/>
-      <c r="E318" s="42"/>
-      <c r="G318" s="42"/>
+      <c r="A318" s="42"/>
+      <c r="E318" s="43"/>
+      <c r="G318" s="43"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="41"/>
-      <c r="E319" s="42"/>
-      <c r="G319" s="42"/>
+      <c r="A319" s="42"/>
+      <c r="E319" s="43"/>
+      <c r="G319" s="43"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="41"/>
-      <c r="E320" s="42"/>
-      <c r="G320" s="42"/>
+      <c r="A320" s="42"/>
+      <c r="E320" s="43"/>
+      <c r="G320" s="43"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="41"/>
-      <c r="E321" s="42"/>
-      <c r="G321" s="42"/>
+      <c r="A321" s="42"/>
+      <c r="E321" s="43"/>
+      <c r="G321" s="43"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="41"/>
-      <c r="E322" s="42"/>
-      <c r="G322" s="42"/>
+      <c r="A322" s="42"/>
+      <c r="E322" s="43"/>
+      <c r="G322" s="43"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="41"/>
-      <c r="E323" s="42"/>
-      <c r="G323" s="42"/>
+      <c r="A323" s="42"/>
+      <c r="E323" s="43"/>
+      <c r="G323" s="43"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="41"/>
-      <c r="E324" s="42"/>
-      <c r="G324" s="42"/>
+      <c r="A324" s="42"/>
+      <c r="E324" s="43"/>
+      <c r="G324" s="43"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="41"/>
-      <c r="E325" s="42"/>
-      <c r="G325" s="42"/>
+      <c r="A325" s="42"/>
+      <c r="E325" s="43"/>
+      <c r="G325" s="43"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="41"/>
-      <c r="E326" s="42"/>
-      <c r="G326" s="42"/>
+      <c r="A326" s="42"/>
+      <c r="E326" s="43"/>
+      <c r="G326" s="43"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="41"/>
-      <c r="E327" s="42"/>
-      <c r="G327" s="42"/>
+      <c r="A327" s="42"/>
+      <c r="E327" s="43"/>
+      <c r="G327" s="43"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="41"/>
-      <c r="E328" s="42"/>
-      <c r="G328" s="42"/>
+      <c r="A328" s="42"/>
+      <c r="E328" s="43"/>
+      <c r="G328" s="43"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="41"/>
-      <c r="E329" s="42"/>
-      <c r="G329" s="42"/>
+      <c r="A329" s="42"/>
+      <c r="E329" s="43"/>
+      <c r="G329" s="43"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="41"/>
-      <c r="E330" s="42"/>
-      <c r="G330" s="42"/>
+      <c r="A330" s="42"/>
+      <c r="E330" s="43"/>
+      <c r="G330" s="43"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="41"/>
-      <c r="E331" s="42"/>
-      <c r="G331" s="42"/>
+      <c r="A331" s="42"/>
+      <c r="E331" s="43"/>
+      <c r="G331" s="43"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="41"/>
-      <c r="E332" s="42"/>
-      <c r="G332" s="42"/>
+      <c r="A332" s="42"/>
+      <c r="E332" s="43"/>
+      <c r="G332" s="43"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="41"/>
-      <c r="E333" s="42"/>
-      <c r="G333" s="42"/>
+      <c r="A333" s="42"/>
+      <c r="E333" s="43"/>
+      <c r="G333" s="43"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="41"/>
-      <c r="E334" s="42"/>
-      <c r="G334" s="42"/>
+      <c r="A334" s="42"/>
+      <c r="E334" s="43"/>
+      <c r="G334" s="43"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="41"/>
-      <c r="E335" s="42"/>
-      <c r="G335" s="42"/>
+      <c r="A335" s="42"/>
+      <c r="E335" s="43"/>
+      <c r="G335" s="43"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="41"/>
-      <c r="E336" s="42"/>
-      <c r="G336" s="42"/>
+      <c r="A336" s="42"/>
+      <c r="E336" s="43"/>
+      <c r="G336" s="43"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="41"/>
-      <c r="E337" s="42"/>
-      <c r="G337" s="42"/>
+      <c r="A337" s="42"/>
+      <c r="E337" s="43"/>
+      <c r="G337" s="43"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="41"/>
-      <c r="E338" s="42"/>
-      <c r="G338" s="42"/>
+      <c r="A338" s="42"/>
+      <c r="E338" s="43"/>
+      <c r="G338" s="43"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="41"/>
-      <c r="E339" s="42"/>
-      <c r="G339" s="42"/>
+      <c r="A339" s="42"/>
+      <c r="E339" s="43"/>
+      <c r="G339" s="43"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="41"/>
-      <c r="E340" s="42"/>
-      <c r="G340" s="42"/>
+      <c r="A340" s="42"/>
+      <c r="E340" s="43"/>
+      <c r="G340" s="43"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="41"/>
-      <c r="E341" s="42"/>
-      <c r="G341" s="42"/>
+      <c r="A341" s="42"/>
+      <c r="E341" s="43"/>
+      <c r="G341" s="43"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="41"/>
-      <c r="E342" s="42"/>
-      <c r="G342" s="42"/>
+      <c r="A342" s="42"/>
+      <c r="E342" s="43"/>
+      <c r="G342" s="43"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="41"/>
-      <c r="E343" s="42"/>
-      <c r="G343" s="42"/>
+      <c r="A343" s="42"/>
+      <c r="E343" s="43"/>
+      <c r="G343" s="43"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="41"/>
-      <c r="E344" s="42"/>
-      <c r="G344" s="42"/>
+      <c r="A344" s="42"/>
+      <c r="E344" s="43"/>
+      <c r="G344" s="43"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="41"/>
-      <c r="E345" s="42"/>
-      <c r="G345" s="42"/>
+      <c r="A345" s="42"/>
+      <c r="E345" s="43"/>
+      <c r="G345" s="43"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="41"/>
-      <c r="E346" s="42"/>
-      <c r="G346" s="42"/>
+      <c r="A346" s="42"/>
+      <c r="E346" s="43"/>
+      <c r="G346" s="43"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="41"/>
-      <c r="E347" s="42"/>
-      <c r="G347" s="42"/>
+      <c r="A347" s="42"/>
+      <c r="E347" s="43"/>
+      <c r="G347" s="43"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="41"/>
-      <c r="E348" s="42"/>
-      <c r="G348" s="42"/>
+      <c r="A348" s="42"/>
+      <c r="E348" s="43"/>
+      <c r="G348" s="43"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="41"/>
-      <c r="E349" s="42"/>
-      <c r="G349" s="42"/>
+      <c r="A349" s="42"/>
+      <c r="E349" s="43"/>
+      <c r="G349" s="43"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="41"/>
-      <c r="E350" s="42"/>
-      <c r="G350" s="42"/>
+      <c r="A350" s="42"/>
+      <c r="E350" s="43"/>
+      <c r="G350" s="43"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="41"/>
-      <c r="E351" s="42"/>
-      <c r="G351" s="42"/>
+      <c r="A351" s="42"/>
+      <c r="E351" s="43"/>
+      <c r="G351" s="43"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="41"/>
-      <c r="E352" s="42"/>
-      <c r="G352" s="42"/>
+      <c r="A352" s="42"/>
+      <c r="E352" s="43"/>
+      <c r="G352" s="43"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="41"/>
-      <c r="E353" s="42"/>
-      <c r="G353" s="42"/>
+      <c r="A353" s="42"/>
+      <c r="E353" s="43"/>
+      <c r="G353" s="43"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="41"/>
-      <c r="E354" s="42"/>
-      <c r="G354" s="42"/>
+      <c r="A354" s="42"/>
+      <c r="E354" s="43"/>
+      <c r="G354" s="43"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="41"/>
-      <c r="E355" s="42"/>
-      <c r="G355" s="42"/>
+      <c r="A355" s="42"/>
+      <c r="E355" s="43"/>
+      <c r="G355" s="43"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="41"/>
-      <c r="E356" s="42"/>
-      <c r="G356" s="42"/>
+      <c r="A356" s="42"/>
+      <c r="E356" s="43"/>
+      <c r="G356" s="43"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="41"/>
-      <c r="E357" s="42"/>
-      <c r="G357" s="42"/>
+      <c r="A357" s="42"/>
+      <c r="E357" s="43"/>
+      <c r="G357" s="43"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="41"/>
-      <c r="E358" s="42"/>
-      <c r="G358" s="42"/>
+      <c r="A358" s="42"/>
+      <c r="E358" s="43"/>
+      <c r="G358" s="43"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="41"/>
-      <c r="E359" s="42"/>
-      <c r="G359" s="42"/>
+      <c r="A359" s="42"/>
+      <c r="E359" s="43"/>
+      <c r="G359" s="43"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="41"/>
-      <c r="E360" s="42"/>
-      <c r="G360" s="42"/>
+      <c r="A360" s="42"/>
+      <c r="E360" s="43"/>
+      <c r="G360" s="43"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="41"/>
-      <c r="E361" s="42"/>
-      <c r="G361" s="42"/>
+      <c r="A361" s="42"/>
+      <c r="E361" s="43"/>
+      <c r="G361" s="43"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="41"/>
-      <c r="E362" s="42"/>
-      <c r="G362" s="42"/>
+      <c r="A362" s="42"/>
+      <c r="E362" s="43"/>
+      <c r="G362" s="43"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="41"/>
-      <c r="E363" s="42"/>
-      <c r="G363" s="42"/>
+      <c r="A363" s="42"/>
+      <c r="E363" s="43"/>
+      <c r="G363" s="43"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="41"/>
-      <c r="E364" s="42"/>
-      <c r="G364" s="42"/>
+      <c r="A364" s="42"/>
+      <c r="E364" s="43"/>
+      <c r="G364" s="43"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="41"/>
-      <c r="E365" s="42"/>
-      <c r="G365" s="42"/>
+      <c r="A365" s="42"/>
+      <c r="E365" s="43"/>
+      <c r="G365" s="43"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="41"/>
-      <c r="E366" s="42"/>
-      <c r="G366" s="42"/>
+      <c r="A366" s="42"/>
+      <c r="E366" s="43"/>
+      <c r="G366" s="43"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="41"/>
-      <c r="E367" s="42"/>
-      <c r="G367" s="42"/>
+      <c r="A367" s="42"/>
+      <c r="E367" s="43"/>
+      <c r="G367" s="43"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="41"/>
-      <c r="E368" s="42"/>
-      <c r="G368" s="42"/>
+      <c r="A368" s="42"/>
+      <c r="E368" s="43"/>
+      <c r="G368" s="43"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="41"/>
-      <c r="E369" s="42"/>
-      <c r="G369" s="42"/>
+      <c r="A369" s="42"/>
+      <c r="E369" s="43"/>
+      <c r="G369" s="43"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="41"/>
-      <c r="E370" s="42"/>
-      <c r="G370" s="42"/>
+      <c r="A370" s="42"/>
+      <c r="E370" s="43"/>
+      <c r="G370" s="43"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="41"/>
-      <c r="E371" s="42"/>
-      <c r="G371" s="42"/>
+      <c r="A371" s="42"/>
+      <c r="E371" s="43"/>
+      <c r="G371" s="43"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="41"/>
-      <c r="E372" s="42"/>
-      <c r="G372" s="42"/>
+      <c r="A372" s="42"/>
+      <c r="E372" s="43"/>
+      <c r="G372" s="43"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="41"/>
-      <c r="E373" s="42"/>
-      <c r="G373" s="42"/>
+      <c r="A373" s="42"/>
+      <c r="E373" s="43"/>
+      <c r="G373" s="43"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="41"/>
-      <c r="E374" s="42"/>
-      <c r="G374" s="42"/>
+      <c r="A374" s="42"/>
+      <c r="E374" s="43"/>
+      <c r="G374" s="43"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="41"/>
-      <c r="E375" s="42"/>
-      <c r="G375" s="42"/>
+      <c r="A375" s="42"/>
+      <c r="E375" s="43"/>
+      <c r="G375" s="43"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="41"/>
-      <c r="E376" s="42"/>
-      <c r="G376" s="42"/>
+      <c r="A376" s="42"/>
+      <c r="E376" s="43"/>
+      <c r="G376" s="43"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="41"/>
-      <c r="E377" s="42"/>
-      <c r="G377" s="42"/>
+      <c r="A377" s="42"/>
+      <c r="E377" s="43"/>
+      <c r="G377" s="43"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="41"/>
-      <c r="E378" s="42"/>
-      <c r="G378" s="42"/>
+      <c r="A378" s="42"/>
+      <c r="E378" s="43"/>
+      <c r="G378" s="43"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="41"/>
-      <c r="E379" s="42"/>
-      <c r="G379" s="42"/>
+      <c r="A379" s="42"/>
+      <c r="E379" s="43"/>
+      <c r="G379" s="43"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="41"/>
-      <c r="E380" s="42"/>
-      <c r="G380" s="42"/>
+      <c r="A380" s="42"/>
+      <c r="E380" s="43"/>
+      <c r="G380" s="43"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="41"/>
-      <c r="E381" s="42"/>
-      <c r="G381" s="42"/>
+      <c r="A381" s="42"/>
+      <c r="E381" s="43"/>
+      <c r="G381" s="43"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="41"/>
-      <c r="E382" s="42"/>
-      <c r="G382" s="42"/>
+      <c r="A382" s="42"/>
+      <c r="E382" s="43"/>
+      <c r="G382" s="43"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="41"/>
-      <c r="E383" s="42"/>
-      <c r="G383" s="42"/>
+      <c r="A383" s="42"/>
+      <c r="E383" s="43"/>
+      <c r="G383" s="43"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="41"/>
-      <c r="E384" s="42"/>
-      <c r="G384" s="42"/>
+      <c r="A384" s="42"/>
+      <c r="E384" s="43"/>
+      <c r="G384" s="43"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="41"/>
-      <c r="E385" s="42"/>
-      <c r="G385" s="42"/>
+      <c r="A385" s="42"/>
+      <c r="E385" s="43"/>
+      <c r="G385" s="43"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="41"/>
-      <c r="E386" s="42"/>
-      <c r="G386" s="42"/>
+      <c r="A386" s="42"/>
+      <c r="E386" s="43"/>
+      <c r="G386" s="43"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="41"/>
-      <c r="E387" s="42"/>
-      <c r="G387" s="42"/>
+      <c r="A387" s="42"/>
+      <c r="E387" s="43"/>
+      <c r="G387" s="43"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="41"/>
-      <c r="E388" s="42"/>
-      <c r="G388" s="42"/>
+      <c r="A388" s="42"/>
+      <c r="E388" s="43"/>
+      <c r="G388" s="43"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="41"/>
-      <c r="E389" s="42"/>
-      <c r="G389" s="42"/>
+      <c r="A389" s="42"/>
+      <c r="E389" s="43"/>
+      <c r="G389" s="43"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="41"/>
-      <c r="E390" s="42"/>
-      <c r="G390" s="42"/>
+      <c r="A390" s="42"/>
+      <c r="E390" s="43"/>
+      <c r="G390" s="43"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="41"/>
-      <c r="E391" s="42"/>
-      <c r="G391" s="42"/>
+      <c r="A391" s="42"/>
+      <c r="E391" s="43"/>
+      <c r="G391" s="43"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="41"/>
-      <c r="E392" s="42"/>
-      <c r="G392" s="42"/>
+      <c r="A392" s="42"/>
+      <c r="E392" s="43"/>
+      <c r="G392" s="43"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="41"/>
-      <c r="E393" s="42"/>
-      <c r="G393" s="42"/>
+      <c r="A393" s="42"/>
+      <c r="E393" s="43"/>
+      <c r="G393" s="43"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="41"/>
-      <c r="E394" s="42"/>
-      <c r="G394" s="42"/>
+      <c r="A394" s="42"/>
+      <c r="E394" s="43"/>
+      <c r="G394" s="43"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="41"/>
-      <c r="E395" s="42"/>
-      <c r="G395" s="42"/>
+      <c r="A395" s="42"/>
+      <c r="E395" s="43"/>
+      <c r="G395" s="43"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="41"/>
-      <c r="E396" s="42"/>
-      <c r="G396" s="42"/>
+      <c r="A396" s="42"/>
+      <c r="E396" s="43"/>
+      <c r="G396" s="43"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="41"/>
-      <c r="E397" s="42"/>
-      <c r="G397" s="42"/>
+      <c r="A397" s="42"/>
+      <c r="E397" s="43"/>
+      <c r="G397" s="43"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="41"/>
-      <c r="E398" s="42"/>
-      <c r="G398" s="42"/>
+      <c r="A398" s="42"/>
+      <c r="E398" s="43"/>
+      <c r="G398" s="43"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="41"/>
-      <c r="E399" s="42"/>
-      <c r="G399" s="42"/>
+      <c r="A399" s="42"/>
+      <c r="E399" s="43"/>
+      <c r="G399" s="43"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="41"/>
-      <c r="E400" s="42"/>
-      <c r="G400" s="42"/>
+      <c r="A400" s="42"/>
+      <c r="E400" s="43"/>
+      <c r="G400" s="43"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="41"/>
-      <c r="E401" s="42"/>
-      <c r="G401" s="42"/>
+      <c r="A401" s="42"/>
+      <c r="E401" s="43"/>
+      <c r="G401" s="43"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="41"/>
-      <c r="E402" s="42"/>
-      <c r="G402" s="42"/>
+      <c r="A402" s="42"/>
+      <c r="E402" s="43"/>
+      <c r="G402" s="43"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="41"/>
-      <c r="E403" s="42"/>
-      <c r="G403" s="42"/>
+      <c r="A403" s="42"/>
+      <c r="E403" s="43"/>
+      <c r="G403" s="43"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="41"/>
-      <c r="E404" s="42"/>
-      <c r="G404" s="42"/>
+      <c r="A404" s="42"/>
+      <c r="E404" s="43"/>
+      <c r="G404" s="43"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="41"/>
-      <c r="E405" s="42"/>
-      <c r="G405" s="42"/>
+      <c r="A405" s="42"/>
+      <c r="E405" s="43"/>
+      <c r="G405" s="43"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="41"/>
-      <c r="E406" s="42"/>
-      <c r="G406" s="42"/>
+      <c r="A406" s="42"/>
+      <c r="E406" s="43"/>
+      <c r="G406" s="43"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="41"/>
-      <c r="E407" s="42"/>
-      <c r="G407" s="42"/>
+      <c r="A407" s="42"/>
+      <c r="E407" s="43"/>
+      <c r="G407" s="43"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="41"/>
-      <c r="E408" s="42"/>
-      <c r="G408" s="42"/>
+      <c r="A408" s="42"/>
+      <c r="E408" s="43"/>
+      <c r="G408" s="43"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="41"/>
-      <c r="E409" s="42"/>
-      <c r="G409" s="42"/>
+      <c r="A409" s="42"/>
+      <c r="E409" s="43"/>
+      <c r="G409" s="43"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="41"/>
-      <c r="E410" s="42"/>
-      <c r="G410" s="42"/>
+      <c r="A410" s="42"/>
+      <c r="E410" s="43"/>
+      <c r="G410" s="43"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="41"/>
-      <c r="E411" s="42"/>
-      <c r="G411" s="42"/>
+      <c r="A411" s="42"/>
+      <c r="E411" s="43"/>
+      <c r="G411" s="43"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="41"/>
-      <c r="E412" s="42"/>
-      <c r="G412" s="42"/>
+      <c r="A412" s="42"/>
+      <c r="E412" s="43"/>
+      <c r="G412" s="43"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="41"/>
-      <c r="E413" s="42"/>
-      <c r="G413" s="42"/>
+      <c r="A413" s="42"/>
+      <c r="E413" s="43"/>
+      <c r="G413" s="43"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="41"/>
-      <c r="E414" s="42"/>
-      <c r="G414" s="42"/>
+      <c r="A414" s="42"/>
+      <c r="E414" s="43"/>
+      <c r="G414" s="43"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="41"/>
-      <c r="E415" s="42"/>
-      <c r="G415" s="42"/>
+      <c r="A415" s="42"/>
+      <c r="E415" s="43"/>
+      <c r="G415" s="43"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="41"/>
-      <c r="E416" s="42"/>
-      <c r="G416" s="42"/>
+      <c r="A416" s="42"/>
+      <c r="E416" s="43"/>
+      <c r="G416" s="43"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="41"/>
-      <c r="E417" s="42"/>
-      <c r="G417" s="42"/>
+      <c r="A417" s="42"/>
+      <c r="E417" s="43"/>
+      <c r="G417" s="43"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="41"/>
-      <c r="E418" s="42"/>
-      <c r="G418" s="42"/>
+      <c r="A418" s="42"/>
+      <c r="E418" s="43"/>
+      <c r="G418" s="43"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="41"/>
-      <c r="E419" s="42"/>
-      <c r="G419" s="42"/>
+      <c r="A419" s="42"/>
+      <c r="E419" s="43"/>
+      <c r="G419" s="43"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="41"/>
-      <c r="E420" s="42"/>
-      <c r="G420" s="42"/>
+      <c r="A420" s="42"/>
+      <c r="E420" s="43"/>
+      <c r="G420" s="43"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="41"/>
-      <c r="E421" s="42"/>
-      <c r="G421" s="42"/>
+      <c r="A421" s="42"/>
+      <c r="E421" s="43"/>
+      <c r="G421" s="43"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="41"/>
-      <c r="E422" s="42"/>
-      <c r="G422" s="42"/>
+      <c r="A422" s="42"/>
+      <c r="E422" s="43"/>
+      <c r="G422" s="43"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="41"/>
-      <c r="E423" s="42"/>
-      <c r="G423" s="42"/>
+      <c r="A423" s="42"/>
+      <c r="E423" s="43"/>
+      <c r="G423" s="43"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="41"/>
-      <c r="E424" s="42"/>
-      <c r="G424" s="42"/>
+      <c r="A424" s="42"/>
+      <c r="E424" s="43"/>
+      <c r="G424" s="43"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="41"/>
-      <c r="E425" s="42"/>
-      <c r="G425" s="42"/>
+      <c r="A425" s="42"/>
+      <c r="E425" s="43"/>
+      <c r="G425" s="43"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="41"/>
-      <c r="E426" s="42"/>
-      <c r="G426" s="42"/>
+      <c r="A426" s="42"/>
+      <c r="E426" s="43"/>
+      <c r="G426" s="43"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="41"/>
-      <c r="E427" s="42"/>
-      <c r="G427" s="42"/>
+      <c r="A427" s="42"/>
+      <c r="E427" s="43"/>
+      <c r="G427" s="43"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="41"/>
-      <c r="E428" s="42"/>
-      <c r="G428" s="42"/>
+      <c r="A428" s="42"/>
+      <c r="E428" s="43"/>
+      <c r="G428" s="43"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="41"/>
-      <c r="E429" s="42"/>
-      <c r="G429" s="42"/>
+      <c r="A429" s="42"/>
+      <c r="E429" s="43"/>
+      <c r="G429" s="43"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="41"/>
-      <c r="E430" s="42"/>
-      <c r="G430" s="42"/>
+      <c r="A430" s="42"/>
+      <c r="E430" s="43"/>
+      <c r="G430" s="43"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="41"/>
-      <c r="E431" s="42"/>
-      <c r="G431" s="42"/>
+      <c r="A431" s="42"/>
+      <c r="E431" s="43"/>
+      <c r="G431" s="43"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="41"/>
-      <c r="E432" s="42"/>
-      <c r="G432" s="42"/>
+      <c r="A432" s="42"/>
+      <c r="E432" s="43"/>
+      <c r="G432" s="43"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="41"/>
-      <c r="E433" s="42"/>
-      <c r="G433" s="42"/>
+      <c r="A433" s="42"/>
+      <c r="E433" s="43"/>
+      <c r="G433" s="43"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="41"/>
-      <c r="E434" s="42"/>
-      <c r="G434" s="42"/>
+      <c r="A434" s="42"/>
+      <c r="E434" s="43"/>
+      <c r="G434" s="43"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="41"/>
-      <c r="E435" s="42"/>
-      <c r="G435" s="42"/>
+      <c r="A435" s="42"/>
+      <c r="E435" s="43"/>
+      <c r="G435" s="43"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="41"/>
-      <c r="E436" s="42"/>
-      <c r="G436" s="42"/>
+      <c r="A436" s="42"/>
+      <c r="E436" s="43"/>
+      <c r="G436" s="43"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="41"/>
-      <c r="E437" s="42"/>
-      <c r="G437" s="42"/>
+      <c r="A437" s="42"/>
+      <c r="E437" s="43"/>
+      <c r="G437" s="43"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="41"/>
-      <c r="E438" s="42"/>
-      <c r="G438" s="42"/>
+      <c r="A438" s="42"/>
+      <c r="E438" s="43"/>
+      <c r="G438" s="43"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="41"/>
-      <c r="E439" s="42"/>
-      <c r="G439" s="42"/>
+      <c r="A439" s="42"/>
+      <c r="E439" s="43"/>
+      <c r="G439" s="43"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="41"/>
-      <c r="E440" s="42"/>
-      <c r="G440" s="42"/>
+      <c r="A440" s="42"/>
+      <c r="E440" s="43"/>
+      <c r="G440" s="43"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="41"/>
-      <c r="E441" s="42"/>
-      <c r="G441" s="42"/>
+      <c r="A441" s="42"/>
+      <c r="E441" s="43"/>
+      <c r="G441" s="43"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="41"/>
-      <c r="E442" s="42"/>
-      <c r="G442" s="42"/>
+      <c r="A442" s="42"/>
+      <c r="E442" s="43"/>
+      <c r="G442" s="43"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="41"/>
-      <c r="E443" s="42"/>
-      <c r="G443" s="42"/>
+      <c r="A443" s="42"/>
+      <c r="E443" s="43"/>
+      <c r="G443" s="43"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="41"/>
-      <c r="E444" s="42"/>
-      <c r="G444" s="42"/>
+      <c r="A444" s="42"/>
+      <c r="E444" s="43"/>
+      <c r="G444" s="43"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="41"/>
-      <c r="E445" s="42"/>
-      <c r="G445" s="42"/>
+      <c r="A445" s="42"/>
+      <c r="E445" s="43"/>
+      <c r="G445" s="43"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="41"/>
-      <c r="E446" s="42"/>
-      <c r="G446" s="42"/>
+      <c r="A446" s="42"/>
+      <c r="E446" s="43"/>
+      <c r="G446" s="43"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="41"/>
-      <c r="E447" s="42"/>
-      <c r="G447" s="42"/>
+      <c r="A447" s="42"/>
+      <c r="E447" s="43"/>
+      <c r="G447" s="43"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="41"/>
-      <c r="E448" s="42"/>
-      <c r="G448" s="42"/>
+      <c r="A448" s="42"/>
+      <c r="E448" s="43"/>
+      <c r="G448" s="43"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="41"/>
-      <c r="E449" s="42"/>
-      <c r="G449" s="42"/>
+      <c r="A449" s="42"/>
+      <c r="E449" s="43"/>
+      <c r="G449" s="43"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="41"/>
-      <c r="E450" s="42"/>
-      <c r="G450" s="42"/>
+      <c r="A450" s="42"/>
+      <c r="E450" s="43"/>
+      <c r="G450" s="43"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="41"/>
-      <c r="E451" s="42"/>
-      <c r="G451" s="42"/>
+      <c r="A451" s="42"/>
+      <c r="E451" s="43"/>
+      <c r="G451" s="43"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="41"/>
-      <c r="E452" s="42"/>
-      <c r="G452" s="42"/>
+      <c r="A452" s="42"/>
+      <c r="E452" s="43"/>
+      <c r="G452" s="43"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="41"/>
-      <c r="E453" s="42"/>
-      <c r="G453" s="42"/>
+      <c r="A453" s="42"/>
+      <c r="E453" s="43"/>
+      <c r="G453" s="43"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="41"/>
-      <c r="E454" s="42"/>
-      <c r="G454" s="42"/>
+      <c r="A454" s="42"/>
+      <c r="E454" s="43"/>
+      <c r="G454" s="43"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="41"/>
-      <c r="E455" s="42"/>
-      <c r="G455" s="42"/>
+      <c r="A455" s="42"/>
+      <c r="E455" s="43"/>
+      <c r="G455" s="43"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="41"/>
-      <c r="E456" s="42"/>
-      <c r="G456" s="42"/>
+      <c r="A456" s="42"/>
+      <c r="E456" s="43"/>
+      <c r="G456" s="43"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="41"/>
-      <c r="E457" s="42"/>
-      <c r="G457" s="42"/>
+      <c r="A457" s="42"/>
+      <c r="E457" s="43"/>
+      <c r="G457" s="43"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="41"/>
-      <c r="E458" s="42"/>
-      <c r="G458" s="42"/>
+      <c r="A458" s="42"/>
+      <c r="E458" s="43"/>
+      <c r="G458" s="43"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="41"/>
-      <c r="E459" s="42"/>
-      <c r="G459" s="42"/>
+      <c r="A459" s="42"/>
+      <c r="E459" s="43"/>
+      <c r="G459" s="43"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="41"/>
-      <c r="E460" s="42"/>
-      <c r="G460" s="42"/>
+      <c r="A460" s="42"/>
+      <c r="E460" s="43"/>
+      <c r="G460" s="43"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="41"/>
-      <c r="E461" s="42"/>
-      <c r="G461" s="42"/>
+      <c r="A461" s="42"/>
+      <c r="E461" s="43"/>
+      <c r="G461" s="43"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="41"/>
-      <c r="E462" s="42"/>
-      <c r="G462" s="42"/>
+      <c r="A462" s="42"/>
+      <c r="E462" s="43"/>
+      <c r="G462" s="43"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="41"/>
-      <c r="E463" s="42"/>
-      <c r="G463" s="42"/>
+      <c r="A463" s="42"/>
+      <c r="E463" s="43"/>
+      <c r="G463" s="43"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="41"/>
-      <c r="E464" s="42"/>
-      <c r="G464" s="42"/>
+      <c r="A464" s="42"/>
+      <c r="E464" s="43"/>
+      <c r="G464" s="43"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="41"/>
-      <c r="E465" s="42"/>
-      <c r="G465" s="42"/>
+      <c r="A465" s="42"/>
+      <c r="E465" s="43"/>
+      <c r="G465" s="43"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="41"/>
-      <c r="E466" s="42"/>
-      <c r="G466" s="42"/>
+      <c r="A466" s="42"/>
+      <c r="E466" s="43"/>
+      <c r="G466" s="43"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="41"/>
-      <c r="E467" s="42"/>
-      <c r="G467" s="42"/>
+      <c r="A467" s="42"/>
+      <c r="E467" s="43"/>
+      <c r="G467" s="43"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="41"/>
-      <c r="E468" s="42"/>
-      <c r="G468" s="42"/>
+      <c r="A468" s="42"/>
+      <c r="E468" s="43"/>
+      <c r="G468" s="43"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="41"/>
-      <c r="E469" s="42"/>
-      <c r="G469" s="42"/>
+      <c r="A469" s="42"/>
+      <c r="E469" s="43"/>
+      <c r="G469" s="43"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="41"/>
-      <c r="E470" s="42"/>
-      <c r="G470" s="42"/>
+      <c r="A470" s="42"/>
+      <c r="E470" s="43"/>
+      <c r="G470" s="43"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="41"/>
-      <c r="E471" s="42"/>
-      <c r="G471" s="42"/>
+      <c r="A471" s="42"/>
+      <c r="E471" s="43"/>
+      <c r="G471" s="43"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="41"/>
-      <c r="E472" s="42"/>
-      <c r="G472" s="42"/>
+      <c r="A472" s="42"/>
+      <c r="E472" s="43"/>
+      <c r="G472" s="43"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="41"/>
-      <c r="E473" s="42"/>
-      <c r="G473" s="42"/>
+      <c r="A473" s="42"/>
+      <c r="E473" s="43"/>
+      <c r="G473" s="43"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="41"/>
-      <c r="E474" s="42"/>
-      <c r="G474" s="42"/>
+      <c r="A474" s="42"/>
+      <c r="E474" s="43"/>
+      <c r="G474" s="43"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="41"/>
-      <c r="E475" s="42"/>
-      <c r="G475" s="42"/>
+      <c r="A475" s="42"/>
+      <c r="E475" s="43"/>
+      <c r="G475" s="43"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="41"/>
-      <c r="E476" s="42"/>
-      <c r="G476" s="42"/>
+      <c r="A476" s="42"/>
+      <c r="E476" s="43"/>
+      <c r="G476" s="43"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="41"/>
-      <c r="E477" s="42"/>
-      <c r="G477" s="42"/>
+      <c r="A477" s="42"/>
+      <c r="E477" s="43"/>
+      <c r="G477" s="43"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="41"/>
-      <c r="E478" s="42"/>
-      <c r="G478" s="42"/>
+      <c r="A478" s="42"/>
+      <c r="E478" s="43"/>
+      <c r="G478" s="43"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="41"/>
-      <c r="E479" s="42"/>
-      <c r="G479" s="42"/>
+      <c r="A479" s="42"/>
+      <c r="E479" s="43"/>
+      <c r="G479" s="43"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="41"/>
-      <c r="E480" s="42"/>
-      <c r="G480" s="42"/>
+      <c r="A480" s="42"/>
+      <c r="E480" s="43"/>
+      <c r="G480" s="43"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="41"/>
-      <c r="E481" s="42"/>
-      <c r="G481" s="42"/>
+      <c r="A481" s="42"/>
+      <c r="E481" s="43"/>
+      <c r="G481" s="43"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="41"/>
-      <c r="E482" s="42"/>
-      <c r="G482" s="42"/>
+      <c r="A482" s="42"/>
+      <c r="E482" s="43"/>
+      <c r="G482" s="43"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="41"/>
-      <c r="E483" s="42"/>
-      <c r="G483" s="42"/>
+      <c r="A483" s="42"/>
+      <c r="E483" s="43"/>
+      <c r="G483" s="43"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="41"/>
-      <c r="E484" s="42"/>
-      <c r="G484" s="42"/>
+      <c r="A484" s="42"/>
+      <c r="E484" s="43"/>
+      <c r="G484" s="43"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="41"/>
-      <c r="E485" s="42"/>
-      <c r="G485" s="42"/>
+      <c r="A485" s="42"/>
+      <c r="E485" s="43"/>
+      <c r="G485" s="43"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="41"/>
-      <c r="E486" s="42"/>
-      <c r="G486" s="42"/>
+      <c r="A486" s="42"/>
+      <c r="E486" s="43"/>
+      <c r="G486" s="43"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="41"/>
-      <c r="E487" s="42"/>
-      <c r="G487" s="42"/>
+      <c r="A487" s="42"/>
+      <c r="E487" s="43"/>
+      <c r="G487" s="43"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="41"/>
-      <c r="E488" s="42"/>
-      <c r="G488" s="42"/>
+      <c r="A488" s="42"/>
+      <c r="E488" s="43"/>
+      <c r="G488" s="43"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="41"/>
-      <c r="E489" s="42"/>
-      <c r="G489" s="42"/>
+      <c r="A489" s="42"/>
+      <c r="E489" s="43"/>
+      <c r="G489" s="43"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="41"/>
-      <c r="E490" s="42"/>
-      <c r="G490" s="42"/>
+      <c r="A490" s="42"/>
+      <c r="E490" s="43"/>
+      <c r="G490" s="43"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="41"/>
-      <c r="E491" s="42"/>
-      <c r="G491" s="42"/>
+      <c r="A491" s="42"/>
+      <c r="E491" s="43"/>
+      <c r="G491" s="43"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="41"/>
-      <c r="E492" s="42"/>
-      <c r="G492" s="42"/>
+      <c r="A492" s="42"/>
+      <c r="E492" s="43"/>
+      <c r="G492" s="43"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="41"/>
-      <c r="E493" s="42"/>
-      <c r="G493" s="42"/>
+      <c r="A493" s="42"/>
+      <c r="E493" s="43"/>
+      <c r="G493" s="43"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="41"/>
-      <c r="E494" s="42"/>
-      <c r="G494" s="42"/>
+      <c r="A494" s="42"/>
+      <c r="E494" s="43"/>
+      <c r="G494" s="43"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="41"/>
-      <c r="E495" s="42"/>
-      <c r="G495" s="42"/>
+      <c r="A495" s="42"/>
+      <c r="E495" s="43"/>
+      <c r="G495" s="43"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="41"/>
-      <c r="E496" s="42"/>
-      <c r="G496" s="42"/>
+      <c r="A496" s="42"/>
+      <c r="E496" s="43"/>
+      <c r="G496" s="43"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="41"/>
-      <c r="E497" s="42"/>
-      <c r="G497" s="42"/>
+      <c r="A497" s="42"/>
+      <c r="E497" s="43"/>
+      <c r="G497" s="43"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="41"/>
-      <c r="E498" s="42"/>
-      <c r="G498" s="42"/>
+      <c r="A498" s="42"/>
+      <c r="E498" s="43"/>
+      <c r="G498" s="43"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="41"/>
-      <c r="E499" s="42"/>
-      <c r="G499" s="42"/>
+      <c r="A499" s="42"/>
+      <c r="E499" s="43"/>
+      <c r="G499" s="43"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="41"/>
-      <c r="E500" s="42"/>
-      <c r="G500" s="42"/>
+      <c r="A500" s="42"/>
+      <c r="E500" s="43"/>
+      <c r="G500" s="43"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="41"/>
-      <c r="E501" s="42"/>
-      <c r="G501" s="42"/>
+      <c r="A501" s="42"/>
+      <c r="E501" s="43"/>
+      <c r="G501" s="43"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="41"/>
-      <c r="E502" s="42"/>
-      <c r="G502" s="42"/>
+      <c r="A502" s="42"/>
+      <c r="E502" s="43"/>
+      <c r="G502" s="43"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="41"/>
-      <c r="E503" s="42"/>
-      <c r="G503" s="42"/>
+      <c r="A503" s="42"/>
+      <c r="E503" s="43"/>
+      <c r="G503" s="43"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="41"/>
-      <c r="E504" s="42"/>
-      <c r="G504" s="42"/>
+      <c r="A504" s="42"/>
+      <c r="E504" s="43"/>
+      <c r="G504" s="43"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="41"/>
-      <c r="E505" s="42"/>
-      <c r="G505" s="42"/>
+      <c r="A505" s="42"/>
+      <c r="E505" s="43"/>
+      <c r="G505" s="43"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="41"/>
-      <c r="E506" s="42"/>
-      <c r="G506" s="42"/>
+      <c r="A506" s="42"/>
+      <c r="E506" s="43"/>
+      <c r="G506" s="43"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="41"/>
-      <c r="E507" s="42"/>
-      <c r="G507" s="42"/>
+      <c r="A507" s="42"/>
+      <c r="E507" s="43"/>
+      <c r="G507" s="43"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="41"/>
-      <c r="E508" s="42"/>
-      <c r="G508" s="42"/>
+      <c r="A508" s="42"/>
+      <c r="E508" s="43"/>
+      <c r="G508" s="43"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="41"/>
-      <c r="E509" s="42"/>
-      <c r="G509" s="42"/>
+      <c r="A509" s="42"/>
+      <c r="E509" s="43"/>
+      <c r="G509" s="43"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="41"/>
-      <c r="E510" s="42"/>
-      <c r="G510" s="42"/>
+      <c r="A510" s="42"/>
+      <c r="E510" s="43"/>
+      <c r="G510" s="43"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="41"/>
-      <c r="E511" s="42"/>
-      <c r="G511" s="42"/>
+      <c r="A511" s="42"/>
+      <c r="E511" s="43"/>
+      <c r="G511" s="43"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="41"/>
-      <c r="E512" s="42"/>
-      <c r="G512" s="42"/>
+      <c r="A512" s="42"/>
+      <c r="E512" s="43"/>
+      <c r="G512" s="43"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="41"/>
-      <c r="E513" s="42"/>
-      <c r="G513" s="42"/>
+      <c r="A513" s="42"/>
+      <c r="E513" s="43"/>
+      <c r="G513" s="43"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="41"/>
-      <c r="E514" s="42"/>
-      <c r="G514" s="42"/>
+      <c r="A514" s="42"/>
+      <c r="E514" s="43"/>
+      <c r="G514" s="43"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="41"/>
-      <c r="E515" s="42"/>
-      <c r="G515" s="42"/>
+      <c r="A515" s="42"/>
+      <c r="E515" s="43"/>
+      <c r="G515" s="43"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="41"/>
-      <c r="E516" s="42"/>
-      <c r="G516" s="42"/>
+      <c r="A516" s="42"/>
+      <c r="E516" s="43"/>
+      <c r="G516" s="43"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="41"/>
-      <c r="E517" s="42"/>
-      <c r="G517" s="42"/>
+      <c r="A517" s="42"/>
+      <c r="E517" s="43"/>
+      <c r="G517" s="43"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="41"/>
-      <c r="E518" s="42"/>
-      <c r="G518" s="42"/>
+      <c r="A518" s="42"/>
+      <c r="E518" s="43"/>
+      <c r="G518" s="43"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="41"/>
-      <c r="E519" s="42"/>
-      <c r="G519" s="42"/>
+      <c r="A519" s="42"/>
+      <c r="E519" s="43"/>
+      <c r="G519" s="43"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="41"/>
-      <c r="E520" s="42"/>
-      <c r="G520" s="42"/>
+      <c r="A520" s="42"/>
+      <c r="E520" s="43"/>
+      <c r="G520" s="43"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="41"/>
-      <c r="E521" s="42"/>
-      <c r="G521" s="42"/>
+      <c r="A521" s="42"/>
+      <c r="E521" s="43"/>
+      <c r="G521" s="43"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="41"/>
-      <c r="E522" s="42"/>
-      <c r="G522" s="42"/>
+      <c r="A522" s="42"/>
+      <c r="E522" s="43"/>
+      <c r="G522" s="43"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="41"/>
-      <c r="E523" s="42"/>
-      <c r="G523" s="42"/>
+      <c r="A523" s="42"/>
+      <c r="E523" s="43"/>
+      <c r="G523" s="43"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="41"/>
-      <c r="E524" s="42"/>
-      <c r="G524" s="42"/>
+      <c r="A524" s="42"/>
+      <c r="E524" s="43"/>
+      <c r="G524" s="43"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="41"/>
-      <c r="E525" s="42"/>
-      <c r="G525" s="42"/>
+      <c r="A525" s="42"/>
+      <c r="E525" s="43"/>
+      <c r="G525" s="43"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="41"/>
-      <c r="E526" s="42"/>
-      <c r="G526" s="42"/>
+      <c r="A526" s="42"/>
+      <c r="E526" s="43"/>
+      <c r="G526" s="43"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="41"/>
-      <c r="E527" s="42"/>
-      <c r="G527" s="42"/>
+      <c r="A527" s="42"/>
+      <c r="E527" s="43"/>
+      <c r="G527" s="43"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="41"/>
-      <c r="E528" s="42"/>
-      <c r="G528" s="42"/>
+      <c r="A528" s="42"/>
+      <c r="E528" s="43"/>
+      <c r="G528" s="43"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="41"/>
-      <c r="E529" s="42"/>
-      <c r="G529" s="42"/>
+      <c r="A529" s="42"/>
+      <c r="E529" s="43"/>
+      <c r="G529" s="43"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="41"/>
-      <c r="E530" s="42"/>
-      <c r="G530" s="42"/>
+      <c r="A530" s="42"/>
+      <c r="E530" s="43"/>
+      <c r="G530" s="43"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="41"/>
-      <c r="E531" s="42"/>
-      <c r="G531" s="42"/>
+      <c r="A531" s="42"/>
+      <c r="E531" s="43"/>
+      <c r="G531" s="43"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="41"/>
-      <c r="E532" s="42"/>
-      <c r="G532" s="42"/>
+      <c r="A532" s="42"/>
+      <c r="E532" s="43"/>
+      <c r="G532" s="43"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="41"/>
-      <c r="E533" s="42"/>
-      <c r="G533" s="42"/>
+      <c r="A533" s="42"/>
+      <c r="E533" s="43"/>
+      <c r="G533" s="43"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="41"/>
-      <c r="E534" s="42"/>
-      <c r="G534" s="42"/>
+      <c r="A534" s="42"/>
+      <c r="E534" s="43"/>
+      <c r="G534" s="43"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="41"/>
-      <c r="E535" s="42"/>
-      <c r="G535" s="42"/>
+      <c r="A535" s="42"/>
+      <c r="E535" s="43"/>
+      <c r="G535" s="43"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="41"/>
-      <c r="E536" s="42"/>
-      <c r="G536" s="42"/>
+      <c r="A536" s="42"/>
+      <c r="E536" s="43"/>
+      <c r="G536" s="43"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="41"/>
-      <c r="E537" s="42"/>
-      <c r="G537" s="42"/>
+      <c r="A537" s="42"/>
+      <c r="E537" s="43"/>
+      <c r="G537" s="43"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="41"/>
-      <c r="E538" s="42"/>
-      <c r="G538" s="42"/>
+      <c r="A538" s="42"/>
+      <c r="E538" s="43"/>
+      <c r="G538" s="43"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="41"/>
-      <c r="E539" s="42"/>
-      <c r="G539" s="42"/>
+      <c r="A539" s="42"/>
+      <c r="E539" s="43"/>
+      <c r="G539" s="43"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="41"/>
-      <c r="E540" s="42"/>
-      <c r="G540" s="42"/>
+      <c r="A540" s="42"/>
+      <c r="E540" s="43"/>
+      <c r="G540" s="43"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="41"/>
-      <c r="E541" s="42"/>
-      <c r="G541" s="42"/>
+      <c r="A541" s="42"/>
+      <c r="E541" s="43"/>
+      <c r="G541" s="43"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="41"/>
-      <c r="E542" s="42"/>
-      <c r="G542" s="42"/>
+      <c r="A542" s="42"/>
+      <c r="E542" s="43"/>
+      <c r="G542" s="43"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="41"/>
-      <c r="E543" s="42"/>
-      <c r="G543" s="42"/>
+      <c r="A543" s="42"/>
+      <c r="E543" s="43"/>
+      <c r="G543" s="43"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="41"/>
-      <c r="E544" s="42"/>
-      <c r="G544" s="42"/>
+      <c r="A544" s="42"/>
+      <c r="E544" s="43"/>
+      <c r="G544" s="43"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="41"/>
-      <c r="E545" s="42"/>
-      <c r="G545" s="42"/>
+      <c r="A545" s="42"/>
+      <c r="E545" s="43"/>
+      <c r="G545" s="43"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="41"/>
-      <c r="E546" s="42"/>
-      <c r="G546" s="42"/>
+      <c r="A546" s="42"/>
+      <c r="E546" s="43"/>
+      <c r="G546" s="43"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="41"/>
-      <c r="E547" s="42"/>
-      <c r="G547" s="42"/>
+      <c r="A547" s="42"/>
+      <c r="E547" s="43"/>
+      <c r="G547" s="43"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="41"/>
-      <c r="E548" s="42"/>
-      <c r="G548" s="42"/>
+      <c r="A548" s="42"/>
+      <c r="E548" s="43"/>
+      <c r="G548" s="43"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="41"/>
-      <c r="E549" s="42"/>
-      <c r="G549" s="42"/>
+      <c r="A549" s="42"/>
+      <c r="E549" s="43"/>
+      <c r="G549" s="43"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="41"/>
-      <c r="E550" s="42"/>
-      <c r="G550" s="42"/>
+      <c r="A550" s="42"/>
+      <c r="E550" s="43"/>
+      <c r="G550" s="43"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="41"/>
-      <c r="E551" s="42"/>
-      <c r="G551" s="42"/>
+      <c r="A551" s="42"/>
+      <c r="E551" s="43"/>
+      <c r="G551" s="43"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="41"/>
-      <c r="E552" s="42"/>
-      <c r="G552" s="42"/>
+      <c r="A552" s="42"/>
+      <c r="E552" s="43"/>
+      <c r="G552" s="43"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="41"/>
-      <c r="E553" s="42"/>
-      <c r="G553" s="42"/>
+      <c r="A553" s="42"/>
+      <c r="E553" s="43"/>
+      <c r="G553" s="43"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="41"/>
-      <c r="E554" s="42"/>
-      <c r="G554" s="42"/>
+      <c r="A554" s="42"/>
+      <c r="E554" s="43"/>
+      <c r="G554" s="43"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="41"/>
-      <c r="E555" s="42"/>
-      <c r="G555" s="42"/>
+      <c r="A555" s="42"/>
+      <c r="E555" s="43"/>
+      <c r="G555" s="43"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="41"/>
-      <c r="E556" s="42"/>
-      <c r="G556" s="42"/>
+      <c r="A556" s="42"/>
+      <c r="E556" s="43"/>
+      <c r="G556" s="43"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="41"/>
-      <c r="E557" s="42"/>
-      <c r="G557" s="42"/>
+      <c r="A557" s="42"/>
+      <c r="E557" s="43"/>
+      <c r="G557" s="43"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="41"/>
-      <c r="E558" s="42"/>
-      <c r="G558" s="42"/>
+      <c r="A558" s="42"/>
+      <c r="E558" s="43"/>
+      <c r="G558" s="43"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="41"/>
-      <c r="E559" s="42"/>
-      <c r="G559" s="42"/>
+      <c r="A559" s="42"/>
+      <c r="E559" s="43"/>
+      <c r="G559" s="43"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="41"/>
-      <c r="E560" s="42"/>
-      <c r="G560" s="42"/>
+      <c r="A560" s="42"/>
+      <c r="E560" s="43"/>
+      <c r="G560" s="43"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="41"/>
-      <c r="E561" s="42"/>
-      <c r="G561" s="42"/>
+      <c r="A561" s="42"/>
+      <c r="E561" s="43"/>
+      <c r="G561" s="43"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="41"/>
-      <c r="E562" s="42"/>
-      <c r="G562" s="42"/>
+      <c r="A562" s="42"/>
+      <c r="E562" s="43"/>
+      <c r="G562" s="43"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="41"/>
-      <c r="E563" s="42"/>
-      <c r="G563" s="42"/>
+      <c r="A563" s="42"/>
+      <c r="E563" s="43"/>
+      <c r="G563" s="43"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="41"/>
-      <c r="E564" s="42"/>
-      <c r="G564" s="42"/>
+      <c r="A564" s="42"/>
+      <c r="E564" s="43"/>
+      <c r="G564" s="43"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="41"/>
-      <c r="E565" s="42"/>
-      <c r="G565" s="42"/>
+      <c r="A565" s="42"/>
+      <c r="E565" s="43"/>
+      <c r="G565" s="43"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="41"/>
-      <c r="E566" s="42"/>
-      <c r="G566" s="42"/>
+      <c r="A566" s="42"/>
+      <c r="E566" s="43"/>
+      <c r="G566" s="43"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="41"/>
-      <c r="E567" s="42"/>
-      <c r="G567" s="42"/>
+      <c r="A567" s="42"/>
+      <c r="E567" s="43"/>
+      <c r="G567" s="43"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="41"/>
-      <c r="E568" s="42"/>
-      <c r="G568" s="42"/>
+      <c r="A568" s="42"/>
+      <c r="E568" s="43"/>
+      <c r="G568" s="43"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="41"/>
-      <c r="E569" s="42"/>
-      <c r="G569" s="42"/>
+      <c r="A569" s="42"/>
+      <c r="E569" s="43"/>
+      <c r="G569" s="43"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="41"/>
-      <c r="E570" s="42"/>
-      <c r="G570" s="42"/>
+      <c r="A570" s="42"/>
+      <c r="E570" s="43"/>
+      <c r="G570" s="43"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="41"/>
-      <c r="E571" s="42"/>
-      <c r="G571" s="42"/>
+      <c r="A571" s="42"/>
+      <c r="E571" s="43"/>
+      <c r="G571" s="43"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="41"/>
-      <c r="E572" s="42"/>
-      <c r="G572" s="42"/>
+      <c r="A572" s="42"/>
+      <c r="E572" s="43"/>
+      <c r="G572" s="43"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="41"/>
-      <c r="E573" s="42"/>
-      <c r="G573" s="42"/>
+      <c r="A573" s="42"/>
+      <c r="E573" s="43"/>
+      <c r="G573" s="43"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="41"/>
-      <c r="E574" s="42"/>
-      <c r="G574" s="42"/>
+      <c r="A574" s="42"/>
+      <c r="E574" s="43"/>
+      <c r="G574" s="43"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="41"/>
-      <c r="E575" s="42"/>
-      <c r="G575" s="42"/>
+      <c r="A575" s="42"/>
+      <c r="E575" s="43"/>
+      <c r="G575" s="43"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="41"/>
-      <c r="E576" s="42"/>
-      <c r="G576" s="42"/>
+      <c r="A576" s="42"/>
+      <c r="E576" s="43"/>
+      <c r="G576" s="43"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="41"/>
-      <c r="E577" s="42"/>
-      <c r="G577" s="42"/>
+      <c r="A577" s="42"/>
+      <c r="E577" s="43"/>
+      <c r="G577" s="43"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="41"/>
-      <c r="E578" s="42"/>
-      <c r="G578" s="42"/>
+      <c r="A578" s="42"/>
+      <c r="E578" s="43"/>
+      <c r="G578" s="43"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="41"/>
-      <c r="E579" s="42"/>
-      <c r="G579" s="42"/>
+      <c r="A579" s="42"/>
+      <c r="E579" s="43"/>
+      <c r="G579" s="43"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="41"/>
-      <c r="E580" s="42"/>
-      <c r="G580" s="42"/>
+      <c r="A580" s="42"/>
+      <c r="E580" s="43"/>
+      <c r="G580" s="43"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="41"/>
-      <c r="E581" s="42"/>
-      <c r="G581" s="42"/>
+      <c r="A581" s="42"/>
+      <c r="E581" s="43"/>
+      <c r="G581" s="43"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="41"/>
-      <c r="E582" s="42"/>
-      <c r="G582" s="42"/>
+      <c r="A582" s="42"/>
+      <c r="E582" s="43"/>
+      <c r="G582" s="43"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="41"/>
-      <c r="E583" s="42"/>
-      <c r="G583" s="42"/>
+      <c r="A583" s="42"/>
+      <c r="E583" s="43"/>
+      <c r="G583" s="43"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="41"/>
-      <c r="E584" s="42"/>
-      <c r="G584" s="42"/>
+      <c r="A584" s="42"/>
+      <c r="E584" s="43"/>
+      <c r="G584" s="43"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="41"/>
-      <c r="E585" s="42"/>
-      <c r="G585" s="42"/>
+      <c r="A585" s="42"/>
+      <c r="E585" s="43"/>
+      <c r="G585" s="43"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="41"/>
-      <c r="E586" s="42"/>
-      <c r="G586" s="42"/>
+      <c r="A586" s="42"/>
+      <c r="E586" s="43"/>
+      <c r="G586" s="43"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="41"/>
-      <c r="E587" s="42"/>
-      <c r="G587" s="42"/>
+      <c r="A587" s="42"/>
+      <c r="E587" s="43"/>
+      <c r="G587" s="43"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="41"/>
-      <c r="E588" s="42"/>
-      <c r="G588" s="42"/>
+      <c r="A588" s="42"/>
+      <c r="E588" s="43"/>
+      <c r="G588" s="43"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="41"/>
-      <c r="E589" s="42"/>
-      <c r="G589" s="42"/>
+      <c r="A589" s="42"/>
+      <c r="E589" s="43"/>
+      <c r="G589" s="43"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="41"/>
-      <c r="E590" s="42"/>
-      <c r="G590" s="42"/>
+      <c r="A590" s="42"/>
+      <c r="E590" s="43"/>
+      <c r="G590" s="43"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="41"/>
-      <c r="E591" s="42"/>
-      <c r="G591" s="42"/>
+      <c r="A591" s="42"/>
+      <c r="E591" s="43"/>
+      <c r="G591" s="43"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="41"/>
-      <c r="E592" s="42"/>
-      <c r="G592" s="42"/>
+      <c r="A592" s="42"/>
+      <c r="E592" s="43"/>
+      <c r="G592" s="43"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="41"/>
-      <c r="E593" s="42"/>
-      <c r="G593" s="42"/>
+      <c r="A593" s="42"/>
+      <c r="E593" s="43"/>
+      <c r="G593" s="43"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="41"/>
-      <c r="E594" s="42"/>
-      <c r="G594" s="42"/>
+      <c r="A594" s="42"/>
+      <c r="E594" s="43"/>
+      <c r="G594" s="43"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="41"/>
-      <c r="E595" s="42"/>
-      <c r="G595" s="42"/>
+      <c r="A595" s="42"/>
+      <c r="E595" s="43"/>
+      <c r="G595" s="43"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="41"/>
-      <c r="E596" s="42"/>
-      <c r="G596" s="42"/>
+      <c r="A596" s="42"/>
+      <c r="E596" s="43"/>
+      <c r="G596" s="43"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="41"/>
-      <c r="E597" s="42"/>
-      <c r="G597" s="42"/>
+      <c r="A597" s="42"/>
+      <c r="E597" s="43"/>
+      <c r="G597" s="43"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="41"/>
-      <c r="E598" s="42"/>
-      <c r="G598" s="42"/>
+      <c r="A598" s="42"/>
+      <c r="E598" s="43"/>
+      <c r="G598" s="43"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="41"/>
-      <c r="E599" s="42"/>
-      <c r="G599" s="42"/>
+      <c r="A599" s="42"/>
+      <c r="E599" s="43"/>
+      <c r="G599" s="43"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="41"/>
-      <c r="E600" s="42"/>
-      <c r="G600" s="42"/>
+      <c r="A600" s="42"/>
+      <c r="E600" s="43"/>
+      <c r="G600" s="43"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="41"/>
-      <c r="E601" s="42"/>
-      <c r="G601" s="42"/>
+      <c r="A601" s="42"/>
+      <c r="E601" s="43"/>
+      <c r="G601" s="43"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="41"/>
-      <c r="E602" s="42"/>
-      <c r="G602" s="42"/>
+      <c r="A602" s="42"/>
+      <c r="E602" s="43"/>
+      <c r="G602" s="43"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="41"/>
-      <c r="E603" s="42"/>
-      <c r="G603" s="42"/>
+      <c r="A603" s="42"/>
+      <c r="E603" s="43"/>
+      <c r="G603" s="43"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="41"/>
-      <c r="E604" s="42"/>
-      <c r="G604" s="42"/>
+      <c r="A604" s="42"/>
+      <c r="E604" s="43"/>
+      <c r="G604" s="43"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="41"/>
-      <c r="E605" s="42"/>
-      <c r="G605" s="42"/>
+      <c r="A605" s="42"/>
+      <c r="E605" s="43"/>
+      <c r="G605" s="43"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="41"/>
-      <c r="E606" s="42"/>
-      <c r="G606" s="42"/>
+      <c r="A606" s="42"/>
+      <c r="E606" s="43"/>
+      <c r="G606" s="43"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="41"/>
-      <c r="E607" s="42"/>
-      <c r="G607" s="42"/>
+      <c r="A607" s="42"/>
+      <c r="E607" s="43"/>
+      <c r="G607" s="43"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="41"/>
-      <c r="E608" s="42"/>
-      <c r="G608" s="42"/>
+      <c r="A608" s="42"/>
+      <c r="E608" s="43"/>
+      <c r="G608" s="43"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="41"/>
-      <c r="E609" s="42"/>
-      <c r="G609" s="42"/>
+      <c r="A609" s="42"/>
+      <c r="E609" s="43"/>
+      <c r="G609" s="43"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="41"/>
-      <c r="E610" s="42"/>
-      <c r="G610" s="42"/>
+      <c r="A610" s="42"/>
+      <c r="E610" s="43"/>
+      <c r="G610" s="43"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="41"/>
-      <c r="E611" s="42"/>
-      <c r="G611" s="42"/>
+      <c r="A611" s="42"/>
+      <c r="E611" s="43"/>
+      <c r="G611" s="43"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="41"/>
-      <c r="E612" s="42"/>
-      <c r="G612" s="42"/>
+      <c r="A612" s="42"/>
+      <c r="E612" s="43"/>
+      <c r="G612" s="43"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="41"/>
-      <c r="E613" s="42"/>
-      <c r="G613" s="42"/>
+      <c r="A613" s="42"/>
+      <c r="E613" s="43"/>
+      <c r="G613" s="43"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="41"/>
-      <c r="E614" s="42"/>
-      <c r="G614" s="42"/>
+      <c r="A614" s="42"/>
+      <c r="E614" s="43"/>
+      <c r="G614" s="43"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="41"/>
-      <c r="E615" s="42"/>
-      <c r="G615" s="42"/>
+      <c r="A615" s="42"/>
+      <c r="E615" s="43"/>
+      <c r="G615" s="43"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="41"/>
-      <c r="E616" s="42"/>
-      <c r="G616" s="42"/>
+      <c r="A616" s="42"/>
+      <c r="E616" s="43"/>
+      <c r="G616" s="43"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="41"/>
-      <c r="E617" s="42"/>
-      <c r="G617" s="42"/>
+      <c r="A617" s="42"/>
+      <c r="E617" s="43"/>
+      <c r="G617" s="43"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="41"/>
-      <c r="E618" s="42"/>
-      <c r="G618" s="42"/>
+      <c r="A618" s="42"/>
+      <c r="E618" s="43"/>
+      <c r="G618" s="43"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="41"/>
-      <c r="E619" s="42"/>
-      <c r="G619" s="42"/>
+      <c r="A619" s="42"/>
+      <c r="E619" s="43"/>
+      <c r="G619" s="43"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="41"/>
-      <c r="E620" s="42"/>
-      <c r="G620" s="42"/>
+      <c r="A620" s="42"/>
+      <c r="E620" s="43"/>
+      <c r="G620" s="43"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="41"/>
-      <c r="E621" s="42"/>
-      <c r="G621" s="42"/>
+      <c r="A621" s="42"/>
+      <c r="E621" s="43"/>
+      <c r="G621" s="43"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="41"/>
-      <c r="E622" s="42"/>
-      <c r="G622" s="42"/>
+      <c r="A622" s="42"/>
+      <c r="E622" s="43"/>
+      <c r="G622" s="43"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="41"/>
-      <c r="E623" s="42"/>
-      <c r="G623" s="42"/>
+      <c r="A623" s="42"/>
+      <c r="E623" s="43"/>
+      <c r="G623" s="43"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="41"/>
-      <c r="E624" s="42"/>
-      <c r="G624" s="42"/>
+      <c r="A624" s="42"/>
+      <c r="E624" s="43"/>
+      <c r="G624" s="43"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="41"/>
-      <c r="E625" s="42"/>
-      <c r="G625" s="42"/>
+      <c r="A625" s="42"/>
+      <c r="E625" s="43"/>
+      <c r="G625" s="43"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="41"/>
-      <c r="E626" s="42"/>
-      <c r="G626" s="42"/>
+      <c r="A626" s="42"/>
+      <c r="E626" s="43"/>
+      <c r="G626" s="43"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="41"/>
-      <c r="E627" s="42"/>
-      <c r="G627" s="42"/>
+      <c r="A627" s="42"/>
+      <c r="E627" s="43"/>
+      <c r="G627" s="43"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="41"/>
-      <c r="E628" s="42"/>
-      <c r="G628" s="42"/>
+      <c r="A628" s="42"/>
+      <c r="E628" s="43"/>
+      <c r="G628" s="43"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="41"/>
-      <c r="E629" s="42"/>
-      <c r="G629" s="42"/>
+      <c r="A629" s="42"/>
+      <c r="E629" s="43"/>
+      <c r="G629" s="43"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="41"/>
-      <c r="E630" s="42"/>
-      <c r="G630" s="42"/>
+      <c r="A630" s="42"/>
+      <c r="E630" s="43"/>
+      <c r="G630" s="43"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="41"/>
-      <c r="E631" s="42"/>
-      <c r="G631" s="42"/>
+      <c r="A631" s="42"/>
+      <c r="E631" s="43"/>
+      <c r="G631" s="43"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="41"/>
-      <c r="E632" s="42"/>
-      <c r="G632" s="42"/>
+      <c r="A632" s="42"/>
+      <c r="E632" s="43"/>
+      <c r="G632" s="43"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="41"/>
-      <c r="E633" s="42"/>
-      <c r="G633" s="42"/>
+      <c r="A633" s="42"/>
+      <c r="E633" s="43"/>
+      <c r="G633" s="43"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="41"/>
-      <c r="E634" s="42"/>
-      <c r="G634" s="42"/>
+      <c r="A634" s="42"/>
+      <c r="E634" s="43"/>
+      <c r="G634" s="43"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="41"/>
-      <c r="E635" s="42"/>
-      <c r="G635" s="42"/>
+      <c r="A635" s="42"/>
+      <c r="E635" s="43"/>
+      <c r="G635" s="43"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="41"/>
-      <c r="E636" s="42"/>
-      <c r="G636" s="42"/>
+      <c r="A636" s="42"/>
+      <c r="E636" s="43"/>
+      <c r="G636" s="43"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="41"/>
-      <c r="E637" s="42"/>
-      <c r="G637" s="42"/>
+      <c r="A637" s="42"/>
+      <c r="E637" s="43"/>
+      <c r="G637" s="43"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="41"/>
-      <c r="E638" s="42"/>
-      <c r="G638" s="42"/>
+      <c r="A638" s="42"/>
+      <c r="E638" s="43"/>
+      <c r="G638" s="43"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="41"/>
-      <c r="E639" s="42"/>
-      <c r="G639" s="42"/>
+      <c r="A639" s="42"/>
+      <c r="E639" s="43"/>
+      <c r="G639" s="43"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="41"/>
-      <c r="E640" s="42"/>
-      <c r="G640" s="42"/>
+      <c r="A640" s="42"/>
+      <c r="E640" s="43"/>
+      <c r="G640" s="43"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="41"/>
-      <c r="E641" s="42"/>
-      <c r="G641" s="42"/>
+      <c r="A641" s="42"/>
+      <c r="E641" s="43"/>
+      <c r="G641" s="43"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="41"/>
-      <c r="E642" s="42"/>
-      <c r="G642" s="42"/>
+      <c r="A642" s="42"/>
+      <c r="E642" s="43"/>
+      <c r="G642" s="43"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="41"/>
-      <c r="E643" s="42"/>
-      <c r="G643" s="42"/>
+      <c r="A643" s="42"/>
+      <c r="E643" s="43"/>
+      <c r="G643" s="43"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="41"/>
-      <c r="E644" s="42"/>
-      <c r="G644" s="42"/>
+      <c r="A644" s="42"/>
+      <c r="E644" s="43"/>
+      <c r="G644" s="43"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="41"/>
-      <c r="E645" s="42"/>
-      <c r="G645" s="42"/>
+      <c r="A645" s="42"/>
+      <c r="E645" s="43"/>
+      <c r="G645" s="43"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="41"/>
-      <c r="E646" s="42"/>
-      <c r="G646" s="42"/>
+      <c r="A646" s="42"/>
+      <c r="E646" s="43"/>
+      <c r="G646" s="43"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="41"/>
-      <c r="E647" s="42"/>
-      <c r="G647" s="42"/>
+      <c r="A647" s="42"/>
+      <c r="E647" s="43"/>
+      <c r="G647" s="43"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="41"/>
-      <c r="E648" s="42"/>
-      <c r="G648" s="42"/>
+      <c r="A648" s="42"/>
+      <c r="E648" s="43"/>
+      <c r="G648" s="43"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="41"/>
-      <c r="E649" s="42"/>
-      <c r="G649" s="42"/>
+      <c r="A649" s="42"/>
+      <c r="E649" s="43"/>
+      <c r="G649" s="43"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="41"/>
-      <c r="E650" s="42"/>
-      <c r="G650" s="42"/>
+      <c r="A650" s="42"/>
+      <c r="E650" s="43"/>
+      <c r="G650" s="43"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="41"/>
-      <c r="E651" s="42"/>
-      <c r="G651" s="42"/>
+      <c r="A651" s="42"/>
+      <c r="E651" s="43"/>
+      <c r="G651" s="43"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="41"/>
-      <c r="E652" s="42"/>
-      <c r="G652" s="42"/>
+      <c r="A652" s="42"/>
+      <c r="E652" s="43"/>
+      <c r="G652" s="43"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="41"/>
-      <c r="E653" s="42"/>
-      <c r="G653" s="42"/>
+      <c r="A653" s="42"/>
+      <c r="E653" s="43"/>
+      <c r="G653" s="43"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="41"/>
-      <c r="E654" s="42"/>
-      <c r="G654" s="42"/>
+      <c r="A654" s="42"/>
+      <c r="E654" s="43"/>
+      <c r="G654" s="43"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="41"/>
-      <c r="E655" s="42"/>
-      <c r="G655" s="42"/>
+      <c r="A655" s="42"/>
+      <c r="E655" s="43"/>
+      <c r="G655" s="43"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="41"/>
-      <c r="E656" s="42"/>
-      <c r="G656" s="42"/>
+      <c r="A656" s="42"/>
+      <c r="E656" s="43"/>
+      <c r="G656" s="43"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="41"/>
-      <c r="E657" s="42"/>
-      <c r="G657" s="42"/>
+      <c r="A657" s="42"/>
+      <c r="E657" s="43"/>
+      <c r="G657" s="43"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="41"/>
-      <c r="E658" s="42"/>
-      <c r="G658" s="42"/>
+      <c r="A658" s="42"/>
+      <c r="E658" s="43"/>
+      <c r="G658" s="43"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="41"/>
-      <c r="E659" s="42"/>
-      <c r="G659" s="42"/>
+      <c r="A659" s="42"/>
+      <c r="E659" s="43"/>
+      <c r="G659" s="43"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="41"/>
-      <c r="E660" s="42"/>
-      <c r="G660" s="42"/>
+      <c r="A660" s="42"/>
+      <c r="E660" s="43"/>
+      <c r="G660" s="43"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="41"/>
-      <c r="E661" s="42"/>
-      <c r="G661" s="42"/>
+      <c r="A661" s="42"/>
+      <c r="E661" s="43"/>
+      <c r="G661" s="43"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="41"/>
-      <c r="E662" s="42"/>
-      <c r="G662" s="42"/>
+      <c r="A662" s="42"/>
+      <c r="E662" s="43"/>
+      <c r="G662" s="43"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="41"/>
-      <c r="E663" s="42"/>
-      <c r="G663" s="42"/>
+      <c r="A663" s="42"/>
+      <c r="E663" s="43"/>
+      <c r="G663" s="43"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="41"/>
-      <c r="E664" s="42"/>
-      <c r="G664" s="42"/>
+      <c r="A664" s="42"/>
+      <c r="E664" s="43"/>
+      <c r="G664" s="43"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="41"/>
-      <c r="E665" s="42"/>
-      <c r="G665" s="42"/>
+      <c r="A665" s="42"/>
+      <c r="E665" s="43"/>
+      <c r="G665" s="43"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="41"/>
-      <c r="E666" s="42"/>
-      <c r="G666" s="42"/>
+      <c r="A666" s="42"/>
+      <c r="E666" s="43"/>
+      <c r="G666" s="43"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="41"/>
-      <c r="E667" s="42"/>
-      <c r="G667" s="42"/>
+      <c r="A667" s="42"/>
+      <c r="E667" s="43"/>
+      <c r="G667" s="43"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="41"/>
-      <c r="E668" s="42"/>
-      <c r="G668" s="42"/>
+      <c r="A668" s="42"/>
+      <c r="E668" s="43"/>
+      <c r="G668" s="43"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="41"/>
-      <c r="E669" s="42"/>
-      <c r="G669" s="42"/>
+      <c r="A669" s="42"/>
+      <c r="E669" s="43"/>
+      <c r="G669" s="43"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="41"/>
-      <c r="E670" s="42"/>
-      <c r="G670" s="42"/>
+      <c r="A670" s="42"/>
+      <c r="E670" s="43"/>
+      <c r="G670" s="43"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="41"/>
-      <c r="E671" s="42"/>
-      <c r="G671" s="42"/>
+      <c r="A671" s="42"/>
+      <c r="E671" s="43"/>
+      <c r="G671" s="43"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="41"/>
-      <c r="E672" s="42"/>
-      <c r="G672" s="42"/>
+      <c r="A672" s="42"/>
+      <c r="E672" s="43"/>
+      <c r="G672" s="43"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="41"/>
-      <c r="E673" s="42"/>
-      <c r="G673" s="42"/>
+      <c r="A673" s="42"/>
+      <c r="E673" s="43"/>
+      <c r="G673" s="43"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="41"/>
-      <c r="E674" s="42"/>
-      <c r="G674" s="42"/>
+      <c r="A674" s="42"/>
+      <c r="E674" s="43"/>
+      <c r="G674" s="43"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="41"/>
-      <c r="E675" s="42"/>
-      <c r="G675" s="42"/>
+      <c r="A675" s="42"/>
+      <c r="E675" s="43"/>
+      <c r="G675" s="43"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="41"/>
-      <c r="E676" s="42"/>
-      <c r="G676" s="42"/>
+      <c r="A676" s="42"/>
+      <c r="E676" s="43"/>
+      <c r="G676" s="43"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="41"/>
-      <c r="E677" s="42"/>
-      <c r="G677" s="42"/>
+      <c r="A677" s="42"/>
+      <c r="E677" s="43"/>
+      <c r="G677" s="43"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="41"/>
-      <c r="E678" s="42"/>
-      <c r="G678" s="42"/>
+      <c r="A678" s="42"/>
+      <c r="E678" s="43"/>
+      <c r="G678" s="43"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="41"/>
-      <c r="E679" s="42"/>
-      <c r="G679" s="42"/>
+      <c r="A679" s="42"/>
+      <c r="E679" s="43"/>
+      <c r="G679" s="43"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="41"/>
-      <c r="E680" s="42"/>
-      <c r="G680" s="42"/>
+      <c r="A680" s="42"/>
+      <c r="E680" s="43"/>
+      <c r="G680" s="43"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="41"/>
-      <c r="E681" s="42"/>
-      <c r="G681" s="42"/>
+      <c r="A681" s="42"/>
+      <c r="E681" s="43"/>
+      <c r="G681" s="43"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="41"/>
-      <c r="E682" s="42"/>
-      <c r="G682" s="42"/>
+      <c r="A682" s="42"/>
+      <c r="E682" s="43"/>
+      <c r="G682" s="43"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="41"/>
-      <c r="E683" s="42"/>
-      <c r="G683" s="42"/>
+      <c r="A683" s="42"/>
+      <c r="E683" s="43"/>
+      <c r="G683" s="43"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="41"/>
-      <c r="E684" s="42"/>
-      <c r="G684" s="42"/>
+      <c r="A684" s="42"/>
+      <c r="E684" s="43"/>
+      <c r="G684" s="43"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="41"/>
-      <c r="E685" s="42"/>
-      <c r="G685" s="42"/>
+      <c r="A685" s="42"/>
+      <c r="E685" s="43"/>
+      <c r="G685" s="43"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="41"/>
-      <c r="E686" s="42"/>
-      <c r="G686" s="42"/>
+      <c r="A686" s="42"/>
+      <c r="E686" s="43"/>
+      <c r="G686" s="43"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="41"/>
-      <c r="E687" s="42"/>
-      <c r="G687" s="42"/>
+      <c r="A687" s="42"/>
+      <c r="E687" s="43"/>
+      <c r="G687" s="43"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="41"/>
-      <c r="E688" s="42"/>
-      <c r="G688" s="42"/>
+      <c r="A688" s="42"/>
+      <c r="E688" s="43"/>
+      <c r="G688" s="43"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="41"/>
-      <c r="E689" s="42"/>
-      <c r="G689" s="42"/>
+      <c r="A689" s="42"/>
+      <c r="E689" s="43"/>
+      <c r="G689" s="43"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="41"/>
-      <c r="E690" s="42"/>
-      <c r="G690" s="42"/>
+      <c r="A690" s="42"/>
+      <c r="E690" s="43"/>
+      <c r="G690" s="43"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="41"/>
-      <c r="E691" s="42"/>
-      <c r="G691" s="42"/>
+      <c r="A691" s="42"/>
+      <c r="E691" s="43"/>
+      <c r="G691" s="43"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="41"/>
-      <c r="E692" s="42"/>
-      <c r="G692" s="42"/>
+      <c r="A692" s="42"/>
+      <c r="E692" s="43"/>
+      <c r="G692" s="43"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="41"/>
-      <c r="E693" s="42"/>
-      <c r="G693" s="42"/>
+      <c r="A693" s="42"/>
+      <c r="E693" s="43"/>
+      <c r="G693" s="43"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="41"/>
-      <c r="E694" s="42"/>
-      <c r="G694" s="42"/>
+      <c r="A694" s="42"/>
+      <c r="E694" s="43"/>
+      <c r="G694" s="43"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="41"/>
-      <c r="E695" s="42"/>
-      <c r="G695" s="42"/>
+      <c r="A695" s="42"/>
+      <c r="E695" s="43"/>
+      <c r="G695" s="43"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="41"/>
-      <c r="E696" s="42"/>
-      <c r="G696" s="42"/>
+      <c r="A696" s="42"/>
+      <c r="E696" s="43"/>
+      <c r="G696" s="43"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="41"/>
-      <c r="E697" s="42"/>
-      <c r="G697" s="42"/>
+      <c r="A697" s="42"/>
+      <c r="E697" s="43"/>
+      <c r="G697" s="43"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="41"/>
-      <c r="E698" s="42"/>
-      <c r="G698" s="42"/>
+      <c r="A698" s="42"/>
+      <c r="E698" s="43"/>
+      <c r="G698" s="43"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="41"/>
-      <c r="E699" s="42"/>
-      <c r="G699" s="42"/>
+      <c r="A699" s="42"/>
+      <c r="E699" s="43"/>
+      <c r="G699" s="43"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="41"/>
-      <c r="E700" s="42"/>
-      <c r="G700" s="42"/>
+      <c r="A700" s="42"/>
+      <c r="E700" s="43"/>
+      <c r="G700" s="43"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="41"/>
-      <c r="E701" s="42"/>
-      <c r="G701" s="42"/>
+      <c r="A701" s="42"/>
+      <c r="E701" s="43"/>
+      <c r="G701" s="43"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="41"/>
-      <c r="E702" s="42"/>
-      <c r="G702" s="42"/>
+      <c r="A702" s="42"/>
+      <c r="E702" s="43"/>
+      <c r="G702" s="43"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="41"/>
-      <c r="E703" s="42"/>
-      <c r="G703" s="42"/>
+      <c r="A703" s="42"/>
+      <c r="E703" s="43"/>
+      <c r="G703" s="43"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="41"/>
-      <c r="E704" s="42"/>
-      <c r="G704" s="42"/>
+      <c r="A704" s="42"/>
+      <c r="E704" s="43"/>
+      <c r="G704" s="43"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="41"/>
-      <c r="E705" s="42"/>
-      <c r="G705" s="42"/>
+      <c r="A705" s="42"/>
+      <c r="E705" s="43"/>
+      <c r="G705" s="43"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="41"/>
-      <c r="E706" s="42"/>
-      <c r="G706" s="42"/>
+      <c r="A706" s="42"/>
+      <c r="E706" s="43"/>
+      <c r="G706" s="43"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="41"/>
-      <c r="E707" s="42"/>
-      <c r="G707" s="42"/>
+      <c r="A707" s="42"/>
+      <c r="E707" s="43"/>
+      <c r="G707" s="43"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="41"/>
-      <c r="E708" s="42"/>
-      <c r="G708" s="42"/>
+      <c r="A708" s="42"/>
+      <c r="E708" s="43"/>
+      <c r="G708" s="43"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="41"/>
-      <c r="E709" s="42"/>
-      <c r="G709" s="42"/>
+      <c r="A709" s="42"/>
+      <c r="E709" s="43"/>
+      <c r="G709" s="43"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="41"/>
-      <c r="E710" s="42"/>
-      <c r="G710" s="42"/>
+      <c r="A710" s="42"/>
+      <c r="E710" s="43"/>
+      <c r="G710" s="43"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="41"/>
-      <c r="E711" s="42"/>
-      <c r="G711" s="42"/>
+      <c r="A711" s="42"/>
+      <c r="E711" s="43"/>
+      <c r="G711" s="43"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="41"/>
-      <c r="E712" s="42"/>
-      <c r="G712" s="42"/>
+      <c r="A712" s="42"/>
+      <c r="E712" s="43"/>
+      <c r="G712" s="43"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="41"/>
-      <c r="E713" s="42"/>
-      <c r="G713" s="42"/>
+      <c r="A713" s="42"/>
+      <c r="E713" s="43"/>
+      <c r="G713" s="43"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="41"/>
-      <c r="E714" s="42"/>
-      <c r="G714" s="42"/>
+      <c r="A714" s="42"/>
+      <c r="E714" s="43"/>
+      <c r="G714" s="43"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="41"/>
-      <c r="E715" s="42"/>
-      <c r="G715" s="42"/>
+      <c r="A715" s="42"/>
+      <c r="E715" s="43"/>
+      <c r="G715" s="43"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="41"/>
-      <c r="E716" s="42"/>
-      <c r="G716" s="42"/>
+      <c r="A716" s="42"/>
+      <c r="E716" s="43"/>
+      <c r="G716" s="43"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="41"/>
-      <c r="E717" s="42"/>
-      <c r="G717" s="42"/>
+      <c r="A717" s="42"/>
+      <c r="E717" s="43"/>
+      <c r="G717" s="43"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="41"/>
-      <c r="E718" s="42"/>
-      <c r="G718" s="42"/>
+      <c r="A718" s="42"/>
+      <c r="E718" s="43"/>
+      <c r="G718" s="43"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="41"/>
-      <c r="E719" s="42"/>
-      <c r="G719" s="42"/>
+      <c r="A719" s="42"/>
+      <c r="E719" s="43"/>
+      <c r="G719" s="43"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="41"/>
-      <c r="E720" s="42"/>
-      <c r="G720" s="42"/>
+      <c r="A720" s="42"/>
+      <c r="E720" s="43"/>
+      <c r="G720" s="43"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="41"/>
-      <c r="E721" s="42"/>
-      <c r="G721" s="42"/>
+      <c r="A721" s="42"/>
+      <c r="E721" s="43"/>
+      <c r="G721" s="43"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="41"/>
-      <c r="E722" s="42"/>
-      <c r="G722" s="42"/>
+      <c r="A722" s="42"/>
+      <c r="E722" s="43"/>
+      <c r="G722" s="43"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="41"/>
-      <c r="E723" s="42"/>
-      <c r="G723" s="42"/>
+      <c r="A723" s="42"/>
+      <c r="E723" s="43"/>
+      <c r="G723" s="43"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="41"/>
-      <c r="E724" s="42"/>
-      <c r="G724" s="42"/>
+      <c r="A724" s="42"/>
+      <c r="E724" s="43"/>
+      <c r="G724" s="43"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="41"/>
-      <c r="E725" s="42"/>
-      <c r="G725" s="42"/>
+      <c r="A725" s="42"/>
+      <c r="E725" s="43"/>
+      <c r="G725" s="43"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="41"/>
-      <c r="E726" s="42"/>
-      <c r="G726" s="42"/>
+      <c r="A726" s="42"/>
+      <c r="E726" s="43"/>
+      <c r="G726" s="43"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="41"/>
-      <c r="E727" s="42"/>
-      <c r="G727" s="42"/>
+      <c r="A727" s="42"/>
+      <c r="E727" s="43"/>
+      <c r="G727" s="43"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="41"/>
-      <c r="E728" s="42"/>
-      <c r="G728" s="42"/>
+      <c r="A728" s="42"/>
+      <c r="E728" s="43"/>
+      <c r="G728" s="43"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="41"/>
-      <c r="E729" s="42"/>
-      <c r="G729" s="42"/>
+      <c r="A729" s="42"/>
+      <c r="E729" s="43"/>
+      <c r="G729" s="43"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="41"/>
-      <c r="E730" s="42"/>
-      <c r="G730" s="42"/>
+      <c r="A730" s="42"/>
+      <c r="E730" s="43"/>
+      <c r="G730" s="43"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="41"/>
-      <c r="E731" s="42"/>
-      <c r="G731" s="42"/>
+      <c r="A731" s="42"/>
+      <c r="E731" s="43"/>
+      <c r="G731" s="43"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="41"/>
-      <c r="E732" s="42"/>
-      <c r="G732" s="42"/>
+      <c r="A732" s="42"/>
+      <c r="E732" s="43"/>
+      <c r="G732" s="43"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="41"/>
-      <c r="E733" s="42"/>
-      <c r="G733" s="42"/>
+      <c r="A733" s="42"/>
+      <c r="E733" s="43"/>
+      <c r="G733" s="43"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="41"/>
-      <c r="E734" s="42"/>
-      <c r="G734" s="42"/>
+      <c r="A734" s="42"/>
+      <c r="E734" s="43"/>
+      <c r="G734" s="43"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="41"/>
-      <c r="E735" s="42"/>
-      <c r="G735" s="42"/>
+      <c r="A735" s="42"/>
+      <c r="E735" s="43"/>
+      <c r="G735" s="43"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="41"/>
-      <c r="E736" s="42"/>
-      <c r="G736" s="42"/>
+      <c r="A736" s="42"/>
+      <c r="E736" s="43"/>
+      <c r="G736" s="43"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="41"/>
-      <c r="E737" s="42"/>
-      <c r="G737" s="42"/>
+      <c r="A737" s="42"/>
+      <c r="E737" s="43"/>
+      <c r="G737" s="43"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="41"/>
-      <c r="E738" s="42"/>
-      <c r="G738" s="42"/>
+      <c r="A738" s="42"/>
+      <c r="E738" s="43"/>
+      <c r="G738" s="43"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="41"/>
-      <c r="E739" s="42"/>
-      <c r="G739" s="42"/>
+      <c r="A739" s="42"/>
+      <c r="E739" s="43"/>
+      <c r="G739" s="43"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="41"/>
-      <c r="E740" s="42"/>
-      <c r="G740" s="42"/>
+      <c r="A740" s="42"/>
+      <c r="E740" s="43"/>
+      <c r="G740" s="43"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="41"/>
-      <c r="E741" s="42"/>
-      <c r="G741" s="42"/>
+      <c r="A741" s="42"/>
+      <c r="E741" s="43"/>
+      <c r="G741" s="43"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="41"/>
-      <c r="E742" s="42"/>
-      <c r="G742" s="42"/>
+      <c r="A742" s="42"/>
+      <c r="E742" s="43"/>
+      <c r="G742" s="43"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="41"/>
-      <c r="E743" s="42"/>
-      <c r="G743" s="42"/>
+      <c r="A743" s="42"/>
+      <c r="E743" s="43"/>
+      <c r="G743" s="43"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="41"/>
-      <c r="E744" s="42"/>
-      <c r="G744" s="42"/>
+      <c r="A744" s="42"/>
+      <c r="E744" s="43"/>
+      <c r="G744" s="43"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="41"/>
-      <c r="E745" s="42"/>
-      <c r="G745" s="42"/>
+      <c r="A745" s="42"/>
+      <c r="E745" s="43"/>
+      <c r="G745" s="43"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="41"/>
-      <c r="E746" s="42"/>
-      <c r="G746" s="42"/>
+      <c r="A746" s="42"/>
+      <c r="E746" s="43"/>
+      <c r="G746" s="43"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="41"/>
-      <c r="E747" s="42"/>
-      <c r="G747" s="42"/>
+      <c r="A747" s="42"/>
+      <c r="E747" s="43"/>
+      <c r="G747" s="43"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="41"/>
-      <c r="E748" s="42"/>
-      <c r="G748" s="42"/>
+      <c r="A748" s="42"/>
+      <c r="E748" s="43"/>
+      <c r="G748" s="43"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="41"/>
-      <c r="E749" s="42"/>
-      <c r="G749" s="42"/>
+      <c r="A749" s="42"/>
+      <c r="E749" s="43"/>
+      <c r="G749" s="43"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="41"/>
-      <c r="E750" s="42"/>
-      <c r="G750" s="42"/>
+      <c r="A750" s="42"/>
+      <c r="E750" s="43"/>
+      <c r="G750" s="43"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="41"/>
-      <c r="E751" s="42"/>
-      <c r="G751" s="42"/>
+      <c r="A751" s="42"/>
+      <c r="E751" s="43"/>
+      <c r="G751" s="43"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="41"/>
-      <c r="E752" s="42"/>
-      <c r="G752" s="42"/>
+      <c r="A752" s="42"/>
+      <c r="E752" s="43"/>
+      <c r="G752" s="43"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="41"/>
-      <c r="E753" s="42"/>
-      <c r="G753" s="42"/>
+      <c r="A753" s="42"/>
+      <c r="E753" s="43"/>
+      <c r="G753" s="43"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="41"/>
-      <c r="E754" s="42"/>
-      <c r="G754" s="42"/>
+      <c r="A754" s="42"/>
+      <c r="E754" s="43"/>
+      <c r="G754" s="43"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="41"/>
-      <c r="E755" s="42"/>
-      <c r="G755" s="42"/>
+      <c r="A755" s="42"/>
+      <c r="E755" s="43"/>
+      <c r="G755" s="43"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="41"/>
-      <c r="E756" s="42"/>
-      <c r="G756" s="42"/>
+      <c r="A756" s="42"/>
+      <c r="E756" s="43"/>
+      <c r="G756" s="43"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="41"/>
-      <c r="E757" s="42"/>
-      <c r="G757" s="42"/>
+      <c r="A757" s="42"/>
+      <c r="E757" s="43"/>
+      <c r="G757" s="43"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="41"/>
-      <c r="E758" s="42"/>
-      <c r="G758" s="42"/>
+      <c r="A758" s="42"/>
+      <c r="E758" s="43"/>
+      <c r="G758" s="43"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="41"/>
-      <c r="E759" s="42"/>
-      <c r="G759" s="42"/>
+      <c r="A759" s="42"/>
+      <c r="E759" s="43"/>
+      <c r="G759" s="43"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="41"/>
-      <c r="E760" s="42"/>
-      <c r="G760" s="42"/>
+      <c r="A760" s="42"/>
+      <c r="E760" s="43"/>
+      <c r="G760" s="43"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="41"/>
-      <c r="E761" s="42"/>
-      <c r="G761" s="42"/>
+      <c r="A761" s="42"/>
+      <c r="E761" s="43"/>
+      <c r="G761" s="43"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="41"/>
-      <c r="E762" s="42"/>
-      <c r="G762" s="42"/>
+      <c r="A762" s="42"/>
+      <c r="E762" s="43"/>
+      <c r="G762" s="43"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="41"/>
-      <c r="E763" s="42"/>
-      <c r="G763" s="42"/>
+      <c r="A763" s="42"/>
+      <c r="E763" s="43"/>
+      <c r="G763" s="43"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="41"/>
-      <c r="E764" s="42"/>
-      <c r="G764" s="42"/>
+      <c r="A764" s="42"/>
+      <c r="E764" s="43"/>
+      <c r="G764" s="43"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="41"/>
-      <c r="E765" s="42"/>
-      <c r="G765" s="42"/>
+      <c r="A765" s="42"/>
+      <c r="E765" s="43"/>
+      <c r="G765" s="43"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="41"/>
-      <c r="E766" s="42"/>
-      <c r="G766" s="42"/>
+      <c r="A766" s="42"/>
+      <c r="E766" s="43"/>
+      <c r="G766" s="43"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="41"/>
-      <c r="E767" s="42"/>
-      <c r="G767" s="42"/>
+      <c r="A767" s="42"/>
+      <c r="E767" s="43"/>
+      <c r="G767" s="43"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="41"/>
-      <c r="E768" s="42"/>
-      <c r="G768" s="42"/>
+      <c r="A768" s="42"/>
+      <c r="E768" s="43"/>
+      <c r="G768" s="43"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="41"/>
-      <c r="E769" s="42"/>
-      <c r="G769" s="42"/>
+      <c r="A769" s="42"/>
+      <c r="E769" s="43"/>
+      <c r="G769" s="43"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="41"/>
-      <c r="E770" s="42"/>
-      <c r="G770" s="42"/>
+      <c r="A770" s="42"/>
+      <c r="E770" s="43"/>
+      <c r="G770" s="43"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="41"/>
-      <c r="E771" s="42"/>
-      <c r="G771" s="42"/>
+      <c r="A771" s="42"/>
+      <c r="E771" s="43"/>
+      <c r="G771" s="43"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="41"/>
-      <c r="E772" s="42"/>
-      <c r="G772" s="42"/>
+      <c r="A772" s="42"/>
+      <c r="E772" s="43"/>
+      <c r="G772" s="43"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="41"/>
-      <c r="E773" s="42"/>
-      <c r="G773" s="42"/>
+      <c r="A773" s="42"/>
+      <c r="E773" s="43"/>
+      <c r="G773" s="43"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="41"/>
-      <c r="E774" s="42"/>
-      <c r="G774" s="42"/>
+      <c r="A774" s="42"/>
+      <c r="E774" s="43"/>
+      <c r="G774" s="43"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="41"/>
-      <c r="E775" s="42"/>
-      <c r="G775" s="42"/>
+      <c r="A775" s="42"/>
+      <c r="E775" s="43"/>
+      <c r="G775" s="43"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="41"/>
-      <c r="E776" s="42"/>
-      <c r="G776" s="42"/>
+      <c r="A776" s="42"/>
+      <c r="E776" s="43"/>
+      <c r="G776" s="43"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="41"/>
-      <c r="E777" s="42"/>
-      <c r="G777" s="42"/>
+      <c r="A777" s="42"/>
+      <c r="E777" s="43"/>
+      <c r="G777" s="43"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="41"/>
-      <c r="E778" s="42"/>
-      <c r="G778" s="42"/>
+      <c r="A778" s="42"/>
+      <c r="E778" s="43"/>
+      <c r="G778" s="43"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="41"/>
-      <c r="E779" s="42"/>
-      <c r="G779" s="42"/>
+      <c r="A779" s="42"/>
+      <c r="E779" s="43"/>
+      <c r="G779" s="43"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="41"/>
-      <c r="E780" s="42"/>
-      <c r="G780" s="42"/>
+      <c r="A780" s="42"/>
+      <c r="E780" s="43"/>
+      <c r="G780" s="43"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="41"/>
-      <c r="E781" s="42"/>
-      <c r="G781" s="42"/>
+      <c r="A781" s="42"/>
+      <c r="E781" s="43"/>
+      <c r="G781" s="43"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="41"/>
-      <c r="E782" s="42"/>
-      <c r="G782" s="42"/>
+      <c r="A782" s="42"/>
+      <c r="E782" s="43"/>
+      <c r="G782" s="43"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="41"/>
-      <c r="E783" s="42"/>
-      <c r="G783" s="42"/>
+      <c r="A783" s="42"/>
+      <c r="E783" s="43"/>
+      <c r="G783" s="43"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="41"/>
-      <c r="E784" s="42"/>
-      <c r="G784" s="42"/>
+      <c r="A784" s="42"/>
+      <c r="E784" s="43"/>
+      <c r="G784" s="43"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="41"/>
-      <c r="E785" s="42"/>
-      <c r="G785" s="42"/>
+      <c r="A785" s="42"/>
+      <c r="E785" s="43"/>
+      <c r="G785" s="43"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="41"/>
-      <c r="E786" s="42"/>
-      <c r="G786" s="42"/>
+      <c r="A786" s="42"/>
+      <c r="E786" s="43"/>
+      <c r="G786" s="43"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="41"/>
-      <c r="E787" s="42"/>
-      <c r="G787" s="42"/>
+      <c r="A787" s="42"/>
+      <c r="E787" s="43"/>
+      <c r="G787" s="43"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="41"/>
-      <c r="E788" s="42"/>
-      <c r="G788" s="42"/>
+      <c r="A788" s="42"/>
+      <c r="E788" s="43"/>
+      <c r="G788" s="43"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="41"/>
-      <c r="E789" s="42"/>
-      <c r="G789" s="42"/>
+      <c r="A789" s="42"/>
+      <c r="E789" s="43"/>
+      <c r="G789" s="43"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="41"/>
-      <c r="E790" s="42"/>
-      <c r="G790" s="42"/>
+      <c r="A790" s="42"/>
+      <c r="E790" s="43"/>
+      <c r="G790" s="43"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="41"/>
-      <c r="E791" s="42"/>
-      <c r="G791" s="42"/>
+      <c r="A791" s="42"/>
+      <c r="E791" s="43"/>
+      <c r="G791" s="43"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="41"/>
-      <c r="E792" s="42"/>
-      <c r="G792" s="42"/>
+      <c r="A792" s="42"/>
+      <c r="E792" s="43"/>
+      <c r="G792" s="43"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="41"/>
-      <c r="E793" s="42"/>
-      <c r="G793" s="42"/>
+      <c r="A793" s="42"/>
+      <c r="E793" s="43"/>
+      <c r="G793" s="43"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="41"/>
-      <c r="E794" s="42"/>
-      <c r="G794" s="42"/>
+      <c r="A794" s="42"/>
+      <c r="E794" s="43"/>
+      <c r="G794" s="43"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="41"/>
-      <c r="E795" s="42"/>
-      <c r="G795" s="42"/>
+      <c r="A795" s="42"/>
+      <c r="E795" s="43"/>
+      <c r="G795" s="43"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="41"/>
-      <c r="E796" s="42"/>
-      <c r="G796" s="42"/>
+      <c r="A796" s="42"/>
+      <c r="E796" s="43"/>
+      <c r="G796" s="43"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="41"/>
-      <c r="E797" s="42"/>
-      <c r="G797" s="42"/>
+      <c r="A797" s="42"/>
+      <c r="E797" s="43"/>
+      <c r="G797" s="43"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="41"/>
-      <c r="E798" s="42"/>
-      <c r="G798" s="42"/>
+      <c r="A798" s="42"/>
+      <c r="E798" s="43"/>
+      <c r="G798" s="43"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="41"/>
-      <c r="E799" s="42"/>
-      <c r="G799" s="42"/>
+      <c r="A799" s="42"/>
+      <c r="E799" s="43"/>
+      <c r="G799" s="43"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="41"/>
-      <c r="E800" s="42"/>
-      <c r="G800" s="42"/>
+      <c r="A800" s="42"/>
+      <c r="E800" s="43"/>
+      <c r="G800" s="43"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="41"/>
-      <c r="E801" s="42"/>
-      <c r="G801" s="42"/>
+      <c r="A801" s="42"/>
+      <c r="E801" s="43"/>
+      <c r="G801" s="43"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="41"/>
-      <c r="E802" s="42"/>
-      <c r="G802" s="42"/>
+      <c r="A802" s="42"/>
+      <c r="E802" s="43"/>
+      <c r="G802" s="43"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="41"/>
-      <c r="E803" s="42"/>
-      <c r="G803" s="42"/>
+      <c r="A803" s="42"/>
+      <c r="E803" s="43"/>
+      <c r="G803" s="43"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="41"/>
-      <c r="E804" s="42"/>
-      <c r="G804" s="42"/>
+      <c r="A804" s="42"/>
+      <c r="E804" s="43"/>
+      <c r="G804" s="43"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="41"/>
-      <c r="E805" s="42"/>
-      <c r="G805" s="42"/>
+      <c r="A805" s="42"/>
+      <c r="E805" s="43"/>
+      <c r="G805" s="43"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="41"/>
-      <c r="E806" s="42"/>
-      <c r="G806" s="42"/>
+      <c r="A806" s="42"/>
+      <c r="E806" s="43"/>
+      <c r="G806" s="43"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="41"/>
-      <c r="E807" s="42"/>
-      <c r="G807" s="42"/>
+      <c r="A807" s="42"/>
+      <c r="E807" s="43"/>
+      <c r="G807" s="43"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="41"/>
-      <c r="E808" s="42"/>
-      <c r="G808" s="42"/>
+      <c r="A808" s="42"/>
+      <c r="E808" s="43"/>
+      <c r="G808" s="43"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="41"/>
-      <c r="E809" s="42"/>
-      <c r="G809" s="42"/>
+      <c r="A809" s="42"/>
+      <c r="E809" s="43"/>
+      <c r="G809" s="43"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="41"/>
-      <c r="E810" s="42"/>
-      <c r="G810" s="42"/>
+      <c r="A810" s="42"/>
+      <c r="E810" s="43"/>
+      <c r="G810" s="43"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="41"/>
-      <c r="E811" s="42"/>
-      <c r="G811" s="42"/>
+      <c r="A811" s="42"/>
+      <c r="E811" s="43"/>
+      <c r="G811" s="43"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="41"/>
-      <c r="E812" s="42"/>
-      <c r="G812" s="42"/>
+      <c r="A812" s="42"/>
+      <c r="E812" s="43"/>
+      <c r="G812" s="43"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="41"/>
-      <c r="E813" s="42"/>
-      <c r="G813" s="42"/>
+      <c r="A813" s="42"/>
+      <c r="E813" s="43"/>
+      <c r="G813" s="43"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="41"/>
-      <c r="E814" s="42"/>
-      <c r="G814" s="42"/>
+      <c r="A814" s="42"/>
+      <c r="E814" s="43"/>
+      <c r="G814" s="43"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="41"/>
-      <c r="E815" s="42"/>
-      <c r="G815" s="42"/>
+      <c r="A815" s="42"/>
+      <c r="E815" s="43"/>
+      <c r="G815" s="43"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="41"/>
-      <c r="E816" s="42"/>
-      <c r="G816" s="42"/>
+      <c r="A816" s="42"/>
+      <c r="E816" s="43"/>
+      <c r="G816" s="43"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="41"/>
-      <c r="E817" s="42"/>
-      <c r="G817" s="42"/>
+      <c r="A817" s="42"/>
+      <c r="E817" s="43"/>
+      <c r="G817" s="43"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="41"/>
-      <c r="E818" s="42"/>
-      <c r="G818" s="42"/>
+      <c r="A818" s="42"/>
+      <c r="E818" s="43"/>
+      <c r="G818" s="43"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="41"/>
-      <c r="E819" s="42"/>
-      <c r="G819" s="42"/>
+      <c r="A819" s="42"/>
+      <c r="E819" s="43"/>
+      <c r="G819" s="43"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="41"/>
-      <c r="E820" s="42"/>
-      <c r="G820" s="42"/>
+      <c r="A820" s="42"/>
+      <c r="E820" s="43"/>
+      <c r="G820" s="43"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="41"/>
-      <c r="E821" s="42"/>
-      <c r="G821" s="42"/>
+      <c r="A821" s="42"/>
+      <c r="E821" s="43"/>
+      <c r="G821" s="43"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="41"/>
-      <c r="E822" s="42"/>
-      <c r="G822" s="42"/>
+      <c r="A822" s="42"/>
+      <c r="E822" s="43"/>
+      <c r="G822" s="43"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="41"/>
-      <c r="E823" s="42"/>
-      <c r="G823" s="42"/>
+      <c r="A823" s="42"/>
+      <c r="E823" s="43"/>
+      <c r="G823" s="43"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="41"/>
-      <c r="E824" s="42"/>
-      <c r="G824" s="42"/>
+      <c r="A824" s="42"/>
+      <c r="E824" s="43"/>
+      <c r="G824" s="43"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="41"/>
-      <c r="E825" s="42"/>
-      <c r="G825" s="42"/>
+      <c r="A825" s="42"/>
+      <c r="E825" s="43"/>
+      <c r="G825" s="43"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="41"/>
-      <c r="E826" s="42"/>
-      <c r="G826" s="42"/>
+      <c r="A826" s="42"/>
+      <c r="E826" s="43"/>
+      <c r="G826" s="43"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="41"/>
-      <c r="E827" s="42"/>
-      <c r="G827" s="42"/>
+      <c r="A827" s="42"/>
+      <c r="E827" s="43"/>
+      <c r="G827" s="43"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="41"/>
-      <c r="E828" s="42"/>
-      <c r="G828" s="42"/>
+      <c r="A828" s="42"/>
+      <c r="E828" s="43"/>
+      <c r="G828" s="43"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="41"/>
-      <c r="E829" s="42"/>
-      <c r="G829" s="42"/>
+      <c r="A829" s="42"/>
+      <c r="E829" s="43"/>
+      <c r="G829" s="43"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="41"/>
-      <c r="E830" s="42"/>
-      <c r="G830" s="42"/>
+      <c r="A830" s="42"/>
+      <c r="E830" s="43"/>
+      <c r="G830" s="43"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="41"/>
-      <c r="E831" s="42"/>
-      <c r="G831" s="42"/>
+      <c r="A831" s="42"/>
+      <c r="E831" s="43"/>
+      <c r="G831" s="43"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="41"/>
-      <c r="E832" s="42"/>
-      <c r="G832" s="42"/>
+      <c r="A832" s="42"/>
+      <c r="E832" s="43"/>
+      <c r="G832" s="43"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="41"/>
-      <c r="E833" s="42"/>
-      <c r="G833" s="42"/>
+      <c r="A833" s="42"/>
+      <c r="E833" s="43"/>
+      <c r="G833" s="43"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="41"/>
-      <c r="E834" s="42"/>
-      <c r="G834" s="42"/>
+      <c r="A834" s="42"/>
+      <c r="E834" s="43"/>
+      <c r="G834" s="43"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="41"/>
-      <c r="E835" s="42"/>
-      <c r="G835" s="42"/>
+      <c r="A835" s="42"/>
+      <c r="E835" s="43"/>
+      <c r="G835" s="43"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="41"/>
-      <c r="E836" s="42"/>
-      <c r="G836" s="42"/>
+      <c r="A836" s="42"/>
+      <c r="E836" s="43"/>
+      <c r="G836" s="43"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="41"/>
-      <c r="E837" s="42"/>
-      <c r="G837" s="42"/>
+      <c r="A837" s="42"/>
+      <c r="E837" s="43"/>
+      <c r="G837" s="43"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="41"/>
-      <c r="E838" s="42"/>
-      <c r="G838" s="42"/>
+      <c r="A838" s="42"/>
+      <c r="E838" s="43"/>
+      <c r="G838" s="43"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="41"/>
-      <c r="E839" s="42"/>
-      <c r="G839" s="42"/>
+      <c r="A839" s="42"/>
+      <c r="E839" s="43"/>
+      <c r="G839" s="43"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="41"/>
-      <c r="E840" s="42"/>
-      <c r="G840" s="42"/>
+      <c r="A840" s="42"/>
+      <c r="E840" s="43"/>
+      <c r="G840" s="43"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="41"/>
-      <c r="E841" s="42"/>
-      <c r="G841" s="42"/>
+      <c r="A841" s="42"/>
+      <c r="E841" s="43"/>
+      <c r="G841" s="43"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="41"/>
-      <c r="E842" s="42"/>
-      <c r="G842" s="42"/>
+      <c r="A842" s="42"/>
+      <c r="E842" s="43"/>
+      <c r="G842" s="43"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="41"/>
-      <c r="E843" s="42"/>
-      <c r="G843" s="42"/>
+      <c r="A843" s="42"/>
+      <c r="E843" s="43"/>
+      <c r="G843" s="43"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="41"/>
-      <c r="E844" s="42"/>
-      <c r="G844" s="42"/>
+      <c r="A844" s="42"/>
+      <c r="E844" s="43"/>
+      <c r="G844" s="43"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="41"/>
-      <c r="E845" s="42"/>
-      <c r="G845" s="42"/>
+      <c r="A845" s="42"/>
+      <c r="E845" s="43"/>
+      <c r="G845" s="43"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="41"/>
-      <c r="E846" s="42"/>
-      <c r="G846" s="42"/>
+      <c r="A846" s="42"/>
+      <c r="E846" s="43"/>
+      <c r="G846" s="43"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="41"/>
-      <c r="E847" s="42"/>
-      <c r="G847" s="42"/>
+      <c r="A847" s="42"/>
+      <c r="E847" s="43"/>
+      <c r="G847" s="43"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="41"/>
-      <c r="E848" s="42"/>
-      <c r="G848" s="42"/>
+      <c r="A848" s="42"/>
+      <c r="E848" s="43"/>
+      <c r="G848" s="43"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="41"/>
-      <c r="E849" s="42"/>
-      <c r="G849" s="42"/>
+      <c r="A849" s="42"/>
+      <c r="E849" s="43"/>
+      <c r="G849" s="43"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="41"/>
-      <c r="E850" s="42"/>
-      <c r="G850" s="42"/>
+      <c r="A850" s="42"/>
+      <c r="E850" s="43"/>
+      <c r="G850" s="43"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="41"/>
-      <c r="E851" s="42"/>
-      <c r="G851" s="42"/>
+      <c r="A851" s="42"/>
+      <c r="E851" s="43"/>
+      <c r="G851" s="43"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="41"/>
-      <c r="E852" s="42"/>
-      <c r="G852" s="42"/>
+      <c r="A852" s="42"/>
+      <c r="E852" s="43"/>
+      <c r="G852" s="43"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="41"/>
-      <c r="E853" s="42"/>
-      <c r="G853" s="42"/>
+      <c r="A853" s="42"/>
+      <c r="E853" s="43"/>
+      <c r="G853" s="43"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="41"/>
-      <c r="E854" s="42"/>
-      <c r="G854" s="42"/>
+      <c r="A854" s="42"/>
+      <c r="E854" s="43"/>
+      <c r="G854" s="43"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="41"/>
-      <c r="E855" s="42"/>
-      <c r="G855" s="42"/>
+      <c r="A855" s="42"/>
+      <c r="E855" s="43"/>
+      <c r="G855" s="43"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="41"/>
-      <c r="E856" s="42"/>
-      <c r="G856" s="42"/>
+      <c r="A856" s="42"/>
+      <c r="E856" s="43"/>
+      <c r="G856" s="43"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="41"/>
-      <c r="E857" s="42"/>
-      <c r="G857" s="42"/>
+      <c r="A857" s="42"/>
+      <c r="E857" s="43"/>
+      <c r="G857" s="43"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="41"/>
-      <c r="E858" s="42"/>
-      <c r="G858" s="42"/>
+      <c r="A858" s="42"/>
+      <c r="E858" s="43"/>
+      <c r="G858" s="43"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="41"/>
-      <c r="E859" s="42"/>
-      <c r="G859" s="42"/>
+      <c r="A859" s="42"/>
+      <c r="E859" s="43"/>
+      <c r="G859" s="43"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="41"/>
-      <c r="E860" s="42"/>
-      <c r="G860" s="42"/>
+      <c r="A860" s="42"/>
+      <c r="E860" s="43"/>
+      <c r="G860" s="43"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="41"/>
-      <c r="E861" s="42"/>
-      <c r="G861" s="42"/>
+      <c r="A861" s="42"/>
+      <c r="E861" s="43"/>
+      <c r="G861" s="43"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="41"/>
-      <c r="E862" s="42"/>
-      <c r="G862" s="42"/>
+      <c r="A862" s="42"/>
+      <c r="E862" s="43"/>
+      <c r="G862" s="43"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="41"/>
-      <c r="E863" s="42"/>
-      <c r="G863" s="42"/>
+      <c r="A863" s="42"/>
+      <c r="E863" s="43"/>
+      <c r="G863" s="43"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="41"/>
-      <c r="E864" s="42"/>
-      <c r="G864" s="42"/>
+      <c r="A864" s="42"/>
+      <c r="E864" s="43"/>
+      <c r="G864" s="43"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="41"/>
-      <c r="E865" s="42"/>
-      <c r="G865" s="42"/>
+      <c r="A865" s="42"/>
+      <c r="E865" s="43"/>
+      <c r="G865" s="43"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="41"/>
-      <c r="E866" s="42"/>
-      <c r="G866" s="42"/>
+      <c r="A866" s="42"/>
+      <c r="E866" s="43"/>
+      <c r="G866" s="43"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="41"/>
-      <c r="E867" s="42"/>
-      <c r="G867" s="42"/>
+      <c r="A867" s="42"/>
+      <c r="E867" s="43"/>
+      <c r="G867" s="43"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="41"/>
-      <c r="E868" s="42"/>
-      <c r="G868" s="42"/>
+      <c r="A868" s="42"/>
+      <c r="E868" s="43"/>
+      <c r="G868" s="43"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="41"/>
-      <c r="E869" s="42"/>
-      <c r="G869" s="42"/>
+      <c r="A869" s="42"/>
+      <c r="E869" s="43"/>
+      <c r="G869" s="43"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="41"/>
-      <c r="E870" s="42"/>
-      <c r="G870" s="42"/>
+      <c r="A870" s="42"/>
+      <c r="E870" s="43"/>
+      <c r="G870" s="43"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="41"/>
-      <c r="E871" s="42"/>
-      <c r="G871" s="42"/>
+      <c r="A871" s="42"/>
+      <c r="E871" s="43"/>
+      <c r="G871" s="43"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="41"/>
-      <c r="E872" s="42"/>
-      <c r="G872" s="42"/>
+      <c r="A872" s="42"/>
+      <c r="E872" s="43"/>
+      <c r="G872" s="43"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="41"/>
-      <c r="E873" s="42"/>
-      <c r="G873" s="42"/>
+      <c r="A873" s="42"/>
+      <c r="E873" s="43"/>
+      <c r="G873" s="43"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="41"/>
-      <c r="E874" s="42"/>
-      <c r="G874" s="42"/>
+      <c r="A874" s="42"/>
+      <c r="E874" s="43"/>
+      <c r="G874" s="43"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="41"/>
-      <c r="E875" s="42"/>
-      <c r="G875" s="42"/>
+      <c r="A875" s="42"/>
+      <c r="E875" s="43"/>
+      <c r="G875" s="43"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="41"/>
-      <c r="E876" s="42"/>
-      <c r="G876" s="42"/>
+      <c r="A876" s="42"/>
+      <c r="E876" s="43"/>
+      <c r="G876" s="43"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="41"/>
-      <c r="E877" s="42"/>
-      <c r="G877" s="42"/>
+      <c r="A877" s="42"/>
+      <c r="E877" s="43"/>
+      <c r="G877" s="43"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="41"/>
-      <c r="E878" s="42"/>
-      <c r="G878" s="42"/>
+      <c r="A878" s="42"/>
+      <c r="E878" s="43"/>
+      <c r="G878" s="43"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="41"/>
-      <c r="E879" s="42"/>
-      <c r="G879" s="42"/>
+      <c r="A879" s="42"/>
+      <c r="E879" s="43"/>
+      <c r="G879" s="43"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="41"/>
-      <c r="E880" s="42"/>
-      <c r="G880" s="42"/>
+      <c r="A880" s="42"/>
+      <c r="E880" s="43"/>
+      <c r="G880" s="43"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="41"/>
-      <c r="E881" s="42"/>
-      <c r="G881" s="42"/>
+      <c r="A881" s="42"/>
+      <c r="E881" s="43"/>
+      <c r="G881" s="43"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="41"/>
-      <c r="E882" s="42"/>
-      <c r="G882" s="42"/>
+      <c r="A882" s="42"/>
+      <c r="E882" s="43"/>
+      <c r="G882" s="43"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="41"/>
-      <c r="E883" s="42"/>
-      <c r="G883" s="42"/>
+      <c r="A883" s="42"/>
+      <c r="E883" s="43"/>
+      <c r="G883" s="43"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="41"/>
-      <c r="E884" s="42"/>
-      <c r="G884" s="42"/>
+      <c r="A884" s="42"/>
+      <c r="E884" s="43"/>
+      <c r="G884" s="43"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="41"/>
-      <c r="E885" s="42"/>
-      <c r="G885" s="42"/>
+      <c r="A885" s="42"/>
+      <c r="E885" s="43"/>
+      <c r="G885" s="43"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="41"/>
-      <c r="E886" s="42"/>
-      <c r="G886" s="42"/>
+      <c r="A886" s="42"/>
+      <c r="E886" s="43"/>
+      <c r="G886" s="43"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="41"/>
-      <c r="E887" s="42"/>
-      <c r="G887" s="42"/>
+      <c r="A887" s="42"/>
+      <c r="E887" s="43"/>
+      <c r="G887" s="43"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="41"/>
-      <c r="E888" s="42"/>
-      <c r="G888" s="42"/>
+      <c r="A888" s="42"/>
+      <c r="E888" s="43"/>
+      <c r="G888" s="43"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="41"/>
-      <c r="E889" s="42"/>
-      <c r="G889" s="42"/>
+      <c r="A889" s="42"/>
+      <c r="E889" s="43"/>
+      <c r="G889" s="43"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="41"/>
-      <c r="E890" s="42"/>
-      <c r="G890" s="42"/>
+      <c r="A890" s="42"/>
+      <c r="E890" s="43"/>
+      <c r="G890" s="43"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="41"/>
-      <c r="E891" s="42"/>
-      <c r="G891" s="42"/>
+      <c r="A891" s="42"/>
+      <c r="E891" s="43"/>
+      <c r="G891" s="43"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="41"/>
-      <c r="E892" s="42"/>
-      <c r="G892" s="42"/>
+      <c r="A892" s="42"/>
+      <c r="E892" s="43"/>
+      <c r="G892" s="43"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="41"/>
-      <c r="E893" s="42"/>
-      <c r="G893" s="42"/>
+      <c r="A893" s="42"/>
+      <c r="E893" s="43"/>
+      <c r="G893" s="43"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="41"/>
-      <c r="E894" s="42"/>
-      <c r="G894" s="42"/>
+      <c r="A894" s="42"/>
+      <c r="E894" s="43"/>
+      <c r="G894" s="43"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="41"/>
-      <c r="E895" s="42"/>
-      <c r="G895" s="42"/>
+      <c r="A895" s="42"/>
+      <c r="E895" s="43"/>
+      <c r="G895" s="43"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="41"/>
-      <c r="E896" s="42"/>
-      <c r="G896" s="42"/>
+      <c r="A896" s="42"/>
+      <c r="E896" s="43"/>
+      <c r="G896" s="43"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="41"/>
-      <c r="E897" s="42"/>
-      <c r="G897" s="42"/>
+      <c r="A897" s="42"/>
+      <c r="E897" s="43"/>
+      <c r="G897" s="43"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="41"/>
-      <c r="E898" s="42"/>
-      <c r="G898" s="42"/>
+      <c r="A898" s="42"/>
+      <c r="E898" s="43"/>
+      <c r="G898" s="43"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="41"/>
-      <c r="E899" s="42"/>
-      <c r="G899" s="42"/>
+      <c r="A899" s="42"/>
+      <c r="E899" s="43"/>
+      <c r="G899" s="43"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="41"/>
-      <c r="E900" s="42"/>
-      <c r="G900" s="42"/>
+      <c r="A900" s="42"/>
+      <c r="E900" s="43"/>
+      <c r="G900" s="43"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="41"/>
-      <c r="E901" s="42"/>
-      <c r="G901" s="42"/>
+      <c r="A901" s="42"/>
+      <c r="E901" s="43"/>
+      <c r="G901" s="43"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="41"/>
-      <c r="E902" s="42"/>
-      <c r="G902" s="42"/>
+      <c r="A902" s="42"/>
+      <c r="E902" s="43"/>
+      <c r="G902" s="43"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="41"/>
-      <c r="E903" s="42"/>
-      <c r="G903" s="42"/>
+      <c r="A903" s="42"/>
+      <c r="E903" s="43"/>
+      <c r="G903" s="43"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="41"/>
-      <c r="E904" s="42"/>
-      <c r="G904" s="42"/>
+      <c r="A904" s="42"/>
+      <c r="E904" s="43"/>
+      <c r="G904" s="43"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="41"/>
-      <c r="E905" s="42"/>
-      <c r="G905" s="42"/>
+      <c r="A905" s="42"/>
+      <c r="E905" s="43"/>
+      <c r="G905" s="43"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="41"/>
-      <c r="E906" s="42"/>
-      <c r="G906" s="42"/>
+      <c r="A906" s="42"/>
+      <c r="E906" s="43"/>
+      <c r="G906" s="43"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="41"/>
-      <c r="E907" s="42"/>
-      <c r="G907" s="42"/>
+      <c r="A907" s="42"/>
+      <c r="E907" s="43"/>
+      <c r="G907" s="43"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="41"/>
-      <c r="E908" s="42"/>
-      <c r="G908" s="42"/>
+      <c r="A908" s="42"/>
+      <c r="E908" s="43"/>
+      <c r="G908" s="43"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="41"/>
-      <c r="E909" s="42"/>
-      <c r="G909" s="42"/>
+      <c r="A909" s="42"/>
+      <c r="E909" s="43"/>
+      <c r="G909" s="43"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="41"/>
-      <c r="E910" s="42"/>
-      <c r="G910" s="42"/>
+      <c r="A910" s="42"/>
+      <c r="E910" s="43"/>
+      <c r="G910" s="43"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="41"/>
-      <c r="E911" s="42"/>
-      <c r="G911" s="42"/>
+      <c r="A911" s="42"/>
+      <c r="E911" s="43"/>
+      <c r="G911" s="43"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="41"/>
-      <c r="E912" s="42"/>
-      <c r="G912" s="42"/>
+      <c r="A912" s="42"/>
+      <c r="E912" s="43"/>
+      <c r="G912" s="43"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="41"/>
-      <c r="E913" s="42"/>
-      <c r="G913" s="42"/>
+      <c r="A913" s="42"/>
+      <c r="E913" s="43"/>
+      <c r="G913" s="43"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="41"/>
-      <c r="E914" s="42"/>
-      <c r="G914" s="42"/>
+      <c r="A914" s="42"/>
+      <c r="E914" s="43"/>
+      <c r="G914" s="43"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="41"/>
-      <c r="E915" s="42"/>
-      <c r="G915" s="42"/>
+      <c r="A915" s="42"/>
+      <c r="E915" s="43"/>
+      <c r="G915" s="43"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="41"/>
-      <c r="E916" s="42"/>
-      <c r="G916" s="42"/>
+      <c r="A916" s="42"/>
+      <c r="E916" s="43"/>
+      <c r="G916" s="43"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="41"/>
-      <c r="E917" s="42"/>
-      <c r="G917" s="42"/>
+      <c r="A917" s="42"/>
+      <c r="E917" s="43"/>
+      <c r="G917" s="43"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="41"/>
-      <c r="E918" s="42"/>
-      <c r="G918" s="42"/>
+      <c r="A918" s="42"/>
+      <c r="E918" s="43"/>
+      <c r="G918" s="43"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="41"/>
-      <c r="E919" s="42"/>
-      <c r="G919" s="42"/>
+      <c r="A919" s="42"/>
+      <c r="E919" s="43"/>
+      <c r="G919" s="43"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="41"/>
-      <c r="E920" s="42"/>
-      <c r="G920" s="42"/>
+      <c r="A920" s="42"/>
+      <c r="E920" s="43"/>
+      <c r="G920" s="43"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="41"/>
-      <c r="E921" s="42"/>
-      <c r="G921" s="42"/>
+      <c r="A921" s="42"/>
+      <c r="E921" s="43"/>
+      <c r="G921" s="43"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="41"/>
-      <c r="E922" s="42"/>
-      <c r="G922" s="42"/>
+      <c r="A922" s="42"/>
+      <c r="E922" s="43"/>
+      <c r="G922" s="43"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="41"/>
-      <c r="E923" s="42"/>
-      <c r="G923" s="42"/>
+      <c r="A923" s="42"/>
+      <c r="E923" s="43"/>
+      <c r="G923" s="43"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="41"/>
-      <c r="E924" s="42"/>
-      <c r="G924" s="42"/>
+      <c r="A924" s="42"/>
+      <c r="E924" s="43"/>
+      <c r="G924" s="43"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="41"/>
-      <c r="E925" s="42"/>
-      <c r="G925" s="42"/>
+      <c r="A925" s="42"/>
+      <c r="E925" s="43"/>
+      <c r="G925" s="43"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="41"/>
-      <c r="E926" s="42"/>
-      <c r="G926" s="42"/>
+      <c r="A926" s="42"/>
+      <c r="E926" s="43"/>
+      <c r="G926" s="43"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="41"/>
-      <c r="E927" s="42"/>
-      <c r="G927" s="42"/>
+      <c r="A927" s="42"/>
+      <c r="E927" s="43"/>
+      <c r="G927" s="43"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="41"/>
-      <c r="E928" s="42"/>
-      <c r="G928" s="42"/>
+      <c r="A928" s="42"/>
+      <c r="E928" s="43"/>
+      <c r="G928" s="43"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="41"/>
-      <c r="E929" s="42"/>
-      <c r="G929" s="42"/>
+      <c r="A929" s="42"/>
+      <c r="E929" s="43"/>
+      <c r="G929" s="43"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="41"/>
-      <c r="E930" s="42"/>
-      <c r="G930" s="42"/>
+      <c r="A930" s="42"/>
+      <c r="E930" s="43"/>
+      <c r="G930" s="43"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="41"/>
-      <c r="E931" s="42"/>
-      <c r="G931" s="42"/>
+      <c r="A931" s="42"/>
+      <c r="E931" s="43"/>
+      <c r="G931" s="43"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="41"/>
-      <c r="E932" s="42"/>
-      <c r="G932" s="42"/>
+      <c r="A932" s="42"/>
+      <c r="E932" s="43"/>
+      <c r="G932" s="43"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="41"/>
-      <c r="E933" s="42"/>
-      <c r="G933" s="42"/>
+      <c r="A933" s="42"/>
+      <c r="E933" s="43"/>
+      <c r="G933" s="43"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="41"/>
-      <c r="E934" s="42"/>
-      <c r="G934" s="42"/>
+      <c r="A934" s="42"/>
+      <c r="E934" s="43"/>
+      <c r="G934" s="43"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="41"/>
-      <c r="E935" s="42"/>
-      <c r="G935" s="42"/>
+      <c r="A935" s="42"/>
+      <c r="E935" s="43"/>
+      <c r="G935" s="43"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="41"/>
-      <c r="E936" s="42"/>
-      <c r="G936" s="42"/>
+      <c r="A936" s="42"/>
+      <c r="E936" s="43"/>
+      <c r="G936" s="43"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="41"/>
-      <c r="E937" s="42"/>
-      <c r="G937" s="42"/>
+      <c r="A937" s="42"/>
+      <c r="E937" s="43"/>
+      <c r="G937" s="43"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="41"/>
-      <c r="E938" s="42"/>
-      <c r="G938" s="42"/>
+      <c r="A938" s="42"/>
+      <c r="E938" s="43"/>
+      <c r="G938" s="43"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="41"/>
-      <c r="E939" s="42"/>
-      <c r="G939" s="42"/>
+      <c r="A939" s="42"/>
+      <c r="E939" s="43"/>
+      <c r="G939" s="43"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="41"/>
-      <c r="E940" s="42"/>
-      <c r="G940" s="42"/>
+      <c r="A940" s="42"/>
+      <c r="E940" s="43"/>
+      <c r="G940" s="43"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="41"/>
-      <c r="E941" s="42"/>
-      <c r="G941" s="42"/>
+      <c r="A941" s="42"/>
+      <c r="E941" s="43"/>
+      <c r="G941" s="43"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="41"/>
-      <c r="E942" s="42"/>
-      <c r="G942" s="42"/>
+      <c r="A942" s="42"/>
+      <c r="E942" s="43"/>
+      <c r="G942" s="43"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="41"/>
-      <c r="E943" s="42"/>
-      <c r="G943" s="42"/>
+      <c r="A943" s="42"/>
+      <c r="E943" s="43"/>
+      <c r="G943" s="43"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="41"/>
-      <c r="E944" s="42"/>
-      <c r="G944" s="42"/>
+      <c r="A944" s="42"/>
+      <c r="E944" s="43"/>
+      <c r="G944" s="43"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="41"/>
-      <c r="E945" s="42"/>
-      <c r="G945" s="42"/>
+      <c r="A945" s="42"/>
+      <c r="E945" s="43"/>
+      <c r="G945" s="43"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="41"/>
-      <c r="E946" s="42"/>
-      <c r="G946" s="42"/>
+      <c r="A946" s="42"/>
+      <c r="E946" s="43"/>
+      <c r="G946" s="43"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="41"/>
-      <c r="E947" s="42"/>
-      <c r="G947" s="42"/>
+      <c r="A947" s="42"/>
+      <c r="E947" s="43"/>
+      <c r="G947" s="43"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="41"/>
-      <c r="E948" s="42"/>
-      <c r="G948" s="42"/>
+      <c r="A948" s="42"/>
+      <c r="E948" s="43"/>
+      <c r="G948" s="43"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="41"/>
-      <c r="E949" s="42"/>
-      <c r="G949" s="42"/>
+      <c r="A949" s="42"/>
+      <c r="E949" s="43"/>
+      <c r="G949" s="43"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="41"/>
-      <c r="E950" s="42"/>
-      <c r="G950" s="42"/>
+      <c r="A950" s="42"/>
+      <c r="E950" s="43"/>
+      <c r="G950" s="43"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="41"/>
-      <c r="E951" s="42"/>
-      <c r="G951" s="42"/>
+      <c r="A951" s="42"/>
+      <c r="E951" s="43"/>
+      <c r="G951" s="43"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="41"/>
-      <c r="E952" s="42"/>
-      <c r="G952" s="42"/>
+      <c r="A952" s="42"/>
+      <c r="E952" s="43"/>
+      <c r="G952" s="43"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="41"/>
-      <c r="E953" s="42"/>
-      <c r="G953" s="42"/>
+      <c r="A953" s="42"/>
+      <c r="E953" s="43"/>
+      <c r="G953" s="43"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="41"/>
-      <c r="E954" s="42"/>
-      <c r="G954" s="42"/>
+      <c r="A954" s="42"/>
+      <c r="E954" s="43"/>
+      <c r="G954" s="43"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="41"/>
-      <c r="E955" s="42"/>
-      <c r="G955" s="42"/>
+      <c r="A955" s="42"/>
+      <c r="E955" s="43"/>
+      <c r="G955" s="43"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="41"/>
-      <c r="E956" s="42"/>
-      <c r="G956" s="42"/>
+      <c r="A956" s="42"/>
+      <c r="E956" s="43"/>
+      <c r="G956" s="43"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="41"/>
-      <c r="E957" s="42"/>
-      <c r="G957" s="42"/>
+      <c r="A957" s="42"/>
+      <c r="E957" s="43"/>
+      <c r="G957" s="43"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="41"/>
-      <c r="E958" s="42"/>
-      <c r="G958" s="42"/>
+      <c r="A958" s="42"/>
+      <c r="E958" s="43"/>
+      <c r="G958" s="43"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="41"/>
-      <c r="E959" s="42"/>
-      <c r="G959" s="42"/>
+      <c r="A959" s="42"/>
+      <c r="E959" s="43"/>
+      <c r="G959" s="43"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="41"/>
-      <c r="E960" s="42"/>
-      <c r="G960" s="42"/>
+      <c r="A960" s="42"/>
+      <c r="E960" s="43"/>
+      <c r="G960" s="43"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="41"/>
-      <c r="E961" s="42"/>
-      <c r="G961" s="42"/>
+      <c r="A961" s="42"/>
+      <c r="E961" s="43"/>
+      <c r="G961" s="43"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="41"/>
-      <c r="E962" s="42"/>
-      <c r="G962" s="42"/>
+      <c r="A962" s="42"/>
+      <c r="E962" s="43"/>
+      <c r="G962" s="43"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="41"/>
-      <c r="E963" s="42"/>
-      <c r="G963" s="42"/>
+      <c r="A963" s="42"/>
+      <c r="E963" s="43"/>
+      <c r="G963" s="43"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="41"/>
-      <c r="E964" s="42"/>
-      <c r="G964" s="42"/>
+      <c r="A964" s="42"/>
+      <c r="E964" s="43"/>
+      <c r="G964" s="43"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="41"/>
-      <c r="E965" s="42"/>
-      <c r="G965" s="42"/>
+      <c r="A965" s="42"/>
+      <c r="E965" s="43"/>
+      <c r="G965" s="43"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="41"/>
-      <c r="E966" s="42"/>
-      <c r="G966" s="42"/>
+      <c r="A966" s="42"/>
+      <c r="E966" s="43"/>
+      <c r="G966" s="43"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="41"/>
-      <c r="E967" s="42"/>
-      <c r="G967" s="42"/>
+      <c r="A967" s="42"/>
+      <c r="E967" s="43"/>
+      <c r="G967" s="43"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="41"/>
-      <c r="E968" s="42"/>
-      <c r="G968" s="42"/>
+      <c r="A968" s="42"/>
+      <c r="E968" s="43"/>
+      <c r="G968" s="43"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="41"/>
-      <c r="E969" s="42"/>
-      <c r="G969" s="42"/>
+      <c r="A969" s="42"/>
+      <c r="E969" s="43"/>
+      <c r="G969" s="43"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="41"/>
-      <c r="E970" s="42"/>
-      <c r="G970" s="42"/>
+      <c r="A970" s="42"/>
+      <c r="E970" s="43"/>
+      <c r="G970" s="43"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="41"/>
-      <c r="E971" s="42"/>
-      <c r="G971" s="42"/>
+      <c r="A971" s="42"/>
+      <c r="E971" s="43"/>
+      <c r="G971" s="43"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="41"/>
-      <c r="E972" s="42"/>
-      <c r="G972" s="42"/>
+      <c r="A972" s="42"/>
+      <c r="E972" s="43"/>
+      <c r="G972" s="43"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="41"/>
-      <c r="E973" s="42"/>
-      <c r="G973" s="42"/>
+      <c r="A973" s="42"/>
+      <c r="E973" s="43"/>
+      <c r="G973" s="43"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="41"/>
-      <c r="E974" s="42"/>
-      <c r="G974" s="42"/>
+      <c r="A974" s="42"/>
+      <c r="E974" s="43"/>
+      <c r="G974" s="43"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="41"/>
-      <c r="E975" s="42"/>
-      <c r="G975" s="42"/>
+      <c r="A975" s="42"/>
+      <c r="E975" s="43"/>
+      <c r="G975" s="43"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="41"/>
-      <c r="E976" s="42"/>
-      <c r="G976" s="42"/>
+      <c r="A976" s="42"/>
+      <c r="E976" s="43"/>
+      <c r="G976" s="43"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="41"/>
-      <c r="E977" s="42"/>
-      <c r="G977" s="42"/>
+      <c r="A977" s="42"/>
+      <c r="E977" s="43"/>
+      <c r="G977" s="43"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="41"/>
-      <c r="E978" s="42"/>
-      <c r="G978" s="42"/>
+      <c r="A978" s="42"/>
+      <c r="E978" s="43"/>
+      <c r="G978" s="43"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="41"/>
-      <c r="E979" s="42"/>
-      <c r="G979" s="42"/>
+      <c r="A979" s="42"/>
+      <c r="E979" s="43"/>
+      <c r="G979" s="43"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="41"/>
-      <c r="E980" s="42"/>
-      <c r="G980" s="42"/>
+      <c r="A980" s="42"/>
+      <c r="E980" s="43"/>
+      <c r="G980" s="43"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="41"/>
-      <c r="E981" s="42"/>
-      <c r="G981" s="42"/>
+      <c r="A981" s="42"/>
+      <c r="E981" s="43"/>
+      <c r="G981" s="43"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="41"/>
-      <c r="E982" s="42"/>
-      <c r="G982" s="42"/>
+      <c r="A982" s="42"/>
+      <c r="E982" s="43"/>
+      <c r="G982" s="43"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="41"/>
-      <c r="E983" s="42"/>
-      <c r="G983" s="42"/>
+      <c r="A983" s="42"/>
+      <c r="E983" s="43"/>
+      <c r="G983" s="43"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="41"/>
-      <c r="E984" s="42"/>
-      <c r="G984" s="42"/>
+      <c r="A984" s="42"/>
+      <c r="E984" s="43"/>
+      <c r="G984" s="43"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="41"/>
-      <c r="E985" s="42"/>
-      <c r="G985" s="42"/>
+      <c r="A985" s="42"/>
+      <c r="E985" s="43"/>
+      <c r="G985" s="43"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="41"/>
-      <c r="E986" s="42"/>
-      <c r="G986" s="42"/>
+      <c r="A986" s="42"/>
+      <c r="E986" s="43"/>
+      <c r="G986" s="43"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="41"/>
-      <c r="E987" s="42"/>
-      <c r="G987" s="42"/>
+      <c r="A987" s="42"/>
+      <c r="E987" s="43"/>
+      <c r="G987" s="43"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="41"/>
-      <c r="E988" s="42"/>
-      <c r="G988" s="42"/>
+      <c r="A988" s="42"/>
+      <c r="E988" s="43"/>
+      <c r="G988" s="43"/>
     </row>
     <row r="989">
-      <c r="A989" s="41"/>
-      <c r="E989" s="42"/>
-      <c r="G989" s="42"/>
+      <c r="A989" s="42"/>
+      <c r="E989" s="43"/>
+      <c r="G989" s="43"/>
     </row>
     <row r="990">
-      <c r="A990" s="41"/>
-      <c r="E990" s="42"/>
-      <c r="G990" s="42"/>
+      <c r="A990" s="42"/>
+      <c r="E990" s="43"/>
+      <c r="G990" s="43"/>
     </row>
     <row r="991">
-      <c r="A991" s="41"/>
-      <c r="E991" s="42"/>
-      <c r="G991" s="42"/>
+      <c r="A991" s="42"/>
+      <c r="E991" s="43"/>
+      <c r="G991" s="43"/>
     </row>
     <row r="992">
-      <c r="A992" s="41"/>
-      <c r="E992" s="42"/>
-      <c r="G992" s="42"/>
+      <c r="A992" s="42"/>
+      <c r="E992" s="43"/>
+      <c r="G992" s="43"/>
     </row>
     <row r="993">
-      <c r="A993" s="41"/>
-      <c r="E993" s="42"/>
-      <c r="G993" s="42"/>
+      <c r="A993" s="42"/>
+      <c r="E993" s="43"/>
+      <c r="G993" s="43"/>
     </row>
     <row r="994">
-      <c r="A994" s="41"/>
-      <c r="E994" s="42"/>
-      <c r="G994" s="42"/>
+      <c r="A994" s="42"/>
+      <c r="E994" s="43"/>
+      <c r="G994" s="43"/>
     </row>
     <row r="995">
-      <c r="A995" s="41"/>
-      <c r="E995" s="42"/>
-      <c r="G995" s="42"/>
+      <c r="A995" s="42"/>
+      <c r="E995" s="43"/>
+      <c r="G995" s="43"/>
     </row>
     <row r="996">
-      <c r="A996" s="41"/>
-      <c r="E996" s="42"/>
-      <c r="G996" s="42"/>
+      <c r="A996" s="42"/>
+      <c r="E996" s="43"/>
+      <c r="G996" s="43"/>
     </row>
     <row r="997">
-      <c r="A997" s="41"/>
-      <c r="E997" s="42"/>
-      <c r="G997" s="42"/>
+      <c r="A997" s="42"/>
+      <c r="E997" s="43"/>
+      <c r="G997" s="43"/>
     </row>
     <row r="998">
-      <c r="A998" s="41"/>
-      <c r="E998" s="42"/>
-      <c r="G998" s="42"/>
+      <c r="A998" s="42"/>
+      <c r="E998" s="43"/>
+      <c r="G998" s="43"/>
     </row>
     <row r="999">
-      <c r="A999" s="41"/>
-      <c r="E999" s="42"/>
-      <c r="G999" s="42"/>
+      <c r="A999" s="42"/>
+      <c r="E999" s="43"/>
+      <c r="G999" s="43"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -8468,259 +8467,259 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="45" t="s">
+      <c r="F1" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="45" t="s">
+      <c r="I1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="O1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="45" t="s">
-        <v>72</v>
+      <c r="P1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="A3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -30,20 +30,42 @@
 ID#AAAA4lRxT-g
 Nicolas HUC    (2023-09-05 08:18:38)
 @jean-marc.lafarge-ext@apave.com pas de réponse à cette question ?
-_Attribuée à Jean-Marc LAFARGE_</t>
+_Attribuée à Jean-Marc LAFARGE_
+------
+ID#AAAA4tTYwA4
+Jean-Marc LAFARGE    (2023-09-06 15:07:26)
+Obsolete @nicolas.huc@apave.com
+_Réattribué à Nicolas HUC_
+------
+ID#AAAA5pPei0Y
+Nicolas HUC    (2023-09-07 05:15:20)
+_Marqué comme terminé_
+------
+ID#AAAA5Gd46Mw
+Jean-Marc LAFARGE    (2023-09-11 05:39:54)
+_Rouverte_
+Complément d'information :
+Lorsque la table est devenue arborescente, il y avait un trigger de IMB vers IMPARB.
+Ce trigger initialisait une variable SEL selon un certain critère et cela avait un impact sur la désignation de l'imputation
+Depuis ce trigger est désactivé, la cohérence entre les 2 tables se fait en sens inverse de IMPARB vers IMP.
+Le champ ST_SEL n'est plus utilisé dans le trigger ni dans le code Delphi.
+------
+ID#AAAA5Gd46M0
+Jean-Marc LAFARGE    (2023-09-11 05:41:00)
+@nicolas.huc@apave.com</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhQHGBbe2iv0fIjstm7GO1PZb1IwA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjCj6waLthU5Sax57O7ntLWefB3fQ=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -243,10 +265,7 @@
     <t>Sélectionnable</t>
   </si>
   <si>
-    <t>VOIR MOE. A quoi sert cette rubrique ?</t>
-  </si>
-  <si>
-    <t>ATTENTE INFO</t>
+    <t>OBSOLETE</t>
   </si>
   <si>
     <t>Code personnalisé imputation</t>
@@ -307,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -378,6 +397,13 @@
     </font>
     <font>
       <b/>
+      <sz val="8.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
@@ -393,7 +419,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,12 +466,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
     <fill>
@@ -606,13 +626,13 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -621,24 +641,24 @@
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -647,10 +667,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2377,8 +2397,8 @@
       <c r="D20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>65</v>
+      <c r="E20" s="23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2403,7 +2423,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>48</v>
@@ -2430,10 +2450,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>68</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>35</v>
@@ -2450,10 +2470,10 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>70</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>35</v>
@@ -2470,13 +2490,13 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="C26" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>36</v>
@@ -2487,13 +2507,13 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>75</v>
-      </c>
       <c r="C27" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>36</v>
@@ -3406,7 +3426,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>21</v>
@@ -3432,7 +3452,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -3444,7 +3464,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -3456,7 +3476,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -3468,7 +3488,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -8507,21 +8527,21 @@
         <v>30</v>
       </c>
       <c r="N1" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O1" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -8542,7 +8562,7 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -8563,10 +8583,10 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>82</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -8586,7 +8606,7 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -8607,7 +8627,7 @@
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>

--- a/TNR_JDD/JDD.RO.IMP.xlsx
+++ b/TNR_JDD/JDD.RO.IMP.xlsx
@@ -16,52 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D20">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAA4lRxT-g
-Nicolas HUC    (2023-09-05 08:18:38)
-@jean-marc.lafarge-ext@apave.com pas de réponse à cette question ?
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAA4tTYwA4
-Jean-Marc LAFARGE    (2023-09-06 15:07:26)
-Obsolete @nicolas.huc@apave.com
-_Réattribué à Nicolas HUC_
-------
-ID#AAAA5pPei0Y
-Nicolas HUC    (2023-09-07 05:15:20)
-_Marqué comme terminé_
-------
-ID#AAAA5Gd46Mw
-Jean-Marc LAFARGE    (2023-09-11 05:39:54)
-_Rouverte_
-Complément d'information :
-Lorsque la table est devenue arborescente, il y avait un trigger de IMB vers IMPARB.
-Ce trigger initialisait une variable SEL selon un certain critère et cela avait un impact sur la désignation de l'imputation
-Depuis ce trigger est désactivé, la cohérence entre les 2 tables se fait en sens inverse de IMPARB vers IMP.
-Le champ ST_SEL n'est plus utilisé dans le trigger ni dans le code Delphi.
-------
-ID#AAAA5Gd46M0
-Jean-Marc LAFARGE    (2023-09-11 05:41:00)
-@nicolas.huc@apave.com</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjCj6waLthU5Sax57O7ntLWefB3fQ=="/>
-    </ext>
-  </extLst>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +373,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +446,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border/>
@@ -530,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -667,8 +627,17 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -677,6 +646,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3404,8 +3376,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8514,7 +8485,7 @@
       <c r="I1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="48" t="s">
         <v>62</v>
       </c>
       <c r="K1" s="46" t="s">
@@ -8551,7 +8522,7 @@
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
@@ -8572,7 +8543,7 @@
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -8585,7 +8556,7 @@
       <c r="A4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="39"/>
@@ -8595,7 +8566,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -8616,7 +8587,7 @@
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
@@ -8637,7 +8608,7 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -8647,99 +8618,99 @@
       <c r="Q6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
     </row>
     <row r="10">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
     </row>
     <row r="11">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
